--- a/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
+++ b/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/Zooplankton!/Summer2021-DataAnalysis/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2021-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA529EA-0169-764E-8C5F-ACEC40A205D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3EF1F2-CDDD-AA48-846C-91818BE50EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -72,64 +72,10 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>A</t>
+    <t>1 mL</t>
   </si>
   <si>
-    <t>75x</t>
-  </si>
-  <si>
-    <t>Keratella</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Cyc naup</t>
-  </si>
-  <si>
-    <t>Ceriodaphnia</t>
-  </si>
-  <si>
-    <t>Cyclopidae</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Conochiloides</t>
-  </si>
-  <si>
-    <t>Daphnia</t>
-  </si>
-  <si>
-    <t>Exoskeleton</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>Conochilus</t>
-  </si>
-  <si>
-    <t>2 mL</t>
-  </si>
-  <si>
-    <t>#1/2</t>
-  </si>
-  <si>
-    <t>K. bostoniensis</t>
-  </si>
-  <si>
-    <t>Diaphanosoma</t>
-  </si>
-  <si>
-    <t>B_pel_16Jun21_midnight_rep2</t>
+    <t>B_pel_16Jun21_midnight_epi_rep2</t>
   </si>
 </sst>
 </file>
@@ -187,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,14 +155,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
-  <dimension ref="A1:I1267"/>
+  <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H136"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,8 +489,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>31</v>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="8"/>
@@ -570,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="C3"/>
     </row>
@@ -580,7 +521,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -613,4050 +554,2103 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2000</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2000</v>
-      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2000</v>
-      </c>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2000</v>
-      </c>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2000</v>
-      </c>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F31" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2000</v>
-      </c>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
-      <c r="H40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="D42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="D43" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2000</v>
-      </c>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="D44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="D45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="D47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="D48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2000</v>
-      </c>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="D50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="D51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
-      <c r="D52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
-      <c r="D53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D53" s="10"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="D59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="D60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="D61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D61" s="10"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="D62" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D62" s="10"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="D63" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D63" s="10"/>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="D64" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="D66" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="D67" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D67" s="10"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="D68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D68" s="10"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="D70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="D71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="D72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D72" s="10"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="D74" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D74" s="10"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="D76" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
-      <c r="D77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="4"/>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F79" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="4">
-        <v>2000</v>
-      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="D81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D81" s="10"/>
+      <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="D82" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D82" s="10"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="D84" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D84" s="10"/>
+      <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="D85" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D85" s="10"/>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="7">
-        <v>5</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="8"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D88" s="10"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="D89" s="10"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="D90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F91" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D90" s="10"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
-      <c r="D92" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="4">
-        <v>2000</v>
-      </c>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="D94" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D94" s="10"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="D95" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="D96" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="D97" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D97" s="10"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
-      <c r="D99" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D99" s="10"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
-      <c r="D100" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
-      <c r="D101" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
       <c r="B102" s="4"/>
-      <c r="D102" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
       <c r="B104" s="4"/>
-      <c r="D104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
       <c r="B105" s="4"/>
-      <c r="D105" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
       <c r="B106" s="4"/>
-      <c r="D106" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E106" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="4"/>
       <c r="B107" s="4"/>
-      <c r="D107" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F107" s="5"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F108" s="5"/>
-      <c r="H108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="D110" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F111" s="5"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="4"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="4"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="4"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="4"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
       <c r="B112" s="4"/>
-      <c r="D112" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
       <c r="B113" s="4"/>
-      <c r="D113" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="D114" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="7">
-        <v>2</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="D116" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
       <c r="B117" s="4"/>
-      <c r="D117" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
       <c r="B118" s="4"/>
-      <c r="D118" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="4">
-        <v>2000</v>
-      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-      <c r="D119" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D119" s="10"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-      <c r="D120" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="7">
-        <v>11.8</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="D122" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="8"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="D123" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="4"/>
-      <c r="D124" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="D126" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="D127" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F129" s="4"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="4"/>
-      <c r="D130" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="4"/>
-      <c r="D131" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="4"/>
-      <c r="D132" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B133" s="4"/>
-      <c r="D133" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="D134" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" s="4"/>
-      <c r="D135" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="4"/>
-      <c r="D137" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="D138" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="4"/>
-      <c r="D139" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="4"/>
-      <c r="D140" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="4"/>
-      <c r="D141" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" s="4"/>
-      <c r="D142" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="4"/>
-      <c r="D143" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E143" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" s="4"/>
-      <c r="D144" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="D145" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="D146" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="4"/>
-      <c r="D147" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F148">
-        <v>0.8</v>
-      </c>
-      <c r="G148">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="D149" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="D151" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="4"/>
-      <c r="D152" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="4"/>
-      <c r="D153" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" s="4"/>
-      <c r="D154" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="4"/>
-      <c r="D155" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="D156" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F157" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G157" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B158" s="4"/>
-      <c r="D158" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" s="4"/>
-      <c r="D159" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" s="4"/>
-      <c r="D160" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="4"/>
-      <c r="D161" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="4"/>
-      <c r="D162" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="7">
-        <v>1</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F163" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G163" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="4"/>
-      <c r="D164" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="4"/>
-      <c r="D165" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="D167" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B168" s="4"/>
-      <c r="D168" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="D170" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B172" s="4"/>
-      <c r="D172" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="D173" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="D174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="4"/>
-      <c r="D175" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="D176" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B177" s="4"/>
-      <c r="D177" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B178" s="4"/>
-      <c r="D178" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F179" s="4"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180" s="4"/>
-      <c r="D180" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F180" s="4"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="D182" s="11"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="4"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="4"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="4"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="5"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="5"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="5"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="5"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="D183" s="11"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="5"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="D184" s="11"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+      <c r="D184" s="10"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="D185" s="11"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
+      <c r="D185" s="10"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="D186" s="11"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="D187" s="11"/>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="D188" s="11"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="D189" s="11"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+      <c r="D189" s="10"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="D190" s="11"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+      <c r="D190" s="10"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="D191" s="11"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="5"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="D192" s="11"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="D192" s="10"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="D193" s="11"/>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="D194" s="11"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="D194" s="10"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="D195" s="11"/>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="D195" s="10"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="D196" s="11"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="D197" s="11"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="D198" s="11"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="D198" s="10"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="D199" s="11"/>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="D199" s="10"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="D200" s="11"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="5"/>
+      <c r="D200" s="10"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="D201" s="11"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="D202" s="11"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="5"/>
+      <c r="D202" s="10"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="D203" s="11"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="D204" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
+      <c r="D204" s="10"/>
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="D205" s="11"/>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="5"/>
+      <c r="D205" s="10"/>
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="D206" s="11"/>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="D206" s="10"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="D207" s="11"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="5"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="D208" s="11"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="5"/>
+      <c r="D208" s="10"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="D209" s="11"/>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="5"/>
+      <c r="D209" s="10"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="D210" s="11"/>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="5"/>
+      <c r="D210" s="10"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="D211" s="11"/>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="D211" s="10"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="D212" s="11"/>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="5"/>
+      <c r="D212" s="10"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="D213" s="11"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="D213" s="10"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="D214" s="11"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="5"/>
+      <c r="D214" s="10"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="D215" s="11"/>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="5"/>
+      <c r="D215" s="10"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="D216" s="11"/>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="5"/>
+      <c r="D216" s="10"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="D217" s="11"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="5"/>
+      <c r="D217" s="10"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="D218" s="11"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="5"/>
+      <c r="D218" s="10"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="D219" s="11"/>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+      <c r="D219" s="10"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="D220" s="11"/>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="5"/>
+      <c r="D220" s="10"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="D221" s="11"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="5"/>
+      <c r="D221" s="10"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="D222" s="11"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="5"/>
+      <c r="D222" s="10"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="D223" s="11"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="5"/>
+      <c r="D223" s="10"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="D224" s="11"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="5"/>
+      <c r="D224" s="10"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="D225" s="11"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="5"/>
+      <c r="D225" s="10"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="D226" s="11"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="5"/>
+      <c r="D226" s="10"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="D227" s="11"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="5"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="D228" s="11"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="5"/>
+      <c r="D228" s="10"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="D229" s="11"/>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="5"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="4"/>
-      <c r="D230" s="11"/>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="5"/>
+      <c r="D230" s="10"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="4"/>
-      <c r="D231" s="11"/>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="5"/>
+      <c r="D231" s="10"/>
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
-      <c r="D232" s="11"/>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="5"/>
+      <c r="D232" s="10"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="4"/>
-      <c r="D233" s="11"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="5"/>
+      <c r="D233" s="10"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="D234" s="11"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="5"/>
+      <c r="D234" s="10"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="D235" s="11"/>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="5"/>
+      <c r="D235" s="10"/>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="D236" s="11"/>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="5"/>
+      <c r="D236" s="10"/>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="D237" s="11"/>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="5"/>
+      <c r="D237" s="10"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="D238" s="11"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="5"/>
+      <c r="D238" s="10"/>
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="D239" s="11"/>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="5"/>
+      <c r="D239" s="10"/>
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="D240" s="11"/>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="5"/>
+      <c r="D240" s="10"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="D241" s="11"/>
+      <c r="A241" s="5"/>
+      <c r="D241" s="10"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="D242" s="11"/>
+      <c r="A242" s="5"/>
+      <c r="D242" s="10"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="4"/>
-      <c r="D243" s="11"/>
+      <c r="A243" s="5"/>
+      <c r="D243" s="10"/>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="4"/>
-      <c r="D244" s="11"/>
+      <c r="A244" s="5"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="4"/>
-      <c r="D245" s="11"/>
+      <c r="A245" s="5"/>
+      <c r="D245" s="10"/>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="4"/>
-      <c r="D246" s="11"/>
+      <c r="A246" s="5"/>
+      <c r="D246" s="10"/>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
-      <c r="D247" s="11"/>
+      <c r="A247" s="5"/>
+      <c r="D247" s="10"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
-      <c r="D248" s="11"/>
+      <c r="A248" s="5"/>
+      <c r="D248" s="10"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
-      <c r="D249" s="11"/>
+      <c r="A249" s="5"/>
+      <c r="D249" s="10"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
-      <c r="D250" s="11"/>
+      <c r="A250" s="5"/>
+      <c r="D250" s="10"/>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
-      <c r="D251" s="11"/>
+      <c r="A251" s="5"/>
+      <c r="D251" s="10"/>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
-      <c r="D252" s="11"/>
+      <c r="A252" s="5"/>
+      <c r="D252" s="10"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-      <c r="D253" s="11"/>
+      <c r="A253" s="5"/>
+      <c r="D253" s="10"/>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="4"/>
-      <c r="D254" s="11"/>
+      <c r="A254" s="5"/>
+      <c r="D254" s="10"/>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="4"/>
-      <c r="D255" s="11"/>
+      <c r="A255" s="5"/>
+      <c r="D255" s="10"/>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
-      <c r="D256" s="11"/>
+      <c r="D256" s="10"/>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
-      <c r="D257" s="11"/>
+      <c r="D257" s="10"/>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
-      <c r="D258" s="11"/>
+      <c r="D258" s="10"/>
       <c r="E258" s="4"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
-      <c r="D259" s="11"/>
+      <c r="D259" s="10"/>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
-      <c r="D260" s="11"/>
+      <c r="D260" s="10"/>
       <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
-      <c r="D261" s="11"/>
+      <c r="D261" s="10"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
-      <c r="D262" s="11"/>
+      <c r="D262" s="10"/>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
-      <c r="D263" s="11"/>
+      <c r="D263" s="10"/>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
-      <c r="D264" s="11"/>
+      <c r="D264" s="10"/>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
-      <c r="D265" s="11"/>
+      <c r="D265" s="10"/>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
-      <c r="D266" s="11"/>
+      <c r="D266" s="10"/>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
-      <c r="D267" s="11"/>
+      <c r="D267" s="10"/>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
-      <c r="D268" s="11"/>
+      <c r="D268" s="10"/>
       <c r="E268" s="4"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
-      <c r="D269" s="11"/>
+      <c r="D269" s="4"/>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
-      <c r="D270" s="11"/>
+      <c r="D270" s="4"/>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
-      <c r="D271" s="11"/>
+      <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
-      <c r="D272" s="11"/>
+      <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
-      <c r="D273" s="11"/>
+      <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
-      <c r="D274" s="11"/>
+      <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
-      <c r="D275" s="11"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
-      <c r="D276" s="11"/>
+      <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
-      <c r="D277" s="11"/>
+      <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
-      <c r="D278" s="11"/>
+      <c r="D278" s="4"/>
       <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
-      <c r="D279" s="11"/>
+      <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
-      <c r="D280" s="11"/>
+      <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
-      <c r="D281" s="11"/>
+      <c r="D281" s="4"/>
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
-      <c r="D282" s="11"/>
+      <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
-      <c r="D283" s="11"/>
+      <c r="D283" s="4"/>
       <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
-      <c r="D284" s="11"/>
+      <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
-      <c r="D285" s="11"/>
+      <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
-      <c r="D286" s="11"/>
+      <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
-      <c r="D287" s="11"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
-      <c r="D288" s="11"/>
+      <c r="D288" s="4"/>
       <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
-      <c r="D289" s="11"/>
+      <c r="D289" s="4"/>
       <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
-      <c r="D290" s="11"/>
+      <c r="D290" s="4"/>
       <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
-      <c r="D291" s="11"/>
+      <c r="D291" s="4"/>
       <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
-      <c r="D292" s="11"/>
+      <c r="D292" s="4"/>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
-      <c r="D293" s="11"/>
+      <c r="D293" s="4"/>
       <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
-      <c r="D294" s="11"/>
+      <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
-      <c r="D295" s="11"/>
+      <c r="D295" s="4"/>
       <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
-      <c r="D296" s="11"/>
+      <c r="D296" s="4"/>
       <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
-      <c r="D297" s="11"/>
+      <c r="D297" s="4"/>
       <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
-      <c r="D298" s="11"/>
+      <c r="D298" s="4"/>
       <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
-      <c r="D299" s="11"/>
+      <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
-      <c r="D300" s="11"/>
+      <c r="D300" s="4"/>
       <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
-      <c r="D301" s="11"/>
+      <c r="D301" s="4"/>
       <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
-      <c r="D302" s="11"/>
+      <c r="D302" s="4"/>
       <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
-      <c r="D303" s="11"/>
+      <c r="D303" s="4"/>
       <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
-      <c r="D304" s="11"/>
+      <c r="D304" s="4"/>
       <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
-      <c r="D305" s="11"/>
+      <c r="D305" s="4"/>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
-      <c r="D306" s="11"/>
+      <c r="D306" s="4"/>
       <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
-      <c r="D307" s="11"/>
+      <c r="D307" s="4"/>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
-      <c r="D308" s="11"/>
+      <c r="D308" s="4"/>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
-      <c r="D309" s="11"/>
+      <c r="D309" s="4"/>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
-      <c r="D310" s="11"/>
+      <c r="D310" s="4"/>
       <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
-      <c r="D311" s="11"/>
+      <c r="D311" s="4"/>
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
-      <c r="D312" s="11"/>
+      <c r="D312" s="4"/>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
-      <c r="D313" s="11"/>
+      <c r="D313" s="4"/>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
-      <c r="D314" s="11"/>
+      <c r="D314" s="4"/>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
-      <c r="D315" s="11"/>
+      <c r="D315" s="4"/>
       <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
-      <c r="D316" s="11"/>
+      <c r="D316" s="4"/>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
-      <c r="D317" s="11"/>
+      <c r="D317" s="4"/>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
-      <c r="D318" s="11"/>
+      <c r="D318" s="4"/>
       <c r="E318" s="4"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
-      <c r="D319" s="11"/>
+      <c r="D319" s="4"/>
       <c r="E319" s="4"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
-      <c r="D320" s="11"/>
+      <c r="D320" s="4"/>
       <c r="E320" s="4"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
-      <c r="D321" s="11"/>
+      <c r="D321" s="4"/>
       <c r="E321" s="4"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
-      <c r="D322" s="11"/>
+      <c r="D322" s="4"/>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
-      <c r="D323" s="11"/>
+      <c r="D323" s="4"/>
       <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
-      <c r="D324" s="11"/>
+      <c r="D324" s="4"/>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
-      <c r="D325" s="11"/>
+      <c r="D325" s="4"/>
       <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
-      <c r="D326" s="11"/>
+      <c r="D326" s="4"/>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
-      <c r="D327" s="11"/>
+      <c r="D327" s="4"/>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
-      <c r="D328" s="11"/>
+      <c r="D328" s="4"/>
       <c r="E328" s="4"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
-      <c r="D329" s="11"/>
+      <c r="D329" s="4"/>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
-      <c r="D330" s="11"/>
+      <c r="D330" s="4"/>
       <c r="E330" s="4"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
-      <c r="D331" s="11"/>
+      <c r="D331" s="4"/>
       <c r="E331" s="4"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
-      <c r="D332" s="11"/>
+      <c r="D332" s="4"/>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
-      <c r="D333" s="11"/>
+      <c r="D333" s="4"/>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
-      <c r="D334" s="11"/>
+      <c r="D334" s="4"/>
       <c r="E334" s="4"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
-      <c r="D335" s="11"/>
+      <c r="D335" s="4"/>
       <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
-      <c r="D336" s="11"/>
+      <c r="D336" s="4"/>
       <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
-      <c r="D337" s="11"/>
+      <c r="D337" s="4"/>
       <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
-      <c r="D338" s="11"/>
+      <c r="D338" s="4"/>
       <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
-      <c r="D339" s="11"/>
+      <c r="D339" s="4"/>
       <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
-      <c r="D340" s="11"/>
+      <c r="D340" s="4"/>
       <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
-      <c r="D341" s="11"/>
+      <c r="D341" s="4"/>
       <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="D342" s="11"/>
+      <c r="D342" s="4"/>
       <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
-      <c r="D343" s="11"/>
+      <c r="D343" s="4"/>
       <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
-      <c r="D344" s="11"/>
+      <c r="D344" s="4"/>
       <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
-      <c r="D345" s="11"/>
+      <c r="D345" s="4"/>
       <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
-      <c r="D346" s="11"/>
+      <c r="D346" s="4"/>
       <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
-      <c r="D347" s="11"/>
+      <c r="D347" s="4"/>
       <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
-      <c r="D348" s="11"/>
+      <c r="D348" s="4"/>
       <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
-      <c r="D349" s="11"/>
+      <c r="D349" s="4"/>
       <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
-      <c r="D350" s="11"/>
+      <c r="D350" s="4"/>
       <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
-      <c r="D351" s="11"/>
+      <c r="D351" s="4"/>
       <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
-      <c r="D352" s="11"/>
+      <c r="D352" s="4"/>
       <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
-      <c r="D353" s="11"/>
+      <c r="D353" s="4"/>
       <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
-      <c r="D354" s="11"/>
+      <c r="D354" s="4"/>
       <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
-      <c r="D355" s="11"/>
+      <c r="D355" s="4"/>
       <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
-      <c r="D356" s="11"/>
+      <c r="D356" s="4"/>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
-      <c r="D357" s="11"/>
+      <c r="D357" s="4"/>
       <c r="E357" s="4"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
-      <c r="D358" s="11"/>
+      <c r="D358" s="4"/>
       <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
-      <c r="D359" s="11"/>
+      <c r="D359" s="4"/>
       <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
-      <c r="D360" s="11"/>
+      <c r="D360" s="4"/>
       <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
-      <c r="D361" s="11"/>
+      <c r="D361" s="4"/>
       <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
-      <c r="D362" s="11"/>
+      <c r="D362" s="4"/>
       <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
-      <c r="D363" s="11"/>
+      <c r="D363" s="4"/>
       <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
-      <c r="D364" s="11"/>
+      <c r="D364" s="4"/>
       <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
-      <c r="D365" s="11"/>
+      <c r="D365" s="4"/>
       <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
-      <c r="D366" s="11"/>
+      <c r="D366" s="4"/>
       <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
-      <c r="D367" s="11"/>
+      <c r="D367" s="4"/>
       <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
-      <c r="D368" s="11"/>
+      <c r="D368" s="4"/>
       <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
-      <c r="D369" s="11"/>
+      <c r="D369" s="4"/>
       <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
-      <c r="D370" s="11"/>
+      <c r="D370" s="4"/>
       <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
-      <c r="D371" s="11"/>
+      <c r="D371" s="4"/>
       <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
-      <c r="D372" s="11"/>
+      <c r="D372" s="4"/>
       <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
-      <c r="D373" s="11"/>
+      <c r="D373" s="4"/>
       <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
-      <c r="D374" s="11"/>
+      <c r="D374" s="4"/>
       <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
-      <c r="D375" s="11"/>
+      <c r="D375" s="4"/>
       <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
-      <c r="D376" s="11"/>
+      <c r="D376" s="4"/>
       <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
-      <c r="D377" s="11"/>
+      <c r="D377" s="4"/>
       <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
-      <c r="D378" s="11"/>
+      <c r="D378" s="4"/>
       <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
-      <c r="D379" s="11"/>
+      <c r="D379" s="4"/>
       <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
-      <c r="D380" s="11"/>
+      <c r="D380" s="4"/>
       <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
-      <c r="D381" s="11"/>
+      <c r="D381" s="4"/>
       <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
-      <c r="D382" s="11"/>
+      <c r="D382" s="4"/>
       <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
-      <c r="D383" s="11"/>
+      <c r="D383" s="4"/>
       <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
-      <c r="D384" s="11"/>
+      <c r="D384" s="4"/>
       <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
-      <c r="D385" s="11"/>
+      <c r="D385" s="4"/>
       <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
-      <c r="D386" s="11"/>
+      <c r="D386" s="4"/>
       <c r="E386" s="4"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
-      <c r="D387" s="11"/>
+      <c r="D387" s="4"/>
       <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
-      <c r="D388" s="11"/>
+      <c r="D388" s="4"/>
       <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
-      <c r="D389" s="11"/>
+      <c r="D389" s="4"/>
       <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
-      <c r="D390" s="11"/>
+      <c r="D390" s="4"/>
       <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -4949,82 +2943,83 @@
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F455" s="4"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -5589,83 +3584,82 @@
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
-      <c r="F577" s="4"/>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -8366,669 +6360,59 @@
       <c r="E1131" s="4"/>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1132" s="5"/>
       <c r="D1132" s="4"/>
       <c r="E1132" s="4"/>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1133" s="5"/>
       <c r="D1133" s="4"/>
       <c r="E1133" s="4"/>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1134" s="5"/>
       <c r="D1134" s="4"/>
       <c r="E1134" s="4"/>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1135" s="5"/>
       <c r="D1135" s="4"/>
       <c r="E1135" s="4"/>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1136" s="5"/>
       <c r="D1136" s="4"/>
       <c r="E1136" s="4"/>
     </row>
-    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1137" s="5"/>
+    <row r="1137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1137" s="4"/>
       <c r="E1137" s="4"/>
     </row>
-    <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1138" s="5"/>
+    <row r="1138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1138" s="4"/>
       <c r="E1138" s="4"/>
     </row>
-    <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1139" s="5"/>
+    <row r="1139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1139" s="4"/>
       <c r="E1139" s="4"/>
     </row>
-    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1140" s="5"/>
+    <row r="1140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1140" s="4"/>
       <c r="E1140" s="4"/>
     </row>
-    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1141" s="5"/>
+    <row r="1141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1141" s="4"/>
       <c r="E1141" s="4"/>
     </row>
-    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1142" s="5"/>
+    <row r="1142" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1142" s="4"/>
       <c r="E1142" s="4"/>
     </row>
-    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1143" s="5"/>
+    <row r="1143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1143" s="4"/>
       <c r="E1143" s="4"/>
     </row>
-    <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1144" s="5"/>
+    <row r="1144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1144" s="4"/>
       <c r="E1144" s="4"/>
     </row>
-    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1145" s="5"/>
+    <row r="1145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1145" s="4"/>
-      <c r="E1145" s="4"/>
-    </row>
-    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1146" s="5"/>
-      <c r="D1146" s="4"/>
-      <c r="E1146" s="4"/>
-    </row>
-    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1147" s="5"/>
-      <c r="D1147" s="4"/>
-      <c r="E1147" s="4"/>
-    </row>
-    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1148" s="5"/>
-      <c r="D1148" s="4"/>
-      <c r="E1148" s="4"/>
-    </row>
-    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1149" s="5"/>
-      <c r="D1149" s="4"/>
-      <c r="E1149" s="4"/>
-    </row>
-    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1150" s="5"/>
-      <c r="D1150" s="4"/>
-      <c r="E1150" s="4"/>
-    </row>
-    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1151" s="5"/>
-      <c r="D1151" s="4"/>
-      <c r="E1151" s="4"/>
-    </row>
-    <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1152" s="5"/>
-      <c r="D1152" s="4"/>
-      <c r="E1152" s="4"/>
-    </row>
-    <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1153" s="5"/>
-      <c r="D1153" s="4"/>
-      <c r="E1153" s="4"/>
-    </row>
-    <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1154" s="5"/>
-      <c r="D1154" s="4"/>
-      <c r="E1154" s="4"/>
-    </row>
-    <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1155" s="5"/>
-      <c r="D1155" s="4"/>
-      <c r="E1155" s="4"/>
-    </row>
-    <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1156" s="5"/>
-      <c r="D1156" s="4"/>
-      <c r="E1156" s="4"/>
-    </row>
-    <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1157" s="5"/>
-      <c r="D1157" s="4"/>
-      <c r="E1157" s="4"/>
-    </row>
-    <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1158" s="5"/>
-      <c r="D1158" s="4"/>
-      <c r="E1158" s="4"/>
-    </row>
-    <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1159" s="5"/>
-      <c r="D1159" s="4"/>
-      <c r="E1159" s="4"/>
-    </row>
-    <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1160" s="5"/>
-      <c r="D1160" s="4"/>
-      <c r="E1160" s="4"/>
-    </row>
-    <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1161" s="5"/>
-      <c r="D1161" s="4"/>
-      <c r="E1161" s="4"/>
-    </row>
-    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1162" s="5"/>
-      <c r="D1162" s="4"/>
-      <c r="E1162" s="4"/>
-    </row>
-    <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1163" s="5"/>
-      <c r="D1163" s="4"/>
-      <c r="E1163" s="4"/>
-    </row>
-    <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1164" s="5"/>
-      <c r="D1164" s="4"/>
-      <c r="E1164" s="4"/>
-    </row>
-    <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1165" s="5"/>
-      <c r="D1165" s="4"/>
-      <c r="E1165" s="4"/>
-    </row>
-    <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1166" s="5"/>
-      <c r="D1166" s="4"/>
-      <c r="E1166" s="4"/>
-    </row>
-    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1167" s="5"/>
-      <c r="D1167" s="4"/>
-      <c r="E1167" s="4"/>
-    </row>
-    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1168" s="5"/>
-      <c r="D1168" s="4"/>
-      <c r="E1168" s="4"/>
-    </row>
-    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1169" s="5"/>
-      <c r="D1169" s="4"/>
-      <c r="E1169" s="4"/>
-    </row>
-    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1170" s="5"/>
-      <c r="D1170" s="4"/>
-      <c r="E1170" s="4"/>
-    </row>
-    <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1171" s="5"/>
-      <c r="D1171" s="4"/>
-      <c r="E1171" s="4"/>
-    </row>
-    <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1172" s="5"/>
-      <c r="D1172" s="4"/>
-      <c r="E1172" s="4"/>
-    </row>
-    <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1173" s="5"/>
-      <c r="D1173" s="4"/>
-      <c r="E1173" s="4"/>
-    </row>
-    <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1174" s="5"/>
-      <c r="D1174" s="4"/>
-      <c r="E1174" s="4"/>
-    </row>
-    <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1175" s="5"/>
-      <c r="D1175" s="4"/>
-      <c r="E1175" s="4"/>
-    </row>
-    <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1176" s="5"/>
-      <c r="D1176" s="4"/>
-      <c r="E1176" s="4"/>
-    </row>
-    <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1177" s="5"/>
-      <c r="D1177" s="4"/>
-      <c r="E1177" s="4"/>
-    </row>
-    <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1178" s="5"/>
-      <c r="D1178" s="4"/>
-      <c r="E1178" s="4"/>
-    </row>
-    <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1179" s="5"/>
-      <c r="D1179" s="4"/>
-      <c r="E1179" s="4"/>
-    </row>
-    <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1180" s="5"/>
-      <c r="D1180" s="4"/>
-      <c r="E1180" s="4"/>
-    </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1181" s="5"/>
-      <c r="D1181" s="4"/>
-      <c r="E1181" s="4"/>
-    </row>
-    <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1182" s="5"/>
-      <c r="D1182" s="4"/>
-      <c r="E1182" s="4"/>
-    </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1183" s="5"/>
-      <c r="D1183" s="4"/>
-      <c r="E1183" s="4"/>
-    </row>
-    <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1184" s="5"/>
-      <c r="D1184" s="4"/>
-      <c r="E1184" s="4"/>
-    </row>
-    <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1185" s="5"/>
-      <c r="D1185" s="4"/>
-      <c r="E1185" s="4"/>
-    </row>
-    <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1186" s="5"/>
-      <c r="D1186" s="4"/>
-      <c r="E1186" s="4"/>
-    </row>
-    <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1187" s="5"/>
-      <c r="D1187" s="4"/>
-      <c r="E1187" s="4"/>
-    </row>
-    <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1188" s="5"/>
-      <c r="D1188" s="4"/>
-      <c r="E1188" s="4"/>
-    </row>
-    <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1189" s="5"/>
-      <c r="D1189" s="4"/>
-      <c r="E1189" s="4"/>
-    </row>
-    <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1190" s="5"/>
-      <c r="D1190" s="4"/>
-      <c r="E1190" s="4"/>
-    </row>
-    <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1191" s="5"/>
-      <c r="D1191" s="4"/>
-      <c r="E1191" s="4"/>
-    </row>
-    <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1192" s="5"/>
-      <c r="D1192" s="4"/>
-      <c r="E1192" s="4"/>
-    </row>
-    <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1193" s="5"/>
-      <c r="D1193" s="4"/>
-      <c r="E1193" s="4"/>
-    </row>
-    <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1194" s="5"/>
-      <c r="D1194" s="4"/>
-      <c r="E1194" s="4"/>
-    </row>
-    <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1195" s="5"/>
-      <c r="D1195" s="4"/>
-      <c r="E1195" s="4"/>
-    </row>
-    <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1196" s="5"/>
-      <c r="D1196" s="4"/>
-      <c r="E1196" s="4"/>
-    </row>
-    <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1197" s="5"/>
-      <c r="D1197" s="4"/>
-      <c r="E1197" s="4"/>
-    </row>
-    <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1198" s="5"/>
-      <c r="D1198" s="4"/>
-      <c r="E1198" s="4"/>
-    </row>
-    <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1199" s="5"/>
-      <c r="D1199" s="4"/>
-      <c r="E1199" s="4"/>
-    </row>
-    <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1200" s="5"/>
-      <c r="D1200" s="4"/>
-      <c r="E1200" s="4"/>
-    </row>
-    <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1201" s="5"/>
-      <c r="D1201" s="4"/>
-      <c r="E1201" s="4"/>
-    </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1202" s="5"/>
-      <c r="D1202" s="4"/>
-      <c r="E1202" s="4"/>
-    </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1203" s="5"/>
-      <c r="D1203" s="4"/>
-      <c r="E1203" s="4"/>
-    </row>
-    <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1204" s="5"/>
-      <c r="D1204" s="4"/>
-      <c r="E1204" s="4"/>
-    </row>
-    <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1205" s="5"/>
-      <c r="D1205" s="4"/>
-      <c r="E1205" s="4"/>
-    </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1206" s="5"/>
-      <c r="D1206" s="4"/>
-      <c r="E1206" s="4"/>
-    </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1207" s="5"/>
-      <c r="D1207" s="4"/>
-      <c r="E1207" s="4"/>
-    </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1208" s="5"/>
-      <c r="D1208" s="4"/>
-      <c r="E1208" s="4"/>
-    </row>
-    <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1209" s="5"/>
-      <c r="D1209" s="4"/>
-      <c r="E1209" s="4"/>
-    </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1210" s="5"/>
-      <c r="D1210" s="4"/>
-      <c r="E1210" s="4"/>
-    </row>
-    <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1211" s="5"/>
-      <c r="D1211" s="4"/>
-      <c r="E1211" s="4"/>
-    </row>
-    <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1212" s="5"/>
-      <c r="D1212" s="4"/>
-      <c r="E1212" s="4"/>
-    </row>
-    <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1213" s="5"/>
-      <c r="D1213" s="4"/>
-      <c r="E1213" s="4"/>
-    </row>
-    <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1214" s="5"/>
-      <c r="D1214" s="4"/>
-      <c r="E1214" s="4"/>
-    </row>
-    <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1215" s="5"/>
-      <c r="D1215" s="4"/>
-      <c r="E1215" s="4"/>
-    </row>
-    <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1216" s="5"/>
-      <c r="D1216" s="4"/>
-      <c r="E1216" s="4"/>
-    </row>
-    <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1217" s="5"/>
-      <c r="D1217" s="4"/>
-      <c r="E1217" s="4"/>
-    </row>
-    <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1218" s="5"/>
-      <c r="D1218" s="4"/>
-      <c r="E1218" s="4"/>
-    </row>
-    <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1219" s="5"/>
-      <c r="D1219" s="4"/>
-      <c r="E1219" s="4"/>
-    </row>
-    <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1220" s="5"/>
-      <c r="D1220" s="4"/>
-      <c r="E1220" s="4"/>
-    </row>
-    <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1221" s="5"/>
-      <c r="D1221" s="4"/>
-      <c r="E1221" s="4"/>
-    </row>
-    <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1222" s="5"/>
-      <c r="D1222" s="4"/>
-      <c r="E1222" s="4"/>
-    </row>
-    <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1223" s="5"/>
-      <c r="D1223" s="4"/>
-      <c r="E1223" s="4"/>
-    </row>
-    <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1224" s="5"/>
-      <c r="D1224" s="4"/>
-      <c r="E1224" s="4"/>
-    </row>
-    <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1225" s="5"/>
-      <c r="D1225" s="4"/>
-      <c r="E1225" s="4"/>
-    </row>
-    <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1226" s="5"/>
-      <c r="D1226" s="4"/>
-      <c r="E1226" s="4"/>
-    </row>
-    <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1227" s="5"/>
-      <c r="D1227" s="4"/>
-      <c r="E1227" s="4"/>
-    </row>
-    <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1228" s="5"/>
-      <c r="D1228" s="4"/>
-      <c r="E1228" s="4"/>
-    </row>
-    <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1229" s="5"/>
-      <c r="D1229" s="4"/>
-      <c r="E1229" s="4"/>
-    </row>
-    <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1230" s="5"/>
-      <c r="D1230" s="4"/>
-      <c r="E1230" s="4"/>
-    </row>
-    <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1231" s="5"/>
-      <c r="D1231" s="4"/>
-      <c r="E1231" s="4"/>
-    </row>
-    <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1232" s="5"/>
-      <c r="D1232" s="4"/>
-      <c r="E1232" s="4"/>
-    </row>
-    <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1233" s="5"/>
-      <c r="D1233" s="4"/>
-      <c r="E1233" s="4"/>
-    </row>
-    <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1234" s="5"/>
-      <c r="D1234" s="4"/>
-      <c r="E1234" s="4"/>
-    </row>
-    <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1235" s="5"/>
-      <c r="D1235" s="4"/>
-      <c r="E1235" s="4"/>
-    </row>
-    <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1236" s="5"/>
-      <c r="D1236" s="4"/>
-      <c r="E1236" s="4"/>
-    </row>
-    <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1237" s="5"/>
-      <c r="D1237" s="4"/>
-      <c r="E1237" s="4"/>
-    </row>
-    <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1238" s="5"/>
-      <c r="D1238" s="4"/>
-      <c r="E1238" s="4"/>
-    </row>
-    <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1239" s="5"/>
-      <c r="D1239" s="4"/>
-      <c r="E1239" s="4"/>
-    </row>
-    <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1240" s="5"/>
-      <c r="D1240" s="4"/>
-      <c r="E1240" s="4"/>
-    </row>
-    <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1241" s="5"/>
-      <c r="D1241" s="4"/>
-      <c r="E1241" s="4"/>
-    </row>
-    <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1242" s="5"/>
-      <c r="D1242" s="4"/>
-      <c r="E1242" s="4"/>
-    </row>
-    <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1243" s="5"/>
-      <c r="D1243" s="4"/>
-      <c r="E1243" s="4"/>
-    </row>
-    <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1244" s="5"/>
-      <c r="D1244" s="4"/>
-      <c r="E1244" s="4"/>
-    </row>
-    <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1245" s="5"/>
-      <c r="D1245" s="4"/>
-      <c r="E1245" s="4"/>
-    </row>
-    <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1246" s="5"/>
-      <c r="D1246" s="4"/>
-      <c r="E1246" s="4"/>
-    </row>
-    <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1247" s="5"/>
-      <c r="D1247" s="4"/>
-      <c r="E1247" s="4"/>
-    </row>
-    <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1248" s="5"/>
-      <c r="D1248" s="4"/>
-      <c r="E1248" s="4"/>
-    </row>
-    <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1249" s="5"/>
-      <c r="D1249" s="4"/>
-      <c r="E1249" s="4"/>
-    </row>
-    <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1250" s="5"/>
-      <c r="D1250" s="4"/>
-      <c r="E1250" s="4"/>
-    </row>
-    <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1251" s="5"/>
-      <c r="D1251" s="4"/>
-      <c r="E1251" s="4"/>
-    </row>
-    <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1252" s="5"/>
-      <c r="D1252" s="4"/>
-      <c r="E1252" s="4"/>
-    </row>
-    <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1253" s="5"/>
-      <c r="D1253" s="4"/>
-      <c r="E1253" s="4"/>
-    </row>
-    <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1254" s="4"/>
-      <c r="E1254" s="4"/>
-    </row>
-    <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1255" s="4"/>
-      <c r="E1255" s="4"/>
-    </row>
-    <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1256" s="4"/>
-      <c r="E1256" s="4"/>
-    </row>
-    <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1257" s="4"/>
-      <c r="E1257" s="4"/>
-    </row>
-    <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1258" s="4"/>
-      <c r="E1258" s="4"/>
-    </row>
-    <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1259" s="4"/>
-      <c r="E1259" s="4"/>
-    </row>
-    <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1260" s="4"/>
-      <c r="E1260" s="4"/>
-    </row>
-    <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1261" s="4"/>
-      <c r="E1261" s="4"/>
-    </row>
-    <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1262" s="4"/>
-      <c r="E1262" s="4"/>
-    </row>
-    <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1263" s="4"/>
-      <c r="E1263" s="4"/>
-    </row>
-    <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1264" s="4"/>
-      <c r="E1264" s="4"/>
-    </row>
-    <row r="1265" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1265" s="4"/>
-      <c r="E1265" s="4"/>
-    </row>
-    <row r="1266" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1266" s="4"/>
-      <c r="E1266" s="4"/>
-    </row>
-    <row r="1267" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1267" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
+++ b/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/Zooplankton!/Summer2021-DataAnalysis/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2021-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA529EA-0169-764E-8C5F-ACEC40A205D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17146A3D-AD1F-E440-AC17-BB84B7379901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="34">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -102,13 +103,7 @@
     <t>Daphnia</t>
   </si>
   <si>
-    <t>Exoskeleton</t>
-  </si>
-  <si>
     <t>#2</t>
-  </si>
-  <si>
-    <t>#1</t>
   </si>
   <si>
     <t>#3</t>
@@ -117,19 +112,31 @@
     <t>Conochilus</t>
   </si>
   <si>
-    <t>2 mL</t>
-  </si>
-  <si>
     <t>#1/2</t>
   </si>
   <si>
-    <t>K. bostoniensis</t>
+    <t>1 mL</t>
   </si>
   <si>
-    <t>Diaphanosoma</t>
+    <t>E. longirostris</t>
   </si>
   <si>
-    <t>B_pel_16Jun21_midnight_rep2</t>
+    <t>Cal naup</t>
+  </si>
+  <si>
+    <t>B_pel_16Jun21_midnight_epi_rep2</t>
+  </si>
+  <si>
+    <t>Exoskeleton</t>
+  </si>
+  <si>
+    <t>Trichocerca</t>
+  </si>
+  <si>
+    <t>D. birgei</t>
+  </si>
+  <si>
+    <t>Calanoida</t>
   </si>
 </sst>
 </file>
@@ -187,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -209,14 +216,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
-  <dimension ref="A1:I1267"/>
+  <dimension ref="A1:I1145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H136"/>
+      <selection activeCell="H7" sqref="H7:H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,8 +550,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>31</v>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="8"/>
@@ -570,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="C3"/>
     </row>
@@ -580,7 +582,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -614,218 +616,219 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="4">
         <v>2000</v>
       </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="C9" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="4">
-        <v>2000</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="E9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="7">
         <v>1.3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F9">
-        <v>0.8</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="E10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F10">
-        <v>0.6</v>
-      </c>
       <c r="G10" s="4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="4">
         <v>2000</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="4">
         <v>2000</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="4">
         <v>2000</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="4">
         <v>2000</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="4">
         <v>2000</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="4">
         <v>2000</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="4">
@@ -834,17 +837,17 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="4">
@@ -853,78 +856,72 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="7">
+        <v>9.6</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="4">
         <v>2000</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="4">
         <v>2000</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="4">
         <v>2000</v>
       </c>
-      <c r="F21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="4">
@@ -937,17 +934,17 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="7">
+        <v>6.2</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="4">
@@ -956,17 +953,17 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="4">
@@ -974,19 +971,18 @@
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="4">
@@ -998,19 +994,18 @@
       <c r="G25" s="4">
         <v>0.6</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="4">
@@ -1023,191 +1018,201 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="4">
         <v>2000</v>
       </c>
       <c r="F27" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G27" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F28" s="4">
         <v>0.6</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="G28" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="C29" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="E29" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="4">
         <v>0.6</v>
       </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="G29" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="E30" s="4">
         <v>2000</v>
       </c>
-      <c r="F30" s="5">
-        <v>0.9</v>
+      <c r="F30" s="4">
+        <v>0.6</v>
       </c>
       <c r="G30" s="4">
         <v>0.6</v>
       </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="4">
         <v>2000</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="4">
         <v>2000</v>
       </c>
-      <c r="F32" s="5">
-        <v>0.8</v>
+      <c r="F32" s="4">
+        <v>0.6</v>
       </c>
       <c r="G32" s="4">
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="4">
         <v>2000</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="4">
         <v>2000</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="4">
@@ -1215,85 +1220,82 @@
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="C36" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="4">
         <v>2000</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F36" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="4">
         <v>2000</v>
       </c>
-      <c r="F37" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="D38" s="11" t="s">
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="4">
         <v>2000</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F38" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="4">
@@ -1305,37 +1307,41 @@
       <c r="G39" s="4">
         <v>0.6</v>
       </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="4">
         <v>2000</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F40" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="4">
@@ -1344,105 +1350,123 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="D42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="4">
         <v>2000</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="D43" s="11" t="s">
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="4">
         <v>2000</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F43" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="D44" s="11" t="s">
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="D45" s="11" t="s">
+      <c r="E45" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F45">
+        <v>0.8</v>
+      </c>
+      <c r="G45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="E46" s="4">
         <v>2000</v>
       </c>
-      <c r="F46" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="4">
         <v>2000</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="4">
@@ -1451,17 +1475,12 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="D49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="D49" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="4">
@@ -1469,256 +1488,252 @@
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="8" t="s">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="D53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="D55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="B56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="D57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="D58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="D59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="D60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="D50" s="11" t="s">
+      <c r="B61" s="4"/>
+      <c r="D61" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E50" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="D51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="D52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="D53" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="D59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="D60" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="D61" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="E61" s="4">
         <v>2000</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="D62" s="11" t="s">
+      <c r="B62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="4">
         <v>2000</v>
       </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="4">
         <v>2000</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="4">
         <v>2000</v>
       </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="D65" s="11" t="s">
+        <v>1.4</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="4">
         <v>2000</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="4">
@@ -1726,79 +1741,62 @@
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="8"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="4">
         <v>2000</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="D68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="D69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="D70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="D68" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="7">
-        <v>1</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G69" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="D70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="B71" s="4"/>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4">
@@ -1806,532 +1804,434 @@
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="4">
         <v>2000</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D73" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="D73" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4">
         <v>2000</v>
       </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="4">
         <v>2000</v>
       </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="D75" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E75" s="4">
         <v>2000</v>
       </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="D76" s="11" t="s">
-        <v>12</v>
+      <c r="D76" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E76" s="4">
         <v>2000</v>
       </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="D77" s="11" t="s">
-        <v>12</v>
+      <c r="D77" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E77" s="4">
         <v>2000</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="D78" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E78" s="4">
         <v>2000</v>
       </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C79" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>12</v>
+        <v>3.1</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E79" s="4">
         <v>2000</v>
       </c>
-      <c r="F79" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G79" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="D80" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E80" s="4">
         <v>2000</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B81" s="4"/>
-      <c r="D81" s="11" t="s">
-        <v>12</v>
+      <c r="D81" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E81" s="4">
         <v>2000</v>
       </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B82" s="4"/>
-      <c r="D82" s="11" t="s">
-        <v>12</v>
+      <c r="D82" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E82" s="4">
         <v>2000</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="7">
-        <v>11.1</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="D83" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E83" s="4">
         <v>2000</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="4">
         <v>2000</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E85" s="4">
         <v>2000</v>
       </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="D86" s="11" t="s">
+        <v>3.1</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="4">
         <v>2000</v>
       </c>
-      <c r="F86" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G86" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="7">
-        <v>5</v>
-      </c>
-      <c r="D87" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="D87" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E87" s="4">
         <v>2000</v>
       </c>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="4">
         <v>2000</v>
       </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="11" t="s">
+      <c r="B89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E89" s="4">
         <v>2000</v>
       </c>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="D90" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="4">
         <v>2000</v>
-      </c>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C91" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D91" s="11" t="s">
+        <v>1.5</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="4">
         <v>2000</v>
       </c>
-      <c r="F91" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G91" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="4"/>
-      <c r="D92" s="11" t="s">
+      <c r="B92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="4">
         <v>2000</v>
       </c>
-      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="D93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="D93" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E93" s="4">
         <v>2000</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="4">
         <v>2000</v>
       </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B95" s="4"/>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="4">
         <v>2000</v>
       </c>
       <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="4"/>
-      <c r="D96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="4">
         <v>2000</v>
       </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="8"/>
+      <c r="H96" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="4">
         <v>2000</v>
       </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="D98" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="D98" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="4">
         <v>2000</v>
-      </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B99" s="4"/>
-      <c r="D99" s="11" t="s">
+      <c r="D99" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E99" s="4">
         <v>2000</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="8"/>
+      <c r="H99" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B100" s="4"/>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="4">
         <v>2000</v>
       </c>
       <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="4"/>
-      <c r="D101" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1.6</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="4">
         <v>2000</v>
       </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="8"/>
+      <c r="F101" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B102" s="4"/>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="4">
@@ -2339,28 +2239,17 @@
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="D103" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="D103" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="4">
         <v>2000</v>
-      </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -2368,2295 +2257,1843 @@
         <v>14</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="D104" s="11" t="s">
+      <c r="D104" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="4">
         <v>2000</v>
       </c>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B105" s="4"/>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="4">
         <v>2000</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B106" s="4"/>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="4">
         <v>2000</v>
       </c>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B107" s="4"/>
-      <c r="D107" s="11" t="s">
-        <v>15</v>
+      <c r="D107" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E107" s="4">
         <v>2000</v>
       </c>
-      <c r="F107" s="5"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="10">
-        <v>1.7</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E108" s="4">
         <v>2000</v>
-      </c>
-      <c r="F108" s="5"/>
-      <c r="H108" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E109" s="4">
         <v>2000</v>
       </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="D110" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E110" s="4">
         <v>2000</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="8"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="7">
+        <v>7</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E111" s="4">
         <v>2000</v>
       </c>
-      <c r="F111" s="5"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B112" s="4"/>
-      <c r="D112" s="11" t="s">
-        <v>15</v>
+      <c r="D112" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E112" s="4">
         <v>2000</v>
       </c>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B113" s="4"/>
-      <c r="D113" s="11" t="s">
-        <v>15</v>
+      <c r="D113" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E113" s="4">
         <v>2000</v>
       </c>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="D114" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E114" s="4">
         <v>2000</v>
       </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
+      <c r="H114" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="7">
-        <v>2</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="D115" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E115" s="4">
         <v>2000</v>
       </c>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B116" s="4"/>
-      <c r="D116" s="11" t="s">
-        <v>15</v>
+      <c r="D116" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E116" s="4">
         <v>2000</v>
       </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" s="4"/>
-      <c r="D117" s="11" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E117" s="4">
         <v>2000</v>
       </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="D118" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E118" s="4">
         <v>2000</v>
       </c>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
+      <c r="H118" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B119" s="4"/>
-      <c r="D119" s="11" t="s">
-        <v>15</v>
+      <c r="D119" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E119" s="4">
         <v>2000</v>
       </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B120" s="4"/>
-      <c r="D120" s="11" t="s">
-        <v>15</v>
+      <c r="D120" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E120" s="4">
         <v>2000</v>
       </c>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="7">
-        <v>11.8</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E121" s="4">
         <v>2000</v>
       </c>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="4"/>
-      <c r="D122" s="11" t="s">
-        <v>15</v>
+      <c r="D122" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E122" s="4">
         <v>2000</v>
       </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="D123" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E123" s="4">
         <v>2000</v>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B124" s="4"/>
-      <c r="D124" s="11" t="s">
-        <v>15</v>
+      <c r="D124" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E124" s="4">
         <v>2000</v>
       </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="7">
-        <v>2.8</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E125" s="4">
         <v>2000</v>
-      </c>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="D126" s="11" t="s">
-        <v>15</v>
+      <c r="D126" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E126" s="4">
         <v>2000</v>
       </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="D127" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E127" s="4">
         <v>2000</v>
       </c>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E128" s="4">
         <v>2000</v>
       </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E129" s="4">
         <v>2000</v>
       </c>
-      <c r="F129" s="4"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="4"/>
-      <c r="D130" s="11" t="s">
-        <v>15</v>
+      <c r="D130" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E130" s="4">
         <v>2000</v>
       </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="4"/>
-      <c r="D131" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E131" s="4">
         <v>2000</v>
       </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="4"/>
-      <c r="D132" s="11" t="s">
-        <v>15</v>
+      <c r="D132" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E132" s="4">
         <v>2000</v>
       </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B133" s="4"/>
-      <c r="D133" s="11" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E133" s="4">
         <v>2000</v>
       </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="D134" s="11" t="s">
-        <v>15</v>
+      <c r="F133">
+        <v>0.9</v>
+      </c>
+      <c r="G133">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E134" s="4">
         <v>2000</v>
       </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" s="4"/>
-      <c r="D135" s="11" t="s">
-        <v>15</v>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="E135" s="4">
         <v>2000</v>
       </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B151" t="s">
         <v>13</v>
       </c>
-      <c r="C136" s="7">
-        <v>2.9</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+      <c r="C151" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H151" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="D137" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="D138" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" s="4"/>
-      <c r="D139" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="4"/>
-      <c r="D140" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B141" s="4"/>
-      <c r="D141" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" s="4"/>
-      <c r="D142" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="4"/>
-      <c r="D143" s="11" t="s">
+      <c r="D152" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" s="4"/>
-      <c r="D144" s="11" t="s">
+      <c r="E152" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="D145" s="11" t="s">
+      <c r="E153" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="D146" s="11" t="s">
+      <c r="E154" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E146" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" s="4"/>
-      <c r="D147" s="11" t="s">
+      <c r="E155" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E147" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="E156" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="D148" s="11" t="s">
+      <c r="D157" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E148" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F148">
-        <v>0.8</v>
-      </c>
-      <c r="G148">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="D149" s="11" t="s">
+      <c r="E157" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E149" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="D151" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B152" s="4"/>
-      <c r="D152" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="4"/>
-      <c r="D153" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" s="4"/>
-      <c r="D154" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="4"/>
-      <c r="D155" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="D156" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F157" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G157" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B158" s="4"/>
-      <c r="D158" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="E158" s="4">
         <v>2000</v>
       </c>
-      <c r="F158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" s="4"/>
-      <c r="D159" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" s="4"/>
-      <c r="D160" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="4"/>
-      <c r="D161" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="4"/>
-      <c r="D162" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="7">
-        <v>1</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E163" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F163" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G163" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B164" s="4"/>
-      <c r="D164" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B165" s="4"/>
-      <c r="D165" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E165" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E166" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F166" s="6"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="D167" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E167" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B168" s="4"/>
-      <c r="D168" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E169" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="D170" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E170" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E171" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B172" s="4"/>
-      <c r="D172" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="D173" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="D174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E174" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B175" s="4"/>
-      <c r="D175" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E175" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="D176" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B177" s="4"/>
-      <c r="D177" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F177" s="4"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B178" s="4"/>
-      <c r="D178" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F179" s="4"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B180" s="4"/>
-      <c r="D180" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E180" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F180" s="4"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="7">
-        <v>8.1</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="4">
-        <v>2000</v>
-      </c>
-      <c r="F181" s="4"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
-      <c r="B182" s="4"/>
-      <c r="D182" s="11"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="5"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="5"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="5"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="5"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
-      <c r="D183" s="11"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="5"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="4"/>
-      <c r="B184" s="4"/>
-      <c r="D184" s="11"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+      <c r="D184" s="10"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
-      <c r="D185" s="11"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
+      <c r="D185" s="10"/>
       <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="4"/>
-      <c r="B186" s="4"/>
-      <c r="D186" s="11"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
-      <c r="D187" s="11"/>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+      <c r="D187" s="10"/>
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
-      <c r="B188" s="4"/>
-      <c r="D188" s="11"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
-      <c r="D189" s="11"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+      <c r="D189" s="10"/>
       <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="4"/>
-      <c r="B190" s="4"/>
-      <c r="D190" s="11"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+      <c r="D190" s="10"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
-      <c r="D191" s="11"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="5"/>
+      <c r="D191" s="10"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="4"/>
-      <c r="B192" s="4"/>
-      <c r="D192" s="11"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="D192" s="10"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
-      <c r="D193" s="11"/>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="4"/>
-      <c r="B194" s="4"/>
-      <c r="D194" s="11"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="D194" s="10"/>
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
-      <c r="D195" s="11"/>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="D195" s="10"/>
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="D196" s="11"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="D196" s="10"/>
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="D197" s="11"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="D198" s="11"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="D198" s="10"/>
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="D199" s="11"/>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="D199" s="10"/>
       <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="D200" s="11"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="5"/>
+      <c r="D200" s="10"/>
       <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="D201" s="11"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="5"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="D202" s="11"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="5"/>
+      <c r="D202" s="10"/>
       <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="D203" s="11"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="5"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="D204" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="5"/>
+      <c r="D204" s="10"/>
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="D205" s="11"/>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="5"/>
+      <c r="D205" s="10"/>
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="D206" s="11"/>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="5"/>
+      <c r="D206" s="10"/>
       <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="D207" s="11"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="5"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="D208" s="11"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="5"/>
+      <c r="D208" s="10"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="D209" s="11"/>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="5"/>
+      <c r="D209" s="10"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="D210" s="11"/>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="5"/>
+      <c r="D210" s="10"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="D211" s="11"/>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="D211" s="10"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="D212" s="11"/>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="5"/>
+      <c r="D212" s="10"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="D213" s="11"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="D213" s="10"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="D214" s="11"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="5"/>
+      <c r="D214" s="10"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="D215" s="11"/>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="5"/>
+      <c r="D215" s="10"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="D216" s="11"/>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="5"/>
+      <c r="D216" s="10"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="D217" s="11"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="5"/>
+      <c r="D217" s="10"/>
       <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="D218" s="11"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="5"/>
+      <c r="D218" s="10"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="D219" s="11"/>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="5"/>
+      <c r="D219" s="10"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="D220" s="11"/>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="5"/>
+      <c r="D220" s="10"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
-      <c r="D221" s="11"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="5"/>
+      <c r="D221" s="10"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
-      <c r="B222" s="4"/>
-      <c r="D222" s="11"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="5"/>
+      <c r="D222" s="10"/>
       <c r="E222" s="4"/>
-      <c r="F222" s="4"/>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
-      <c r="D223" s="11"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="5"/>
+      <c r="D223" s="10"/>
       <c r="E223" s="4"/>
-      <c r="F223" s="4"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="4"/>
-      <c r="B224" s="4"/>
-      <c r="D224" s="11"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="5"/>
+      <c r="D224" s="10"/>
       <c r="E224" s="4"/>
-      <c r="F224" s="4"/>
-      <c r="G224" s="4"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
-      <c r="D225" s="11"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="5"/>
+      <c r="D225" s="10"/>
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="4"/>
-      <c r="B226" s="4"/>
-      <c r="D226" s="11"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="5"/>
+      <c r="D226" s="10"/>
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
-      <c r="D227" s="11"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="5"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="4"/>
-      <c r="F227" s="4"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="4"/>
-      <c r="B228" s="4"/>
-      <c r="D228" s="11"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="5"/>
+      <c r="D228" s="10"/>
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
-      <c r="D229" s="11"/>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="5"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="4"/>
-      <c r="D230" s="11"/>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="5"/>
+      <c r="D230" s="10"/>
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="4"/>
-      <c r="D231" s="11"/>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="5"/>
+      <c r="D231" s="10"/>
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="4"/>
-      <c r="D232" s="11"/>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="5"/>
+      <c r="D232" s="10"/>
       <c r="E232" s="4"/>
-      <c r="F232" s="4"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="4"/>
-      <c r="D233" s="11"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="5"/>
+      <c r="D233" s="10"/>
       <c r="E233" s="4"/>
-      <c r="F233" s="4"/>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="4"/>
-      <c r="B234" s="4"/>
-      <c r="D234" s="11"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="5"/>
+      <c r="D234" s="10"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
-      <c r="D235" s="11"/>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="5"/>
+      <c r="D235" s="10"/>
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
-      <c r="B236" s="4"/>
-      <c r="D236" s="11"/>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="5"/>
+      <c r="D236" s="10"/>
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
-      <c r="D237" s="11"/>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="5"/>
+      <c r="D237" s="10"/>
       <c r="E237" s="4"/>
-      <c r="F237" s="4"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="4"/>
-      <c r="B238" s="4"/>
-      <c r="D238" s="11"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="5"/>
+      <c r="D238" s="10"/>
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="D239" s="11"/>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="5"/>
+      <c r="D239" s="10"/>
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="D240" s="11"/>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="5"/>
+      <c r="D240" s="10"/>
       <c r="E240" s="4"/>
-      <c r="F240" s="4"/>
-      <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="D241" s="11"/>
+      <c r="A241" s="5"/>
+      <c r="D241" s="10"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="D242" s="11"/>
+      <c r="A242" s="5"/>
+      <c r="D242" s="10"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="4"/>
-      <c r="D243" s="11"/>
+      <c r="A243" s="5"/>
+      <c r="D243" s="10"/>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="4"/>
-      <c r="D244" s="11"/>
+      <c r="A244" s="5"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="4"/>
-      <c r="D245" s="11"/>
+      <c r="A245" s="5"/>
+      <c r="D245" s="10"/>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="4"/>
-      <c r="D246" s="11"/>
+      <c r="A246" s="5"/>
+      <c r="D246" s="10"/>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
-      <c r="D247" s="11"/>
+      <c r="A247" s="5"/>
+      <c r="D247" s="10"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
-      <c r="D248" s="11"/>
+      <c r="A248" s="5"/>
+      <c r="D248" s="10"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
-      <c r="D249" s="11"/>
+      <c r="A249" s="5"/>
+      <c r="D249" s="10"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
-      <c r="D250" s="11"/>
+      <c r="A250" s="5"/>
+      <c r="D250" s="10"/>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
-      <c r="D251" s="11"/>
+      <c r="A251" s="5"/>
+      <c r="D251" s="10"/>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
-      <c r="D252" s="11"/>
+      <c r="A252" s="5"/>
+      <c r="D252" s="10"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-      <c r="D253" s="11"/>
+      <c r="A253" s="5"/>
+      <c r="D253" s="10"/>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="4"/>
-      <c r="D254" s="11"/>
+      <c r="A254" s="5"/>
+      <c r="D254" s="10"/>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="4"/>
-      <c r="D255" s="11"/>
+      <c r="A255" s="5"/>
+      <c r="D255" s="10"/>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
-      <c r="D256" s="11"/>
+      <c r="D256" s="10"/>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
-      <c r="D257" s="11"/>
+      <c r="D257" s="10"/>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
-      <c r="D258" s="11"/>
+      <c r="D258" s="10"/>
       <c r="E258" s="4"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
-      <c r="D259" s="11"/>
+      <c r="D259" s="10"/>
       <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
-      <c r="D260" s="11"/>
+      <c r="D260" s="10"/>
       <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
-      <c r="D261" s="11"/>
+      <c r="D261" s="10"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
-      <c r="D262" s="11"/>
+      <c r="D262" s="10"/>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
-      <c r="D263" s="11"/>
+      <c r="D263" s="10"/>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
-      <c r="D264" s="11"/>
+      <c r="D264" s="10"/>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
-      <c r="D265" s="11"/>
+      <c r="D265" s="10"/>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
-      <c r="D266" s="11"/>
+      <c r="D266" s="10"/>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
-      <c r="D267" s="11"/>
+      <c r="D267" s="10"/>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
-      <c r="D268" s="11"/>
+      <c r="D268" s="10"/>
       <c r="E268" s="4"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
-      <c r="D269" s="11"/>
+      <c r="D269" s="4"/>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
-      <c r="D270" s="11"/>
+      <c r="D270" s="4"/>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
-      <c r="D271" s="11"/>
+      <c r="D271" s="4"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
-      <c r="D272" s="11"/>
+      <c r="D272" s="4"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
-      <c r="D273" s="11"/>
+      <c r="D273" s="4"/>
       <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
-      <c r="D274" s="11"/>
+      <c r="D274" s="4"/>
       <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
-      <c r="D275" s="11"/>
+      <c r="D275" s="4"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
-      <c r="D276" s="11"/>
+      <c r="D276" s="4"/>
       <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
-      <c r="D277" s="11"/>
+      <c r="D277" s="4"/>
       <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
-      <c r="D278" s="11"/>
+      <c r="D278" s="4"/>
       <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
-      <c r="D279" s="11"/>
+      <c r="D279" s="4"/>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
-      <c r="D280" s="11"/>
+      <c r="D280" s="4"/>
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
-      <c r="D281" s="11"/>
+      <c r="D281" s="4"/>
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
-      <c r="D282" s="11"/>
+      <c r="D282" s="4"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
-      <c r="D283" s="11"/>
+      <c r="D283" s="4"/>
       <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
-      <c r="D284" s="11"/>
+      <c r="D284" s="4"/>
       <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
-      <c r="D285" s="11"/>
+      <c r="D285" s="4"/>
       <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
-      <c r="D286" s="11"/>
+      <c r="D286" s="4"/>
       <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
-      <c r="D287" s="11"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
-      <c r="D288" s="11"/>
+      <c r="D288" s="4"/>
       <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
-      <c r="D289" s="11"/>
+      <c r="D289" s="4"/>
       <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
-      <c r="D290" s="11"/>
+      <c r="D290" s="4"/>
       <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
-      <c r="D291" s="11"/>
+      <c r="D291" s="4"/>
       <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
-      <c r="D292" s="11"/>
+      <c r="D292" s="4"/>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
-      <c r="D293" s="11"/>
+      <c r="D293" s="4"/>
       <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
-      <c r="D294" s="11"/>
+      <c r="D294" s="4"/>
       <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
-      <c r="D295" s="11"/>
+      <c r="D295" s="4"/>
       <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
-      <c r="D296" s="11"/>
+      <c r="D296" s="4"/>
       <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
-      <c r="D297" s="11"/>
+      <c r="D297" s="4"/>
       <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
-      <c r="D298" s="11"/>
+      <c r="D298" s="4"/>
       <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
-      <c r="D299" s="11"/>
+      <c r="D299" s="4"/>
       <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
-      <c r="D300" s="11"/>
+      <c r="D300" s="4"/>
       <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
-      <c r="D301" s="11"/>
+      <c r="D301" s="4"/>
       <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
-      <c r="D302" s="11"/>
+      <c r="D302" s="4"/>
       <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
-      <c r="D303" s="11"/>
+      <c r="D303" s="4"/>
       <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
-      <c r="D304" s="11"/>
+      <c r="D304" s="4"/>
       <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
-      <c r="D305" s="11"/>
+      <c r="D305" s="4"/>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
-      <c r="D306" s="11"/>
+      <c r="D306" s="4"/>
       <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
-      <c r="D307" s="11"/>
+      <c r="D307" s="4"/>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
-      <c r="D308" s="11"/>
+      <c r="D308" s="4"/>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
-      <c r="D309" s="11"/>
+      <c r="D309" s="4"/>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
-      <c r="D310" s="11"/>
+      <c r="D310" s="4"/>
       <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
-      <c r="D311" s="11"/>
+      <c r="D311" s="4"/>
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
-      <c r="D312" s="11"/>
+      <c r="D312" s="4"/>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
-      <c r="D313" s="11"/>
+      <c r="D313" s="4"/>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
-      <c r="D314" s="11"/>
+      <c r="D314" s="4"/>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
-      <c r="D315" s="11"/>
+      <c r="D315" s="4"/>
       <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
-      <c r="D316" s="11"/>
+      <c r="D316" s="4"/>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
-      <c r="D317" s="11"/>
+      <c r="D317" s="4"/>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
-      <c r="D318" s="11"/>
+      <c r="D318" s="4"/>
       <c r="E318" s="4"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
-      <c r="D319" s="11"/>
+      <c r="D319" s="4"/>
       <c r="E319" s="4"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
-      <c r="D320" s="11"/>
+      <c r="D320" s="4"/>
       <c r="E320" s="4"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
-      <c r="D321" s="11"/>
+      <c r="D321" s="4"/>
       <c r="E321" s="4"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
-      <c r="D322" s="11"/>
+      <c r="D322" s="4"/>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
-      <c r="D323" s="11"/>
+      <c r="D323" s="4"/>
       <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
-      <c r="D324" s="11"/>
+      <c r="D324" s="4"/>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
-      <c r="D325" s="11"/>
+      <c r="D325" s="4"/>
       <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
-      <c r="D326" s="11"/>
+      <c r="D326" s="4"/>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
-      <c r="D327" s="11"/>
+      <c r="D327" s="4"/>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
-      <c r="D328" s="11"/>
+      <c r="D328" s="4"/>
       <c r="E328" s="4"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
-      <c r="D329" s="11"/>
+      <c r="D329" s="4"/>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
-      <c r="D330" s="11"/>
+      <c r="D330" s="4"/>
       <c r="E330" s="4"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
-      <c r="D331" s="11"/>
+      <c r="D331" s="4"/>
       <c r="E331" s="4"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
-      <c r="D332" s="11"/>
+      <c r="D332" s="4"/>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
-      <c r="D333" s="11"/>
+      <c r="D333" s="4"/>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
-      <c r="D334" s="11"/>
+      <c r="D334" s="4"/>
       <c r="E334" s="4"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
-      <c r="D335" s="11"/>
+      <c r="D335" s="4"/>
       <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
-      <c r="D336" s="11"/>
+      <c r="D336" s="4"/>
       <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
-      <c r="D337" s="11"/>
+      <c r="D337" s="4"/>
       <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
-      <c r="D338" s="11"/>
+      <c r="D338" s="4"/>
       <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
-      <c r="D339" s="11"/>
+      <c r="D339" s="4"/>
       <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
-      <c r="D340" s="11"/>
+      <c r="D340" s="4"/>
       <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
-      <c r="D341" s="11"/>
+      <c r="D341" s="4"/>
       <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="D342" s="11"/>
+      <c r="D342" s="4"/>
       <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
-      <c r="D343" s="11"/>
+      <c r="D343" s="4"/>
       <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
-      <c r="D344" s="11"/>
+      <c r="D344" s="4"/>
       <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
-      <c r="D345" s="11"/>
+      <c r="D345" s="4"/>
       <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
-      <c r="D346" s="11"/>
+      <c r="D346" s="4"/>
       <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
-      <c r="D347" s="11"/>
+      <c r="D347" s="4"/>
       <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
-      <c r="D348" s="11"/>
+      <c r="D348" s="4"/>
       <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
-      <c r="D349" s="11"/>
+      <c r="D349" s="4"/>
       <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
-      <c r="D350" s="11"/>
+      <c r="D350" s="4"/>
       <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
-      <c r="D351" s="11"/>
+      <c r="D351" s="4"/>
       <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
-      <c r="D352" s="11"/>
+      <c r="D352" s="4"/>
       <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
-      <c r="D353" s="11"/>
+      <c r="D353" s="4"/>
       <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
-      <c r="D354" s="11"/>
+      <c r="D354" s="4"/>
       <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
-      <c r="D355" s="11"/>
+      <c r="D355" s="4"/>
       <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
-      <c r="D356" s="11"/>
+      <c r="D356" s="4"/>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
-      <c r="D357" s="11"/>
+      <c r="D357" s="4"/>
       <c r="E357" s="4"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
-      <c r="D358" s="11"/>
+      <c r="D358" s="4"/>
       <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
-      <c r="D359" s="11"/>
+      <c r="D359" s="4"/>
       <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
-      <c r="D360" s="11"/>
+      <c r="D360" s="4"/>
       <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
-      <c r="D361" s="11"/>
+      <c r="D361" s="4"/>
       <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
-      <c r="D362" s="11"/>
+      <c r="D362" s="4"/>
       <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
-      <c r="D363" s="11"/>
+      <c r="D363" s="4"/>
       <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
-      <c r="D364" s="11"/>
+      <c r="D364" s="4"/>
       <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
-      <c r="D365" s="11"/>
+      <c r="D365" s="4"/>
       <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
-      <c r="D366" s="11"/>
+      <c r="D366" s="4"/>
       <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
-      <c r="D367" s="11"/>
+      <c r="D367" s="4"/>
       <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
-      <c r="D368" s="11"/>
+      <c r="D368" s="4"/>
       <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
-      <c r="D369" s="11"/>
+      <c r="D369" s="4"/>
       <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
-      <c r="D370" s="11"/>
+      <c r="D370" s="4"/>
       <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
-      <c r="D371" s="11"/>
+      <c r="D371" s="4"/>
       <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
-      <c r="D372" s="11"/>
+      <c r="D372" s="4"/>
       <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
-      <c r="D373" s="11"/>
+      <c r="D373" s="4"/>
       <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
-      <c r="D374" s="11"/>
+      <c r="D374" s="4"/>
       <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
-      <c r="D375" s="11"/>
+      <c r="D375" s="4"/>
       <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
-      <c r="D376" s="11"/>
+      <c r="D376" s="4"/>
       <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
-      <c r="D377" s="11"/>
+      <c r="D377" s="4"/>
       <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
-      <c r="D378" s="11"/>
+      <c r="D378" s="4"/>
       <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
-      <c r="D379" s="11"/>
+      <c r="D379" s="4"/>
       <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
-      <c r="D380" s="11"/>
+      <c r="D380" s="4"/>
       <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
-      <c r="D381" s="11"/>
+      <c r="D381" s="4"/>
       <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
-      <c r="D382" s="11"/>
+      <c r="D382" s="4"/>
       <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
-      <c r="D383" s="11"/>
+      <c r="D383" s="4"/>
       <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
-      <c r="D384" s="11"/>
+      <c r="D384" s="4"/>
       <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
-      <c r="D385" s="11"/>
+      <c r="D385" s="4"/>
       <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
-      <c r="D386" s="11"/>
+      <c r="D386" s="4"/>
       <c r="E386" s="4"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
-      <c r="D387" s="11"/>
+      <c r="D387" s="4"/>
       <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
-      <c r="D388" s="11"/>
+      <c r="D388" s="4"/>
       <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
-      <c r="D389" s="11"/>
+      <c r="D389" s="4"/>
       <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
-      <c r="D390" s="11"/>
+      <c r="D390" s="4"/>
       <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -4949,82 +4386,83 @@
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="5"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="5"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="5"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="5"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="5"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="5"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F455" s="4"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="5"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="5"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="5"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="5"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="5"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="5"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="5"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="5"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="5"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
@@ -5589,83 +5027,82 @@
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
-      <c r="F577" s="4"/>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
@@ -8366,669 +7803,59 @@
       <c r="E1131" s="4"/>
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1132" s="5"/>
       <c r="D1132" s="4"/>
       <c r="E1132" s="4"/>
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1133" s="5"/>
       <c r="D1133" s="4"/>
       <c r="E1133" s="4"/>
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1134" s="5"/>
       <c r="D1134" s="4"/>
       <c r="E1134" s="4"/>
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1135" s="5"/>
       <c r="D1135" s="4"/>
       <c r="E1135" s="4"/>
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1136" s="5"/>
       <c r="D1136" s="4"/>
       <c r="E1136" s="4"/>
     </row>
-    <row r="1137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1137" s="5"/>
+    <row r="1137" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1137" s="4"/>
       <c r="E1137" s="4"/>
     </row>
-    <row r="1138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1138" s="5"/>
+    <row r="1138" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1138" s="4"/>
       <c r="E1138" s="4"/>
     </row>
-    <row r="1139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1139" s="5"/>
+    <row r="1139" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1139" s="4"/>
       <c r="E1139" s="4"/>
     </row>
-    <row r="1140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1140" s="5"/>
+    <row r="1140" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1140" s="4"/>
       <c r="E1140" s="4"/>
     </row>
-    <row r="1141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1141" s="5"/>
+    <row r="1141" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1141" s="4"/>
       <c r="E1141" s="4"/>
     </row>
-    <row r="1142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1142" s="5"/>
+    <row r="1142" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1142" s="4"/>
       <c r="E1142" s="4"/>
     </row>
-    <row r="1143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1143" s="5"/>
+    <row r="1143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1143" s="4"/>
       <c r="E1143" s="4"/>
     </row>
-    <row r="1144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1144" s="5"/>
+    <row r="1144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1144" s="4"/>
       <c r="E1144" s="4"/>
     </row>
-    <row r="1145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1145" s="5"/>
+    <row r="1145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1145" s="4"/>
-      <c r="E1145" s="4"/>
-    </row>
-    <row r="1146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1146" s="5"/>
-      <c r="D1146" s="4"/>
-      <c r="E1146" s="4"/>
-    </row>
-    <row r="1147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1147" s="5"/>
-      <c r="D1147" s="4"/>
-      <c r="E1147" s="4"/>
-    </row>
-    <row r="1148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1148" s="5"/>
-      <c r="D1148" s="4"/>
-      <c r="E1148" s="4"/>
-    </row>
-    <row r="1149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1149" s="5"/>
-      <c r="D1149" s="4"/>
-      <c r="E1149" s="4"/>
-    </row>
-    <row r="1150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1150" s="5"/>
-      <c r="D1150" s="4"/>
-      <c r="E1150" s="4"/>
-    </row>
-    <row r="1151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1151" s="5"/>
-      <c r="D1151" s="4"/>
-      <c r="E1151" s="4"/>
-    </row>
-    <row r="1152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1152" s="5"/>
-      <c r="D1152" s="4"/>
-      <c r="E1152" s="4"/>
-    </row>
-    <row r="1153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1153" s="5"/>
-      <c r="D1153" s="4"/>
-      <c r="E1153" s="4"/>
-    </row>
-    <row r="1154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1154" s="5"/>
-      <c r="D1154" s="4"/>
-      <c r="E1154" s="4"/>
-    </row>
-    <row r="1155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1155" s="5"/>
-      <c r="D1155" s="4"/>
-      <c r="E1155" s="4"/>
-    </row>
-    <row r="1156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1156" s="5"/>
-      <c r="D1156" s="4"/>
-      <c r="E1156" s="4"/>
-    </row>
-    <row r="1157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1157" s="5"/>
-      <c r="D1157" s="4"/>
-      <c r="E1157" s="4"/>
-    </row>
-    <row r="1158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1158" s="5"/>
-      <c r="D1158" s="4"/>
-      <c r="E1158" s="4"/>
-    </row>
-    <row r="1159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1159" s="5"/>
-      <c r="D1159" s="4"/>
-      <c r="E1159" s="4"/>
-    </row>
-    <row r="1160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1160" s="5"/>
-      <c r="D1160" s="4"/>
-      <c r="E1160" s="4"/>
-    </row>
-    <row r="1161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1161" s="5"/>
-      <c r="D1161" s="4"/>
-      <c r="E1161" s="4"/>
-    </row>
-    <row r="1162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1162" s="5"/>
-      <c r="D1162" s="4"/>
-      <c r="E1162" s="4"/>
-    </row>
-    <row r="1163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1163" s="5"/>
-      <c r="D1163" s="4"/>
-      <c r="E1163" s="4"/>
-    </row>
-    <row r="1164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1164" s="5"/>
-      <c r="D1164" s="4"/>
-      <c r="E1164" s="4"/>
-    </row>
-    <row r="1165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1165" s="5"/>
-      <c r="D1165" s="4"/>
-      <c r="E1165" s="4"/>
-    </row>
-    <row r="1166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1166" s="5"/>
-      <c r="D1166" s="4"/>
-      <c r="E1166" s="4"/>
-    </row>
-    <row r="1167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1167" s="5"/>
-      <c r="D1167" s="4"/>
-      <c r="E1167" s="4"/>
-    </row>
-    <row r="1168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1168" s="5"/>
-      <c r="D1168" s="4"/>
-      <c r="E1168" s="4"/>
-    </row>
-    <row r="1169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1169" s="5"/>
-      <c r="D1169" s="4"/>
-      <c r="E1169" s="4"/>
-    </row>
-    <row r="1170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1170" s="5"/>
-      <c r="D1170" s="4"/>
-      <c r="E1170" s="4"/>
-    </row>
-    <row r="1171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1171" s="5"/>
-      <c r="D1171" s="4"/>
-      <c r="E1171" s="4"/>
-    </row>
-    <row r="1172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1172" s="5"/>
-      <c r="D1172" s="4"/>
-      <c r="E1172" s="4"/>
-    </row>
-    <row r="1173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1173" s="5"/>
-      <c r="D1173" s="4"/>
-      <c r="E1173" s="4"/>
-    </row>
-    <row r="1174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1174" s="5"/>
-      <c r="D1174" s="4"/>
-      <c r="E1174" s="4"/>
-    </row>
-    <row r="1175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1175" s="5"/>
-      <c r="D1175" s="4"/>
-      <c r="E1175" s="4"/>
-    </row>
-    <row r="1176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1176" s="5"/>
-      <c r="D1176" s="4"/>
-      <c r="E1176" s="4"/>
-    </row>
-    <row r="1177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1177" s="5"/>
-      <c r="D1177" s="4"/>
-      <c r="E1177" s="4"/>
-    </row>
-    <row r="1178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1178" s="5"/>
-      <c r="D1178" s="4"/>
-      <c r="E1178" s="4"/>
-    </row>
-    <row r="1179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1179" s="5"/>
-      <c r="D1179" s="4"/>
-      <c r="E1179" s="4"/>
-    </row>
-    <row r="1180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1180" s="5"/>
-      <c r="D1180" s="4"/>
-      <c r="E1180" s="4"/>
-    </row>
-    <row r="1181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1181" s="5"/>
-      <c r="D1181" s="4"/>
-      <c r="E1181" s="4"/>
-    </row>
-    <row r="1182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1182" s="5"/>
-      <c r="D1182" s="4"/>
-      <c r="E1182" s="4"/>
-    </row>
-    <row r="1183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1183" s="5"/>
-      <c r="D1183" s="4"/>
-      <c r="E1183" s="4"/>
-    </row>
-    <row r="1184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1184" s="5"/>
-      <c r="D1184" s="4"/>
-      <c r="E1184" s="4"/>
-    </row>
-    <row r="1185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1185" s="5"/>
-      <c r="D1185" s="4"/>
-      <c r="E1185" s="4"/>
-    </row>
-    <row r="1186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1186" s="5"/>
-      <c r="D1186" s="4"/>
-      <c r="E1186" s="4"/>
-    </row>
-    <row r="1187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1187" s="5"/>
-      <c r="D1187" s="4"/>
-      <c r="E1187" s="4"/>
-    </row>
-    <row r="1188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1188" s="5"/>
-      <c r="D1188" s="4"/>
-      <c r="E1188" s="4"/>
-    </row>
-    <row r="1189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1189" s="5"/>
-      <c r="D1189" s="4"/>
-      <c r="E1189" s="4"/>
-    </row>
-    <row r="1190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1190" s="5"/>
-      <c r="D1190" s="4"/>
-      <c r="E1190" s="4"/>
-    </row>
-    <row r="1191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1191" s="5"/>
-      <c r="D1191" s="4"/>
-      <c r="E1191" s="4"/>
-    </row>
-    <row r="1192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1192" s="5"/>
-      <c r="D1192" s="4"/>
-      <c r="E1192" s="4"/>
-    </row>
-    <row r="1193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1193" s="5"/>
-      <c r="D1193" s="4"/>
-      <c r="E1193" s="4"/>
-    </row>
-    <row r="1194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1194" s="5"/>
-      <c r="D1194" s="4"/>
-      <c r="E1194" s="4"/>
-    </row>
-    <row r="1195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1195" s="5"/>
-      <c r="D1195" s="4"/>
-      <c r="E1195" s="4"/>
-    </row>
-    <row r="1196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1196" s="5"/>
-      <c r="D1196" s="4"/>
-      <c r="E1196" s="4"/>
-    </row>
-    <row r="1197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1197" s="5"/>
-      <c r="D1197" s="4"/>
-      <c r="E1197" s="4"/>
-    </row>
-    <row r="1198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1198" s="5"/>
-      <c r="D1198" s="4"/>
-      <c r="E1198" s="4"/>
-    </row>
-    <row r="1199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1199" s="5"/>
-      <c r="D1199" s="4"/>
-      <c r="E1199" s="4"/>
-    </row>
-    <row r="1200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1200" s="5"/>
-      <c r="D1200" s="4"/>
-      <c r="E1200" s="4"/>
-    </row>
-    <row r="1201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1201" s="5"/>
-      <c r="D1201" s="4"/>
-      <c r="E1201" s="4"/>
-    </row>
-    <row r="1202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1202" s="5"/>
-      <c r="D1202" s="4"/>
-      <c r="E1202" s="4"/>
-    </row>
-    <row r="1203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1203" s="5"/>
-      <c r="D1203" s="4"/>
-      <c r="E1203" s="4"/>
-    </row>
-    <row r="1204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1204" s="5"/>
-      <c r="D1204" s="4"/>
-      <c r="E1204" s="4"/>
-    </row>
-    <row r="1205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1205" s="5"/>
-      <c r="D1205" s="4"/>
-      <c r="E1205" s="4"/>
-    </row>
-    <row r="1206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1206" s="5"/>
-      <c r="D1206" s="4"/>
-      <c r="E1206" s="4"/>
-    </row>
-    <row r="1207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1207" s="5"/>
-      <c r="D1207" s="4"/>
-      <c r="E1207" s="4"/>
-    </row>
-    <row r="1208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1208" s="5"/>
-      <c r="D1208" s="4"/>
-      <c r="E1208" s="4"/>
-    </row>
-    <row r="1209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1209" s="5"/>
-      <c r="D1209" s="4"/>
-      <c r="E1209" s="4"/>
-    </row>
-    <row r="1210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1210" s="5"/>
-      <c r="D1210" s="4"/>
-      <c r="E1210" s="4"/>
-    </row>
-    <row r="1211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1211" s="5"/>
-      <c r="D1211" s="4"/>
-      <c r="E1211" s="4"/>
-    </row>
-    <row r="1212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1212" s="5"/>
-      <c r="D1212" s="4"/>
-      <c r="E1212" s="4"/>
-    </row>
-    <row r="1213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1213" s="5"/>
-      <c r="D1213" s="4"/>
-      <c r="E1213" s="4"/>
-    </row>
-    <row r="1214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1214" s="5"/>
-      <c r="D1214" s="4"/>
-      <c r="E1214" s="4"/>
-    </row>
-    <row r="1215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1215" s="5"/>
-      <c r="D1215" s="4"/>
-      <c r="E1215" s="4"/>
-    </row>
-    <row r="1216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1216" s="5"/>
-      <c r="D1216" s="4"/>
-      <c r="E1216" s="4"/>
-    </row>
-    <row r="1217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1217" s="5"/>
-      <c r="D1217" s="4"/>
-      <c r="E1217" s="4"/>
-    </row>
-    <row r="1218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1218" s="5"/>
-      <c r="D1218" s="4"/>
-      <c r="E1218" s="4"/>
-    </row>
-    <row r="1219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1219" s="5"/>
-      <c r="D1219" s="4"/>
-      <c r="E1219" s="4"/>
-    </row>
-    <row r="1220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1220" s="5"/>
-      <c r="D1220" s="4"/>
-      <c r="E1220" s="4"/>
-    </row>
-    <row r="1221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1221" s="5"/>
-      <c r="D1221" s="4"/>
-      <c r="E1221" s="4"/>
-    </row>
-    <row r="1222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1222" s="5"/>
-      <c r="D1222" s="4"/>
-      <c r="E1222" s="4"/>
-    </row>
-    <row r="1223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1223" s="5"/>
-      <c r="D1223" s="4"/>
-      <c r="E1223" s="4"/>
-    </row>
-    <row r="1224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1224" s="5"/>
-      <c r="D1224" s="4"/>
-      <c r="E1224" s="4"/>
-    </row>
-    <row r="1225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1225" s="5"/>
-      <c r="D1225" s="4"/>
-      <c r="E1225" s="4"/>
-    </row>
-    <row r="1226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1226" s="5"/>
-      <c r="D1226" s="4"/>
-      <c r="E1226" s="4"/>
-    </row>
-    <row r="1227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1227" s="5"/>
-      <c r="D1227" s="4"/>
-      <c r="E1227" s="4"/>
-    </row>
-    <row r="1228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1228" s="5"/>
-      <c r="D1228" s="4"/>
-      <c r="E1228" s="4"/>
-    </row>
-    <row r="1229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1229" s="5"/>
-      <c r="D1229" s="4"/>
-      <c r="E1229" s="4"/>
-    </row>
-    <row r="1230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1230" s="5"/>
-      <c r="D1230" s="4"/>
-      <c r="E1230" s="4"/>
-    </row>
-    <row r="1231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1231" s="5"/>
-      <c r="D1231" s="4"/>
-      <c r="E1231" s="4"/>
-    </row>
-    <row r="1232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1232" s="5"/>
-      <c r="D1232" s="4"/>
-      <c r="E1232" s="4"/>
-    </row>
-    <row r="1233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1233" s="5"/>
-      <c r="D1233" s="4"/>
-      <c r="E1233" s="4"/>
-    </row>
-    <row r="1234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1234" s="5"/>
-      <c r="D1234" s="4"/>
-      <c r="E1234" s="4"/>
-    </row>
-    <row r="1235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1235" s="5"/>
-      <c r="D1235" s="4"/>
-      <c r="E1235" s="4"/>
-    </row>
-    <row r="1236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1236" s="5"/>
-      <c r="D1236" s="4"/>
-      <c r="E1236" s="4"/>
-    </row>
-    <row r="1237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1237" s="5"/>
-      <c r="D1237" s="4"/>
-      <c r="E1237" s="4"/>
-    </row>
-    <row r="1238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1238" s="5"/>
-      <c r="D1238" s="4"/>
-      <c r="E1238" s="4"/>
-    </row>
-    <row r="1239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1239" s="5"/>
-      <c r="D1239" s="4"/>
-      <c r="E1239" s="4"/>
-    </row>
-    <row r="1240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1240" s="5"/>
-      <c r="D1240" s="4"/>
-      <c r="E1240" s="4"/>
-    </row>
-    <row r="1241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1241" s="5"/>
-      <c r="D1241" s="4"/>
-      <c r="E1241" s="4"/>
-    </row>
-    <row r="1242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1242" s="5"/>
-      <c r="D1242" s="4"/>
-      <c r="E1242" s="4"/>
-    </row>
-    <row r="1243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1243" s="5"/>
-      <c r="D1243" s="4"/>
-      <c r="E1243" s="4"/>
-    </row>
-    <row r="1244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1244" s="5"/>
-      <c r="D1244" s="4"/>
-      <c r="E1244" s="4"/>
-    </row>
-    <row r="1245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1245" s="5"/>
-      <c r="D1245" s="4"/>
-      <c r="E1245" s="4"/>
-    </row>
-    <row r="1246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1246" s="5"/>
-      <c r="D1246" s="4"/>
-      <c r="E1246" s="4"/>
-    </row>
-    <row r="1247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1247" s="5"/>
-      <c r="D1247" s="4"/>
-      <c r="E1247" s="4"/>
-    </row>
-    <row r="1248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1248" s="5"/>
-      <c r="D1248" s="4"/>
-      <c r="E1248" s="4"/>
-    </row>
-    <row r="1249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1249" s="5"/>
-      <c r="D1249" s="4"/>
-      <c r="E1249" s="4"/>
-    </row>
-    <row r="1250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1250" s="5"/>
-      <c r="D1250" s="4"/>
-      <c r="E1250" s="4"/>
-    </row>
-    <row r="1251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1251" s="5"/>
-      <c r="D1251" s="4"/>
-      <c r="E1251" s="4"/>
-    </row>
-    <row r="1252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1252" s="5"/>
-      <c r="D1252" s="4"/>
-      <c r="E1252" s="4"/>
-    </row>
-    <row r="1253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1253" s="5"/>
-      <c r="D1253" s="4"/>
-      <c r="E1253" s="4"/>
-    </row>
-    <row r="1254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1254" s="4"/>
-      <c r="E1254" s="4"/>
-    </row>
-    <row r="1255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1255" s="4"/>
-      <c r="E1255" s="4"/>
-    </row>
-    <row r="1256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1256" s="4"/>
-      <c r="E1256" s="4"/>
-    </row>
-    <row r="1257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1257" s="4"/>
-      <c r="E1257" s="4"/>
-    </row>
-    <row r="1258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1258" s="4"/>
-      <c r="E1258" s="4"/>
-    </row>
-    <row r="1259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1259" s="4"/>
-      <c r="E1259" s="4"/>
-    </row>
-    <row r="1260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1260" s="4"/>
-      <c r="E1260" s="4"/>
-    </row>
-    <row r="1261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1261" s="4"/>
-      <c r="E1261" s="4"/>
-    </row>
-    <row r="1262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1262" s="4"/>
-      <c r="E1262" s="4"/>
-    </row>
-    <row r="1263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1263" s="4"/>
-      <c r="E1263" s="4"/>
-    </row>
-    <row r="1264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D1264" s="4"/>
-      <c r="E1264" s="4"/>
-    </row>
-    <row r="1265" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1265" s="4"/>
-      <c r="E1265" s="4"/>
-    </row>
-    <row r="1266" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1266" s="4"/>
-      <c r="E1266" s="4"/>
-    </row>
-    <row r="1267" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1267" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
+++ b/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2021-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3EF1F2-CDDD-AA48-846C-91818BE50EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A2921-5F00-5644-884C-901E93898916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="30">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -72,10 +72,58 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>1 mL</t>
+    <t>A</t>
   </si>
   <si>
-    <t>B_pel_16Jun21_midnight_epi_rep2</t>
+    <t>75x</t>
+  </si>
+  <si>
+    <t>Cyc naup</t>
+  </si>
+  <si>
+    <t>Keratella</t>
+  </si>
+  <si>
+    <t>Cyclopidae</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Trichocerca</t>
+  </si>
+  <si>
+    <t>Conochilus</t>
+  </si>
+  <si>
+    <t>Conochiloides</t>
+  </si>
+  <si>
+    <t>Cal naup</t>
+  </si>
+  <si>
+    <t>2 mL</t>
+  </si>
+  <si>
+    <t>Monostyla</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>B_mac_07Jul21_sunset_h4_rep2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>Chydoridae</t>
   </si>
 </sst>
 </file>
@@ -110,7 +158,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -143,9 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -472,16 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
-  <dimension ref="A1:I1145"/>
+  <dimension ref="A1:I1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="207" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="10.83203125" style="6"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,20 +533,20 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>13</v>
+      <c r="B1" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C1"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="C2"/>
     </row>
@@ -511,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44504</v>
+        <v>44614</v>
       </c>
       <c r="C3"/>
     </row>
@@ -521,7 +565,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -554,2540 +598,6186 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="H7" s="8"/>
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>500</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>500</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D9" s="10"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>500</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="10"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>500</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>500</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>500</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>500</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>500</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>500</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>500</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>500</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="4"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>500</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>500</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>500</v>
+      </c>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>500</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4">
+        <v>500</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4">
+        <v>500</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="D24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="4">
+        <v>500</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="D25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>500</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="4"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>500</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="4"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="D27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>500</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="4"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4">
+        <v>500</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>500</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>500</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>500</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>500</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>500</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4">
+        <v>500</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="D35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4">
+        <v>500</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="4"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="D36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4">
+        <v>500</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="4"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="D37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>500</v>
+      </c>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="D38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <v>500</v>
+      </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="4"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="D39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4">
+        <v>500</v>
+      </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="D40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4">
+        <v>500</v>
+      </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="D41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4">
+        <v>500</v>
+      </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="D42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>500</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>500</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="D44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>500</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="D45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>500</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="D46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>500</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>500</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
+        <v>500</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4">
+        <v>500</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4">
+        <v>500</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4">
+        <v>500</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="4">
+        <v>500</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4">
+        <v>500</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="4">
+        <v>500</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="4">
+        <v>500</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B56" s="4"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="4"/>
+      <c r="D56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4">
+        <v>500</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4">
+        <v>500</v>
+      </c>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B58" s="4"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="4"/>
+      <c r="D58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4">
+        <v>500</v>
+      </c>
       <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4">
+        <v>500</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4">
+        <v>500</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4">
+        <v>500</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B62" s="4"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
+      <c r="D62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4">
+        <v>500</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B63" s="4"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="4"/>
+      <c r="D63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4">
+        <v>500</v>
+      </c>
       <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B64" s="4"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="4"/>
+      <c r="D64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4">
+        <v>500</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4">
+        <v>500</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B66" s="4"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="4"/>
+      <c r="D66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4">
+        <v>500</v>
+      </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B67" s="4"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="4"/>
+      <c r="D67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="4">
+        <v>500</v>
+      </c>
       <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
+      <c r="A68" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B68" s="4"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="4"/>
+      <c r="D68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="4">
+        <v>500</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
+      <c r="A69" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B69" s="4"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="4"/>
+      <c r="D69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4">
+        <v>500</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B70" s="4"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="4"/>
+      <c r="D70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
+      <c r="A71" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B71" s="4"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="4"/>
+      <c r="D71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="4">
+        <v>500</v>
+      </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B72" s="4"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="4"/>
+      <c r="D72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4">
+        <v>500</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
+      <c r="A73" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B73" s="4"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="4"/>
+      <c r="D73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="4">
+        <v>500</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
+      <c r="A74" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B74" s="4"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="4"/>
+      <c r="D74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="4">
+        <v>500</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
+      <c r="A75" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B75" s="4"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="4"/>
+      <c r="D75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="4">
+        <v>500</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B76" s="4"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="4"/>
+      <c r="D76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="A77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B78" s="4"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="4"/>
+      <c r="D78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4">
+        <v>500</v>
+      </c>
       <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
+      <c r="A79" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B79" s="4"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="4"/>
+      <c r="D79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4">
+        <v>500</v>
+      </c>
       <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B80" s="4"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4">
+        <v>500</v>
+      </c>
       <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4">
+        <v>500</v>
+      </c>
+      <c r="F81" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B83" s="4"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="4"/>
+      <c r="D83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="4">
+        <v>500</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B84" s="4"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
+      <c r="D84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="4">
+        <v>500</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B86" s="4"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
+      <c r="D86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B88" s="4"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
+      <c r="D88" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B89" s="4"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
+      <c r="D89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B90" s="4"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
+      <c r="D90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B91" s="4"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
+      <c r="D91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4">
+        <v>500</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B92" s="4"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
+      <c r="D92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4">
+        <v>500</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B93" s="4"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
+      <c r="D93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4">
+        <v>500</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B94" s="4"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
+      <c r="D94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4">
+        <v>500</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B95" s="4"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="4"/>
+      <c r="D95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4">
+        <v>500</v>
+      </c>
       <c r="F95" s="4"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4">
+        <v>500</v>
+      </c>
+      <c r="F96" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="4"/>
+      <c r="A97" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4">
+        <v>500</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="4"/>
+      <c r="A98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4">
+        <v>500</v>
+      </c>
+      <c r="F98">
+        <v>0.9</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B99" s="4"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="4"/>
+      <c r="D99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="4">
+        <v>500</v>
+      </c>
       <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
+      <c r="A101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4">
+        <v>500</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B102" s="4"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="4"/>
+      <c r="D102" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4">
+        <v>500</v>
+      </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
+      <c r="A103" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B103" s="4"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="4"/>
+      <c r="D103" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
+      <c r="A104" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B104" s="4"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="4"/>
+      <c r="D104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
+      <c r="A105" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B105" s="4"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="4"/>
+      <c r="D105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4">
+        <v>500</v>
+      </c>
       <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
+      <c r="A106" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B106" s="4"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="4"/>
+      <c r="D106" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B107" s="4"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="4"/>
+      <c r="D107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="4"/>
+      <c r="A108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="D108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="4"/>
+      <c r="A109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="D109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
+      <c r="A110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="D110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="4"/>
+      <c r="A111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="D111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="4">
+        <v>500</v>
+      </c>
       <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
+      <c r="A112" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B112" s="4"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="4"/>
+      <c r="D112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="4">
+        <v>500</v>
+      </c>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="4"/>
+      <c r="A113" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B113" s="4"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="4"/>
+      <c r="D113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="4"/>
+      <c r="A114" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B114" s="4"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="4"/>
+      <c r="D114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4">
+        <v>500</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="4"/>
+      <c r="A115" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B115" s="4"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="4"/>
+      <c r="D115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4">
+        <v>500</v>
+      </c>
       <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B116" s="4"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="4"/>
+      <c r="D116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="4">
+        <v>500</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B117" s="4"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="4"/>
+      <c r="D117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="4">
+        <v>500</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="4"/>
+      <c r="A118" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B118" s="4"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
+      <c r="D118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="4"/>
+      <c r="A119" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="4"/>
+      <c r="A120" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B120" s="4"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="4"/>
+      <c r="D120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="4"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="4"/>
+      <c r="A121" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="D121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="4"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="4"/>
+      <c r="A122" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="4">
+        <v>500</v>
+      </c>
+      <c r="F122">
+        <v>0.5</v>
+      </c>
+      <c r="G122">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="4"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="4"/>
+      <c r="A123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="4">
+        <v>500</v>
+      </c>
+      <c r="F123">
+        <v>0.5</v>
+      </c>
+      <c r="G123">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="4"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="4"/>
+      <c r="A124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="4">
+        <v>500</v>
+      </c>
+      <c r="F124">
+        <v>0.5</v>
+      </c>
+      <c r="G124">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="4"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="4"/>
+      <c r="A125" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="D125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="4"/>
+      <c r="A126" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="D126" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="4"/>
+      <c r="A127" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="D127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="4"/>
+      <c r="A128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="D128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="4"/>
+      <c r="A129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="D129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="4"/>
+      <c r="A130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="D130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="4"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="4"/>
+      <c r="A131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="D131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="4"/>
+      <c r="A132" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="D132" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="4"/>
+      <c r="A133" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="D133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="4"/>
+      <c r="A134" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="D134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="4"/>
+      <c r="A135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="4"/>
+      <c r="A136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="D136" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="4"/>
+      <c r="A137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="D137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="4"/>
+      <c r="A138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="D138" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="4"/>
+      <c r="A140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="4"/>
+      <c r="A141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="4"/>
+      <c r="A142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="4"/>
+      <c r="A143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="4"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="4"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="4"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="4"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="4"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="4"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="4"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="5"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="4"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="5"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="4"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="5"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="4"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="D175" s="10"/>
-      <c r="E175" s="4"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="5"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="4"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="4"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="5"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="4"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="5"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="4"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-      <c r="D184" s="10"/>
-      <c r="E184" s="4"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="5"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="4"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="5"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="4"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="D187" s="10"/>
-      <c r="E187" s="4"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="4"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="5"/>
-      <c r="D189" s="10"/>
-      <c r="E189" s="4"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="5"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="4"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="5"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="4"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="5"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="4"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="5"/>
-      <c r="D193" s="10"/>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="4"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="5"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="4"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="5"/>
-      <c r="D196" s="10"/>
-      <c r="E196" s="4"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="5"/>
-      <c r="D197" s="10"/>
-      <c r="E197" s="4"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="5"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="4"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="5"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="4"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="5"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="4"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="5"/>
-      <c r="D201" s="10"/>
-      <c r="E201" s="4"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="5"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="4"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="5"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="4"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="5"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="4"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="5"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="4"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="5"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="4"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="5"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="4"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="5"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="4"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="5"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="4"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="5"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="4"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="5"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="4"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="5"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="4"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="5"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="4"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="5"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="4"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="5"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="4"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="5"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="4"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="5"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="4"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="5"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="4"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="5"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="4"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="5"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="4"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="5"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="4"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="5"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="4"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="5"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="4"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="5"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="4"/>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="5"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="4"/>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="5"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="4"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="5"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="4"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="5"/>
-      <c r="D229" s="10"/>
-      <c r="E229" s="4"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="5"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="4"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="5"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="4"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="5"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="4"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="5"/>
-      <c r="D233" s="10"/>
-      <c r="E233" s="4"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="5"/>
-      <c r="D234" s="10"/>
-      <c r="E234" s="4"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="5"/>
-      <c r="D235" s="10"/>
-      <c r="E235" s="4"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="5"/>
-      <c r="D236" s="10"/>
-      <c r="E236" s="4"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="5"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="4"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="5"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="4"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="5"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="4"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="5"/>
-      <c r="D240" s="10"/>
-      <c r="E240" s="4"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="5"/>
-      <c r="D241" s="10"/>
-      <c r="E241" s="4"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="5"/>
-      <c r="D242" s="10"/>
-      <c r="E242" s="4"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="5"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="4"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="5"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="4"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="5"/>
-      <c r="D245" s="10"/>
-      <c r="E245" s="4"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="5"/>
-      <c r="D246" s="10"/>
-      <c r="E246" s="4"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="5"/>
-      <c r="D247" s="10"/>
-      <c r="E247" s="4"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="5"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="4"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="5"/>
-      <c r="D249" s="10"/>
-      <c r="E249" s="4"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="5"/>
-      <c r="D250" s="10"/>
-      <c r="E250" s="4"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="5"/>
-      <c r="D251" s="10"/>
-      <c r="E251" s="4"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="5"/>
-      <c r="D252" s="10"/>
-      <c r="E252" s="4"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="5"/>
-      <c r="D253" s="10"/>
-      <c r="E253" s="4"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A254" s="5"/>
-      <c r="D254" s="10"/>
-      <c r="E254" s="4"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A255" s="5"/>
-      <c r="D255" s="10"/>
-      <c r="E255" s="4"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A256" s="5"/>
-      <c r="D256" s="10"/>
-      <c r="E256" s="4"/>
+      <c r="A144" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="6">
+        <v>1</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156" s="4">
+        <v>500</v>
+      </c>
+      <c r="F156">
+        <v>0.5</v>
+      </c>
+      <c r="G156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="6">
+        <v>1</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="4">
+        <v>500</v>
+      </c>
+      <c r="F157">
+        <v>0.5</v>
+      </c>
+      <c r="G157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="4">
+        <v>500</v>
+      </c>
+      <c r="H168" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="4">
+        <v>500</v>
+      </c>
+      <c r="H181" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="4">
+        <v>500</v>
+      </c>
+      <c r="F183">
+        <v>0.9</v>
+      </c>
+      <c r="G183">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="4">
+        <v>500</v>
+      </c>
+      <c r="F193">
+        <v>0.8</v>
+      </c>
+      <c r="G193">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="4">
+        <v>500</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="4">
+        <v>500</v>
+      </c>
+      <c r="F222">
+        <v>0.9</v>
+      </c>
+      <c r="G222">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="4">
+        <v>500</v>
+      </c>
+      <c r="F233">
+        <v>0.9</v>
+      </c>
+      <c r="G233">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C234" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="4">
+        <v>500</v>
+      </c>
+      <c r="F234">
+        <v>0.8</v>
+      </c>
+      <c r="G234">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="4">
+        <v>500</v>
+      </c>
+      <c r="F243">
+        <v>0.9</v>
+      </c>
+      <c r="G243">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="4">
+        <v>500</v>
+      </c>
+      <c r="H248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E256" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="5"/>
-      <c r="D257" s="10"/>
-      <c r="E257" s="4"/>
+      <c r="A257" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="5"/>
-      <c r="D258" s="10"/>
-      <c r="E258" s="4"/>
+      <c r="A258" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="5"/>
-      <c r="D259" s="10"/>
-      <c r="E259" s="4"/>
+      <c r="A259" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="5"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="4"/>
+      <c r="A260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="5"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="4"/>
+      <c r="A261" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="5"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="4"/>
+      <c r="A262" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="5"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="4"/>
+      <c r="A263" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="5"/>
-      <c r="D264" s="10"/>
-      <c r="E264" s="4"/>
+      <c r="A264" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="5"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="4"/>
+      <c r="A265" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="5"/>
-      <c r="D266" s="10"/>
-      <c r="E266" s="4"/>
+      <c r="A266" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="5"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="4"/>
+      <c r="A267" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="5"/>
-      <c r="D268" s="10"/>
-      <c r="E268" s="4"/>
+      <c r="A268" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="5"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
+      <c r="A269" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="5"/>
-      <c r="D270" s="4"/>
-      <c r="E270" s="4"/>
+      <c r="A270" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="5"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
+      <c r="A271" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="5"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
+      <c r="A272" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="5"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
+      <c r="A273" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="5"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
+      <c r="A274" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="5"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
+      <c r="A275" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="5"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
+      <c r="A276" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="5"/>
-      <c r="D277" s="4"/>
-      <c r="E277" s="4"/>
+      <c r="A277" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="5"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
+      <c r="A278" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="5"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
+      <c r="A279" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="5"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
+      <c r="A280" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="5"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="4"/>
+      <c r="A281" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="5"/>
-      <c r="D282" s="4"/>
-      <c r="E282" s="4"/>
+      <c r="A282" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="5"/>
-      <c r="D283" s="4"/>
-      <c r="E283" s="4"/>
+      <c r="A283" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="5"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
+      <c r="A284" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="5"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
+      <c r="A285" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="5"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
+      <c r="A286" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E286" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="5"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
+      <c r="A287" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="5"/>
-      <c r="D288" s="4"/>
-      <c r="E288" s="4"/>
+      <c r="A288" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E288" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="5"/>
-      <c r="D289" s="4"/>
-      <c r="E289" s="4"/>
+      <c r="A289" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="5"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
+      <c r="A290" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="5"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
+      <c r="A291" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="5"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
+      <c r="A292" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="5"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4"/>
+      <c r="A293" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E293" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="5"/>
-      <c r="D294" s="4"/>
-      <c r="E294" s="4"/>
+      <c r="A294" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E294" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="5"/>
-      <c r="D295" s="4"/>
-      <c r="E295" s="4"/>
+      <c r="A295" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E295" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="5"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
+      <c r="A296" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E296" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="5"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
+      <c r="A297" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E297" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="5"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
+      <c r="A298" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E298" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="5"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
+      <c r="A299" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E299" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="5"/>
-      <c r="D300" s="4"/>
-      <c r="E300" s="4"/>
+      <c r="A300" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E300" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="5"/>
-      <c r="D301" s="4"/>
-      <c r="E301" s="4"/>
+      <c r="A301" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E301" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="5"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
+      <c r="A302" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E302" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="5"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
+      <c r="A303" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E303" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="5"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
+      <c r="A304" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E304" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="5"/>
-      <c r="D305" s="4"/>
-      <c r="E305" s="4"/>
+      <c r="A305" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="5"/>
-      <c r="D306" s="4"/>
-      <c r="E306" s="4"/>
+      <c r="A306" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E306" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="5"/>
-      <c r="D307" s="4"/>
-      <c r="E307" s="4"/>
+      <c r="A307" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E307" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="5"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="4"/>
+      <c r="A308" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E308" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="5"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
+      <c r="A309" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E309" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="5"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
+      <c r="A310" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E310" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="5"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="4"/>
+      <c r="A311" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E311" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" s="5"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
+      <c r="A312" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E312" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="5"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
+      <c r="A313" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E313" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="5"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
+      <c r="A314" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E314" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="5"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
+      <c r="A315" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="5"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
+      <c r="A316" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E316" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="5"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
+      <c r="A317" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E317" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="5"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="4"/>
+      <c r="A318" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E318" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="5"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
+      <c r="A319" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E319" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="5"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="4"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="5"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="5"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="5"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="4"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="5"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="4"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="5"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="4"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="5"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="4"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="5"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="5"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="5"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="4"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="5"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="4"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="5"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="4"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="5"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="4"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="5"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="5"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="5"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="4"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="5"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="4"/>
+      <c r="A320" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E320" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E321" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E322" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E323" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E324" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E325" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" s="4">
+        <v>500</v>
+      </c>
+      <c r="H326" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E327" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E328" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E329" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E330" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E331" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E332" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E333" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E334" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E335" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E336" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="5"/>
-      <c r="D337" s="4"/>
-      <c r="E337" s="4"/>
+      <c r="A337" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E337" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="5"/>
-      <c r="D338" s="4"/>
-      <c r="E338" s="4"/>
+      <c r="A338" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E338" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="5"/>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
+      <c r="A339" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E339" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="5"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
+      <c r="A340" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E340" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="5"/>
-      <c r="D341" s="4"/>
-      <c r="E341" s="4"/>
+      <c r="A341" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E341" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="5"/>
-      <c r="D342" s="4"/>
-      <c r="E342" s="4"/>
+      <c r="A342" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E342" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="5"/>
-      <c r="D343" s="4"/>
-      <c r="E343" s="4"/>
+      <c r="A343" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E343" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="5"/>
-      <c r="D344" s="4"/>
-      <c r="E344" s="4"/>
+      <c r="A344" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E344" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="5"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
+      <c r="A345" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E345" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="5"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
+      <c r="A346" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E346" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="5"/>
-      <c r="D347" s="4"/>
-      <c r="E347" s="4"/>
+      <c r="A347" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E347" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="5"/>
-      <c r="D348" s="4"/>
-      <c r="E348" s="4"/>
+      <c r="A348" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E348" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="5"/>
-      <c r="D349" s="4"/>
-      <c r="E349" s="4"/>
+      <c r="A349" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E349" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="5"/>
-      <c r="D350" s="4"/>
-      <c r="E350" s="4"/>
+      <c r="A350" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E350" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="5"/>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4"/>
+      <c r="A351" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E351" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="5"/>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
+      <c r="A352" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E352" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="5"/>
-      <c r="D353" s="4"/>
-      <c r="E353" s="4"/>
+      <c r="A353" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E353" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="5"/>
-      <c r="D354" s="4"/>
-      <c r="E354" s="4"/>
+      <c r="A354" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E354" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="5"/>
-      <c r="D355" s="4"/>
-      <c r="E355" s="4"/>
+      <c r="A355" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E355" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="5"/>
-      <c r="D356" s="4"/>
-      <c r="E356" s="4"/>
+      <c r="A356" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E356" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="5"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
+      <c r="A357" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E357" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="5"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
+      <c r="A358" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E358" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="5"/>
-      <c r="D359" s="4"/>
-      <c r="E359" s="4"/>
+      <c r="A359" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E359" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="5"/>
-      <c r="D360" s="4"/>
-      <c r="E360" s="4"/>
+      <c r="A360" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E360" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="5"/>
-      <c r="D361" s="4"/>
-      <c r="E361" s="4"/>
+      <c r="A361" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E361" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="5"/>
-      <c r="D362" s="4"/>
-      <c r="E362" s="4"/>
+      <c r="A362" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E362" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="5"/>
-      <c r="D363" s="4"/>
-      <c r="E363" s="4"/>
+      <c r="A363" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E363" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="5"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
+      <c r="A364" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E364" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="5"/>
-      <c r="D365" s="4"/>
-      <c r="E365" s="4"/>
+      <c r="A365" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E365" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="5"/>
-      <c r="D366" s="4"/>
-      <c r="E366" s="4"/>
+      <c r="A366" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E366" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="5"/>
-      <c r="D367" s="4"/>
-      <c r="E367" s="4"/>
+      <c r="A367" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E367" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="5"/>
-      <c r="D368" s="4"/>
-      <c r="E368" s="4"/>
+      <c r="A368" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E368" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="5"/>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
+      <c r="A369" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E369" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="5"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
+      <c r="A370" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E370" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="5"/>
-      <c r="D371" s="4"/>
-      <c r="E371" s="4"/>
+      <c r="A371" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E371" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="5"/>
-      <c r="D372" s="4"/>
-      <c r="E372" s="4"/>
+      <c r="A372" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E372" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="5"/>
-      <c r="D373" s="4"/>
-      <c r="E373" s="4"/>
+      <c r="A373" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D373" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E373" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="5"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="4"/>
+      <c r="A374" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E374" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="5"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
+      <c r="A375" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E375" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="5"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
+      <c r="A376" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E376" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="5"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="4"/>
+      <c r="A377" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E377" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="5"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="4"/>
+      <c r="A378" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E378" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="5"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="4"/>
+      <c r="A379" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E379" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="5"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="4"/>
+      <c r="A380" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E380" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="5"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
+      <c r="A381" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D381" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E381" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="5"/>
-      <c r="D382" s="4"/>
-      <c r="E382" s="4"/>
+      <c r="A382" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D382" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E382" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="5"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="4"/>
+      <c r="A383" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E383" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="5"/>
-      <c r="D384" s="4"/>
-      <c r="E384" s="4"/>
+      <c r="A384" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D384" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E384" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="5"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="4"/>
+      <c r="A385" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E385" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="5"/>
-      <c r="D386" s="4"/>
-      <c r="E386" s="4"/>
+      <c r="A386" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D386" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E386" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="5"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
+      <c r="A387" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E387" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="5"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
+      <c r="A388" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E388" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="5"/>
-      <c r="D389" s="4"/>
-      <c r="E389" s="4"/>
+      <c r="A389" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E389" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="5"/>
-      <c r="D390" s="4"/>
-      <c r="E390" s="4"/>
+      <c r="A390" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E390" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="5"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="4"/>
+      <c r="A391" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E391" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="5"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="4"/>
+      <c r="A392" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D392" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E392" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="5"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
+      <c r="A393" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D393" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E393" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="5"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4"/>
+      <c r="A394" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E394" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="5"/>
-      <c r="D395" s="4"/>
-      <c r="E395" s="4"/>
+      <c r="A395" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E395" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="5"/>
-      <c r="D396" s="4"/>
-      <c r="E396" s="4"/>
+      <c r="A396" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E396" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="5"/>
-      <c r="D397" s="4"/>
-      <c r="E397" s="4"/>
+      <c r="A397" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E397" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="5"/>
-      <c r="D398" s="4"/>
-      <c r="E398" s="4"/>
+      <c r="A398" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E398" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="5"/>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4"/>
+      <c r="A399" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D399" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E399" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="5"/>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
+      <c r="A400" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E400" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="5"/>
-      <c r="D401" s="4"/>
-      <c r="E401" s="4"/>
+      <c r="A401" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B401" t="s">
+        <v>13</v>
+      </c>
+      <c r="C401" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E401" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="5"/>
-      <c r="D402" s="4"/>
-      <c r="E402" s="4"/>
+      <c r="A402" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E402" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="5"/>
-      <c r="D403" s="4"/>
-      <c r="E403" s="4"/>
+      <c r="A403" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E403" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="5"/>
-      <c r="D404" s="4"/>
-      <c r="E404" s="4"/>
+      <c r="A404" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E404" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="5"/>
-      <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
+      <c r="A405" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E405" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="5"/>
-      <c r="D406" s="4"/>
-      <c r="E406" s="4"/>
+      <c r="A406" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E406" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="5"/>
-      <c r="D407" s="4"/>
-      <c r="E407" s="4"/>
+      <c r="A407" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E407" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="5"/>
-      <c r="D408" s="4"/>
-      <c r="E408" s="4"/>
+      <c r="A408" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E408" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="5"/>
-      <c r="D409" s="4"/>
-      <c r="E409" s="4"/>
+      <c r="A409" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E409" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="5"/>
-      <c r="D410" s="4"/>
-      <c r="E410" s="4"/>
+      <c r="A410" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E410" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="5"/>
-      <c r="D411" s="4"/>
-      <c r="E411" s="4"/>
+      <c r="A411" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E411" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" s="5"/>
-      <c r="D412" s="4"/>
-      <c r="E412" s="4"/>
+      <c r="A412" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E412" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A413" s="5"/>
-      <c r="D413" s="4"/>
-      <c r="E413" s="4"/>
+      <c r="A413" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E413" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" s="5"/>
-      <c r="D414" s="4"/>
-      <c r="E414" s="4"/>
+      <c r="A414" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E414" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A415" s="5"/>
-      <c r="D415" s="4"/>
-      <c r="E415" s="4"/>
+      <c r="A415" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E415" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="5"/>
-      <c r="D416" s="4"/>
-      <c r="E416" s="4"/>
+      <c r="A416" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E416" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="5"/>
-      <c r="D417" s="4"/>
-      <c r="E417" s="4"/>
+      <c r="A417" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E417" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" s="5"/>
-      <c r="D418" s="4"/>
-      <c r="E418" s="4"/>
+      <c r="A418" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E418" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" s="5"/>
-      <c r="D419" s="4"/>
-      <c r="E419" s="4"/>
+      <c r="A419" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E419" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" s="5"/>
-      <c r="D420" s="4"/>
-      <c r="E420" s="4"/>
+      <c r="A420" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E420" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421" s="5"/>
-      <c r="D421" s="4"/>
-      <c r="E421" s="4"/>
+      <c r="A421" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D421" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E421" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422" s="5"/>
-      <c r="D422" s="4"/>
-      <c r="E422" s="4"/>
+      <c r="A422" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E422" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="5"/>
-      <c r="D423" s="4"/>
-      <c r="E423" s="4"/>
+      <c r="A423" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D423" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E423" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A424" s="5"/>
-      <c r="D424" s="4"/>
-      <c r="E424" s="4"/>
+      <c r="A424" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D424" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E424" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A425" s="5"/>
-      <c r="D425" s="4"/>
-      <c r="E425" s="4"/>
+      <c r="A425" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D425" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E425" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A426" s="5"/>
-      <c r="D426" s="4"/>
-      <c r="E426" s="4"/>
+      <c r="A426" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D426" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E426" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A427" s="5"/>
-      <c r="D427" s="4"/>
-      <c r="E427" s="4"/>
+      <c r="A427" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E427" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A428" s="5"/>
-      <c r="D428" s="4"/>
-      <c r="E428" s="4"/>
+      <c r="A428" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D428" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E428" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A429" s="5"/>
-      <c r="D429" s="4"/>
-      <c r="E429" s="4"/>
+      <c r="A429" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D429" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E429" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A430" s="5"/>
-      <c r="D430" s="4"/>
-      <c r="E430" s="4"/>
+      <c r="A430" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D430" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E430" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A431" s="5"/>
-      <c r="D431" s="4"/>
-      <c r="E431" s="4"/>
+      <c r="A431" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D431" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E431" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A432" s="5"/>
-      <c r="D432" s="4"/>
-      <c r="E432" s="4"/>
+      <c r="A432" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D432" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E432" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433" s="5"/>
-      <c r="D433" s="4"/>
-      <c r="E433" s="4"/>
+      <c r="A433" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E433" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A434" s="5"/>
-      <c r="D434" s="4"/>
-      <c r="E434" s="4"/>
+      <c r="A434" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D434" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E434" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A435" s="5"/>
-      <c r="D435" s="4"/>
-      <c r="E435" s="4"/>
+      <c r="A435" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E435" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A436" s="5"/>
-      <c r="D436" s="4"/>
-      <c r="E436" s="4"/>
+      <c r="A436" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E436" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437" s="5"/>
-      <c r="D437" s="4"/>
-      <c r="E437" s="4"/>
+      <c r="A437" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D437" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E437" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438" s="5"/>
-      <c r="D438" s="4"/>
-      <c r="E438" s="4"/>
+      <c r="A438" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E438" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439" s="5"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4"/>
+      <c r="A439" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E439" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A440" s="5"/>
-      <c r="D440" s="4"/>
-      <c r="E440" s="4"/>
+      <c r="A440" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E440" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A441" s="5"/>
-      <c r="D441" s="4"/>
-      <c r="E441" s="4"/>
+      <c r="A441" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D441" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E441" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442" s="5"/>
-      <c r="D442" s="4"/>
-      <c r="E442" s="4"/>
+      <c r="A442" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D442" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E442" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="5"/>
-      <c r="D443" s="4"/>
-      <c r="E443" s="4"/>
+      <c r="A443" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D443" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E443" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444" s="5"/>
-      <c r="D444" s="4"/>
-      <c r="E444" s="4"/>
+      <c r="A444" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D444" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E444" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A445" s="5"/>
-      <c r="D445" s="4"/>
-      <c r="E445" s="4"/>
+      <c r="A445" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D445" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E445" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A446" s="5"/>
-      <c r="D446" s="4"/>
-      <c r="E446" s="4"/>
+      <c r="A446" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D446" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E446" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A447" s="5"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4"/>
+      <c r="A447" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D447" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E447" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A448" s="5"/>
-      <c r="D448" s="4"/>
-      <c r="E448" s="4"/>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A449" s="5"/>
-      <c r="D449" s="4"/>
-      <c r="E449" s="4"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A450" s="5"/>
-      <c r="D450" s="4"/>
-      <c r="E450" s="4"/>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A451" s="5"/>
-      <c r="D451" s="4"/>
-      <c r="E451" s="4"/>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A452" s="5"/>
-      <c r="D452" s="4"/>
-      <c r="E452" s="4"/>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A453" s="5"/>
-      <c r="D453" s="4"/>
-      <c r="E453" s="4"/>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A454" s="5"/>
-      <c r="D454" s="4"/>
-      <c r="E454" s="4"/>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A455" s="5"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="4"/>
-      <c r="F455" s="4"/>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A456" s="5"/>
-      <c r="D456" s="4"/>
-      <c r="E456" s="4"/>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A457" s="5"/>
-      <c r="D457" s="4"/>
-      <c r="E457" s="4"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A458" s="5"/>
-      <c r="D458" s="4"/>
-      <c r="E458" s="4"/>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A459" s="5"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="4"/>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A460" s="5"/>
-      <c r="D460" s="4"/>
-      <c r="E460" s="4"/>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A461" s="5"/>
-      <c r="D461" s="4"/>
-      <c r="E461" s="4"/>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A462" s="5"/>
-      <c r="D462" s="4"/>
-      <c r="E462" s="4"/>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A463" s="5"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="4"/>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A464" s="5"/>
-      <c r="D464" s="4"/>
-      <c r="E464" s="4"/>
+      <c r="A448" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D448" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E448" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A449" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D449" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E449" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A450" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D450" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E450" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A451" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D451" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E451" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A452" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D452" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E452" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A453" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D453" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E453" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A454" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D454" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E454" s="4">
+        <v>500</v>
+      </c>
+      <c r="F454" s="4"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A455" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D455" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E455" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A456" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D456" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E456" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A457" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B457" t="s">
+        <v>13</v>
+      </c>
+      <c r="C457" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D457" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E457" s="4">
+        <v>500</v>
+      </c>
+      <c r="F457">
+        <v>0.9</v>
+      </c>
+      <c r="G457">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A458" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D458" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E458" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A459" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D459" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E459" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A460" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D460" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E460" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A461" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E461" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A462" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D462" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E462" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A463" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D463" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E463" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A464" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D464" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E464" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="5"/>
-      <c r="D465" s="4"/>
-      <c r="E465" s="4"/>
+      <c r="A465" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D465" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E465" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="5"/>
-      <c r="D466" s="4"/>
-      <c r="E466" s="4"/>
+      <c r="A466" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D466" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E466" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="5"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="4"/>
+      <c r="A467" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D467" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E467" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="5"/>
-      <c r="D468" s="4"/>
-      <c r="E468" s="4"/>
+      <c r="A468" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E468" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="5"/>
-      <c r="D469" s="4"/>
-      <c r="E469" s="4"/>
+      <c r="A469" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D469" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E469" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="5"/>
-      <c r="D470" s="4"/>
-      <c r="E470" s="4"/>
+      <c r="A470" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E470" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A471" s="5"/>
-      <c r="D471" s="4"/>
-      <c r="E471" s="4"/>
+      <c r="A471" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D471" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E471" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="5"/>
-      <c r="D472" s="4"/>
-      <c r="E472" s="4"/>
+      <c r="A472" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E472" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="5"/>
-      <c r="D473" s="4"/>
-      <c r="E473" s="4"/>
+      <c r="A473" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D473" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E473" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="5"/>
-      <c r="D474" s="4"/>
-      <c r="E474" s="4"/>
+      <c r="A474" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D474" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E474" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="5"/>
-      <c r="D475" s="4"/>
-      <c r="E475" s="4"/>
+      <c r="A475" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D475" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E475" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="5"/>
-      <c r="D476" s="4"/>
-      <c r="E476" s="4"/>
+      <c r="A476" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D476" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E476" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="5"/>
-      <c r="D477" s="4"/>
-      <c r="E477" s="4"/>
+      <c r="A477" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B477" t="s">
+        <v>13</v>
+      </c>
+      <c r="C477" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D477" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E477" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
@@ -6355,7 +10045,6 @@
       <c r="E1130" s="4"/>
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1131" s="5"/>
       <c r="D1131" s="4"/>
       <c r="E1131" s="4"/>
     </row>
@@ -6409,10 +10098,6 @@
     </row>
     <row r="1144" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1144" s="4"/>
-      <c r="E1144" s="4"/>
-    </row>
-    <row r="1145" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1145" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
+++ b/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2021-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5A2921-5F00-5644-884C-901E93898916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892FFA6E-D1A6-AF42-8814-06E9F4C7D30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="37">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -72,64 +72,88 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>75x</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>27 left as of 03Jul22</t>
+  </si>
+  <si>
+    <t>10 mL</t>
+  </si>
+  <si>
+    <t>Keratella</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>75x</t>
+    <t>B. longirostris</t>
+  </si>
+  <si>
+    <t>Conochilus</t>
+  </si>
+  <si>
+    <t>Cyclopidae</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Exoskeleton</t>
   </si>
   <si>
     <t>Cyc naup</t>
   </si>
   <si>
-    <t>Keratella</t>
+    <t>Cal naup</t>
   </si>
   <si>
-    <t>Cyclopidae</t>
+    <t>D</t>
   </si>
   <si>
-    <t>B</t>
+    <t>B_08Jul21_sunrise_top_L2</t>
   </si>
   <si>
-    <t>C</t>
+    <t>D. birgei</t>
   </si>
   <si>
-    <t>Trichocerca</t>
+    <t>Chydoridae</t>
   </si>
   <si>
-    <t>Conochilus</t>
+    <t>Bosminidae</t>
+  </si>
+  <si>
+    <t>Ascomorpha</t>
+  </si>
+  <si>
+    <t>Gastropus</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>Calanoida</t>
   </si>
   <si>
     <t>Conochiloides</t>
   </si>
   <si>
-    <t>Cal naup</t>
-  </si>
-  <si>
-    <t>2 mL</t>
-  </si>
-  <si>
-    <t>Monostyla</t>
-  </si>
-  <si>
-    <t>#1</t>
-  </si>
-  <si>
-    <t>B_mac_07Jul21_sunset_h4_rep2</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#2</t>
-  </si>
-  <si>
-    <t>Chydoridae</t>
+    <t>E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -180,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,6 +226,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I1144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="7"/>
@@ -546,16 +573,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="C2"/>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44614</v>
+        <v>44751</v>
       </c>
       <c r="C3"/>
     </row>
@@ -565,7 +595,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -599,873 +629,810 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.5</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4">
-        <v>500</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.6</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>500</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.9</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.4</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.6</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.8</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4">
-        <v>500</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.3</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E14" s="4">
-        <v>500</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1.2</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F15" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="4">
-        <v>0.9</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1.7</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.3</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1.8</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4">
-        <v>500</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E18" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F18" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G18" s="4">
-        <v>0.8</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1.2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E19" s="4">
-        <v>500</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.9</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E20" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E21" s="4">
-        <v>500</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4">
-        <v>500</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.5</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1.2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E23" s="4">
-        <v>500</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E24" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E26" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E27" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1.2</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4">
-        <v>500</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E29" s="4">
-        <v>500</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E30" s="4">
-        <v>500</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E31" s="4">
-        <v>500</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E32" s="4">
-        <v>500</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E33" s="4">
-        <v>500</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1.3</v>
+        <v>12</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E34" s="4">
-        <v>500</v>
-      </c>
-      <c r="F34" s="4">
+        <v>50</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G34" s="5">
         <v>0.6</v>
       </c>
-      <c r="G34" s="4">
-        <v>0.6</v>
-      </c>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.4</v>
+      </c>
       <c r="D35" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E35" s="4">
-        <v>500</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E36" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E37" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E38" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E39" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
+      <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E40" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E41" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E42" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E43" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E44" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="4"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E45" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="4"/>
+      <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E46" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1.8</v>
-      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E47" s="4">
-        <v>500</v>
-      </c>
-      <c r="F47" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G47" s="4">
-        <v>0.9</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E48" s="4">
-        <v>500</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.3</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E49" s="4">
-        <v>500</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1.1000000000000001</v>
+        <v>12</v>
+      </c>
+      <c r="C50" s="3">
+        <v>7.7</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E50" s="4">
-        <v>500</v>
-      </c>
-      <c r="F50" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0.6</v>
+        <v>50</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="6">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E51" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F51" s="4">
         <v>0.8</v>
@@ -1473,45 +1440,47 @@
       <c r="G51" s="4">
         <v>0.6</v>
       </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1.7</v>
+        <v>12</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E52" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F52" s="4">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G52" s="4">
-        <v>0.8</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="6">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E53" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F53" s="4">
         <v>0.8</v>
@@ -1519,5869 +1488,3975 @@
       <c r="G53" s="4">
         <v>0.6</v>
       </c>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E54" s="4">
-        <v>500</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G54" s="4">
-        <v>0.6</v>
+        <v>50</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E55" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F55" s="4">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G55" s="4">
-        <v>0.9</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D56" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E57" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
-      <c r="H57" t="s">
-        <v>25</v>
-      </c>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D58" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" s="4">
-        <v>500</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E59" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F59" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G59" s="4">
-        <v>0.8</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E60" s="4">
-        <v>500</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E61" s="4">
-        <v>500</v>
-      </c>
-      <c r="F61" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G61" s="4">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B62" s="4"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E62" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
+      <c r="H62" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1.3</v>
+      </c>
       <c r="D63" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="4">
+        <v>50</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4">
-        <v>500</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D65" s="9" t="s">
+      <c r="E65" s="4">
+        <v>50</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="4">
-        <v>500</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G65" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" s="4"/>
+      <c r="C66" s="3">
+        <v>1.3</v>
+      </c>
       <c r="D66" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4">
+        <v>50</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="4">
-        <v>500</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="4"/>
+      <c r="C68" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="4">
+        <v>50</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="4">
-        <v>500</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="4"/>
+      <c r="C69" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="4">
+        <v>50</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="4">
-        <v>500</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="4"/>
+      <c r="C70" s="3">
+        <v>1.4</v>
+      </c>
       <c r="D70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4">
+        <v>50</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="4"/>
+      <c r="C71" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4">
+        <v>50</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="4">
-        <v>500</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="4"/>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
       <c r="D72" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" s="4"/>
       <c r="D73" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" s="4"/>
       <c r="D74" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B75" s="4"/>
       <c r="D75" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="6">
+        <v>5.5</v>
+      </c>
       <c r="D76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="4">
+        <v>50</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E76" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C77" s="6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E77" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" s="4"/>
       <c r="D78" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E78" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B79" s="4"/>
       <c r="D79" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E79" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B80" s="4"/>
       <c r="D80" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E80" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="6">
-        <v>1.6</v>
-      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
       <c r="D81" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E81" s="4">
-        <v>500</v>
-      </c>
-      <c r="F81" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="6">
-        <v>1.8</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
       <c r="D82" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E82" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B83" s="4"/>
       <c r="D83" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E83" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B84" s="4"/>
       <c r="D84" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E84" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="6">
-        <v>1.6</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B85" s="4"/>
       <c r="D85" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E85" s="4">
-        <v>500</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B86" s="4"/>
       <c r="D86" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="4">
+        <v>50</v>
+      </c>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="C87" s="6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="4">
+        <v>50</v>
+      </c>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B88" s="4"/>
+      <c r="C88" s="6">
+        <v>2.9</v>
+      </c>
       <c r="D88" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E88" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B89" s="4"/>
       <c r="D89" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E89" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B90" s="4"/>
       <c r="D90" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E90" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B91" s="4"/>
       <c r="D91" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E91" s="4">
-        <v>500</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B92" s="4"/>
       <c r="D92" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E92" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B93" s="4"/>
       <c r="D93" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E93" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B94" s="4"/>
       <c r="D94" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E94" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B95" s="4"/>
       <c r="D95" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E95" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="6">
-        <v>2.9</v>
-      </c>
+      <c r="B96" s="4"/>
       <c r="D96" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E96" s="4">
-        <v>500</v>
-      </c>
-      <c r="F96" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G96" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="6">
-        <v>1.9</v>
-      </c>
+      <c r="B97" s="4"/>
       <c r="D97" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E97" s="4">
-        <v>500</v>
-      </c>
-      <c r="F97" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G97" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="6">
-        <v>1.9</v>
-      </c>
+      <c r="B98" s="4"/>
       <c r="D98" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E98" s="4">
-        <v>500</v>
-      </c>
-      <c r="F98">
-        <v>0.9</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B99" s="4"/>
       <c r="D99" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E99" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="6">
-        <v>1.5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B100" s="4"/>
       <c r="D100" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E100" s="4">
-        <v>500</v>
-      </c>
-      <c r="F100" s="4"/>
+        <v>50</v>
+      </c>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="6">
-        <v>1.6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B101" s="4"/>
       <c r="D101" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E101" s="4">
-        <v>500</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B102" s="4"/>
       <c r="D102" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E102" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B103" s="4"/>
       <c r="D103" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E103" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B104" s="4"/>
       <c r="D104" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E104" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="4"/>
       <c r="D105" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E105" s="4">
-        <v>500</v>
-      </c>
-      <c r="F105" s="4"/>
+        <v>50</v>
+      </c>
       <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="4"/>
       <c r="D106" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E106" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="4"/>
       <c r="D107" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E107" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B108" s="4"/>
       <c r="D108" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="4">
+        <v>50</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E108" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B109" s="4"/>
+      <c r="C109" s="6">
+        <v>7.9</v>
+      </c>
       <c r="D109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="4">
+        <v>50</v>
+      </c>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E109" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B110" s="4"/>
+      <c r="C110" s="6">
+        <v>1.3</v>
+      </c>
       <c r="D110" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E110" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B111" s="4"/>
       <c r="D111" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E111" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="4"/>
+      <c r="B112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="6">
+        <v>5.5</v>
+      </c>
       <c r="D112" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E112" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B113" s="4"/>
       <c r="D113" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E113" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F113" s="4"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="4"/>
       <c r="D114" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E114" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B115" s="4"/>
       <c r="D115" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E115" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="4"/>
       <c r="D116" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E116" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B117" s="4"/>
       <c r="D117" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E117" s="4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B118" s="4"/>
       <c r="D118" s="9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="E118" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="6">
-        <v>1.4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B119" s="4"/>
       <c r="D119" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E119" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B120" s="4"/>
       <c r="D120" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E120" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B121" s="4"/>
       <c r="D121" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E121" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="6">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B122" s="4"/>
       <c r="D122" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E122" s="4">
-        <v>500</v>
-      </c>
-      <c r="F122">
-        <v>0.5</v>
-      </c>
-      <c r="G122">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B123" s="4"/>
       <c r="D123" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E123" s="4">
-        <v>500</v>
-      </c>
-      <c r="F123">
-        <v>0.5</v>
-      </c>
-      <c r="G123">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="6">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B124" s="4"/>
       <c r="D124" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E124" s="4">
-        <v>500</v>
-      </c>
-      <c r="F124">
-        <v>0.5</v>
-      </c>
-      <c r="G124">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B125" s="4"/>
       <c r="D125" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E125" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B126" s="4"/>
       <c r="D126" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E126" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B127" s="4"/>
       <c r="D127" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E127" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B128" s="4"/>
       <c r="D128" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E128" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B129" s="4"/>
       <c r="D129" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E129" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B130" s="4"/>
       <c r="D130" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E130" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B131" s="4"/>
       <c r="D131" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E131" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B132" s="4"/>
       <c r="D132" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E132" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" s="4"/>
       <c r="D133" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E133" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" s="4"/>
       <c r="D134" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E134" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B135" s="4"/>
       <c r="D135" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E135" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B136" s="4"/>
       <c r="D136" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E136" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B137" s="4"/>
       <c r="D137" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E137" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B138" s="4"/>
       <c r="D138" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E138" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B139" s="4"/>
       <c r="D139" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E139" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B140" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="6">
+        <v>3.2</v>
+      </c>
       <c r="D140" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E140" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B141" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="6">
+        <v>3.6</v>
+      </c>
       <c r="D141" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E141" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B142" s="4"/>
       <c r="D142" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E142" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B143" s="4"/>
       <c r="D143" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E143" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B144" s="4"/>
       <c r="D144" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E144" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B145" s="4"/>
       <c r="D145" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E145" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="9"/>
       <c r="D146" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E146" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B147" s="4"/>
       <c r="D147" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E147" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B148" s="4"/>
       <c r="D148" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E148" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="9"/>
       <c r="D149" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E149" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="9"/>
       <c r="D150" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E150" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B151" s="4"/>
       <c r="D151" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E151" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B152" s="4"/>
       <c r="D152" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E152" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B153" s="4"/>
       <c r="D153" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E153" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B154" s="4"/>
       <c r="D154" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E154" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B155" s="4"/>
       <c r="D155" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E155" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="6">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B156" s="4"/>
       <c r="D156" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E156" s="4">
-        <v>500</v>
-      </c>
-      <c r="F156">
-        <v>0.5</v>
-      </c>
-      <c r="G156">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E157" s="4">
-        <v>500</v>
-      </c>
-      <c r="F157">
-        <v>0.5</v>
-      </c>
-      <c r="G157">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B158" s="4"/>
       <c r="D158" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E158" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E159" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E160" s="4">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E161" s="4">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E162" s="4">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E163" s="4">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E164" s="4">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E165" s="4">
-        <v>500</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="4">
-        <v>500</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="4"/>
+      <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="4">
-        <v>500</v>
-      </c>
+      <c r="A167" s="4"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="4"/>
+      <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B168" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="6">
-        <v>2.6</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" s="4">
-        <v>500</v>
-      </c>
-      <c r="H168" t="s">
-        <v>27</v>
-      </c>
+      <c r="A168" s="4"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="4"/>
+      <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="4">
-        <v>500</v>
-      </c>
+      <c r="A169" s="4"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="4"/>
+      <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="4">
-        <v>500</v>
-      </c>
+      <c r="A170" s="4"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="4"/>
+      <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="4">
-        <v>500</v>
-      </c>
+      <c r="A171" s="4"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="4"/>
+      <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E172" s="4">
-        <v>500</v>
-      </c>
+      <c r="A172" s="4"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="4"/>
+      <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E173" s="4">
-        <v>500</v>
-      </c>
+      <c r="A173" s="4"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="4"/>
+      <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E174" s="4">
-        <v>500</v>
-      </c>
+      <c r="A174" s="4"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="4"/>
+      <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E175" s="4">
-        <v>500</v>
-      </c>
+      <c r="A175" s="4"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="4"/>
+      <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="4">
-        <v>500</v>
-      </c>
+      <c r="A176" s="4"/>
+      <c r="D176" s="9"/>
+      <c r="E176" s="4"/>
+      <c r="H176" s="7"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E177" s="4">
-        <v>500</v>
-      </c>
+      <c r="A177" s="4"/>
+      <c r="D177" s="9"/>
+      <c r="E177" s="4"/>
+      <c r="H177" s="7"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="4">
-        <v>500</v>
-      </c>
+      <c r="A178" s="4"/>
+      <c r="D178" s="9"/>
+      <c r="E178" s="4"/>
+      <c r="H178" s="7"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D179" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="4">
-        <v>500</v>
-      </c>
+      <c r="A179" s="4"/>
+      <c r="D179" s="9"/>
+      <c r="E179" s="4"/>
+      <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="4">
-        <v>500</v>
-      </c>
+      <c r="A180" s="4"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="4"/>
+      <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B181" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="4">
-        <v>500</v>
-      </c>
-      <c r="H181" t="s">
-        <v>25</v>
-      </c>
+      <c r="A181" s="4"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="4"/>
+      <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="4">
-        <v>500</v>
-      </c>
+      <c r="A182" s="4"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="4"/>
+      <c r="H182" s="7"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183" s="4">
-        <v>500</v>
-      </c>
-      <c r="F183">
-        <v>0.9</v>
-      </c>
-      <c r="G183">
-        <v>0.9</v>
-      </c>
+      <c r="A183" s="4"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="4"/>
+      <c r="H183" s="7"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B184" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="4">
-        <v>500</v>
-      </c>
+      <c r="A184" s="4"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="4"/>
+      <c r="H184" s="7"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" s="4">
-        <v>500</v>
-      </c>
+      <c r="A185" s="4"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="4"/>
+      <c r="H185" s="7"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="4">
-        <v>500</v>
-      </c>
+      <c r="A186" s="4"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="4"/>
+      <c r="H186" s="7"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="4">
-        <v>500</v>
-      </c>
+      <c r="A187" s="4"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="4"/>
+      <c r="H187" s="7"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="4">
-        <v>500</v>
-      </c>
+      <c r="A188" s="4"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="4"/>
+      <c r="H188" s="7"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E189" s="4">
-        <v>500</v>
-      </c>
+      <c r="A189" s="4"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="4"/>
+      <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B190" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" s="4">
-        <v>500</v>
-      </c>
+      <c r="A190" s="4"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="4"/>
+      <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="4">
-        <v>500</v>
-      </c>
+      <c r="A191" s="4"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="4"/>
+      <c r="H191" s="7"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B193" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="4">
-        <v>500</v>
-      </c>
-      <c r="F193">
-        <v>0.8</v>
-      </c>
-      <c r="G193">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D196" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B203" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="4">
-        <v>500</v>
-      </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B204" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" s="6">
-        <v>1.7</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B205" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B206" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D208" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E213" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" t="s">
-        <v>13</v>
-      </c>
-      <c r="C216" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E216" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B217" t="s">
-        <v>13</v>
-      </c>
-      <c r="C217" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D219" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B222" t="s">
-        <v>13</v>
-      </c>
-      <c r="C222" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="4">
-        <v>500</v>
-      </c>
-      <c r="F222">
-        <v>0.9</v>
-      </c>
-      <c r="G222">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B226" t="s">
-        <v>13</v>
-      </c>
-      <c r="C226" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E229" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E231" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D232" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B233" t="s">
-        <v>13</v>
-      </c>
-      <c r="C233" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D233" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" s="4">
-        <v>500</v>
-      </c>
-      <c r="F233">
-        <v>0.9</v>
-      </c>
-      <c r="G233">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B234" t="s">
-        <v>13</v>
-      </c>
-      <c r="C234" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" s="4">
-        <v>500</v>
-      </c>
-      <c r="F234">
-        <v>0.8</v>
-      </c>
-      <c r="G234">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E237" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E238" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E239" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E240" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E242" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B243" t="s">
-        <v>13</v>
-      </c>
-      <c r="C243" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E243" s="4">
-        <v>500</v>
-      </c>
-      <c r="F243">
-        <v>0.9</v>
-      </c>
-      <c r="G243">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B245" t="s">
-        <v>13</v>
-      </c>
-      <c r="C245" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D246" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E246" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D247" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E247" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B248" t="s">
-        <v>13</v>
-      </c>
-      <c r="C248" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E248" s="4">
-        <v>500</v>
-      </c>
-      <c r="H248" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D249" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D250" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E250" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D251" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D252" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D253" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D254" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E254" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D255" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E256" s="4">
-        <v>500</v>
-      </c>
+      <c r="A192" s="4"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="4"/>
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="4"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="4"/>
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="4"/>
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="4"/>
+      <c r="D195" s="9"/>
+      <c r="E195" s="4"/>
+      <c r="H195" s="7"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="D196" s="9"/>
+      <c r="E196" s="4"/>
+      <c r="H196" s="7"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="4"/>
+      <c r="D197" s="9"/>
+      <c r="E197" s="4"/>
+      <c r="H197" s="7"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="4"/>
+      <c r="D198" s="9"/>
+      <c r="E198" s="4"/>
+      <c r="H198" s="7"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="4"/>
+      <c r="D199" s="9"/>
+      <c r="E199" s="4"/>
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="4"/>
+      <c r="D200" s="9"/>
+      <c r="E200" s="4"/>
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="4"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="4"/>
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="4"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="4"/>
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="4"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="4"/>
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="4"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="4"/>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="4"/>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="4"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="4"/>
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="4"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="4"/>
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="4"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="4"/>
+      <c r="G208" s="7"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="4"/>
+      <c r="G209" s="7"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="4"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="4"/>
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
+      <c r="D213" s="9"/>
+      <c r="E213" s="4"/>
+      <c r="H213" s="7"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="4"/>
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="4"/>
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="4"/>
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="4"/>
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="4"/>
+      <c r="H218" s="7"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+      <c r="D219" s="9"/>
+      <c r="E219" s="4"/>
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="4"/>
+      <c r="D220" s="9"/>
+      <c r="E220" s="4"/>
+      <c r="H220" s="7"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="4"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="4"/>
+      <c r="H221" s="7"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="4"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="4"/>
+      <c r="H222" s="7"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="4"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="4"/>
+      <c r="H223" s="7"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="4"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="4"/>
+      <c r="H224" s="7"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" s="4"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="4"/>
+      <c r="H225" s="7"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="4"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="4"/>
+      <c r="H226" s="7"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" s="4"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" s="4"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" s="4"/>
+      <c r="D234" s="9"/>
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" s="4"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" s="4"/>
+      <c r="D236" s="9"/>
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" s="4"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" s="4"/>
+      <c r="D238" s="9"/>
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" s="4"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" s="4"/>
+      <c r="D240" s="9"/>
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="4"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="4"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="4"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="4"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="4"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="4"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="4"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="4"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="4"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="4"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="4"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="4"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="4"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="4"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="4"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="4"/>
+      <c r="D256" s="9"/>
+      <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A257" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E257" s="4">
-        <v>500</v>
-      </c>
+      <c r="A257" s="4"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D258" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E258" s="4">
-        <v>500</v>
-      </c>
+      <c r="A258" s="4"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="4"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A259" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D259" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E259" s="4">
-        <v>500</v>
-      </c>
+      <c r="A259" s="4"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="4"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A260" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D260" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E260" s="4">
-        <v>500</v>
-      </c>
+      <c r="A260" s="4"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="4"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A261" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D261" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" s="4">
-        <v>500</v>
-      </c>
+      <c r="A261" s="4"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A262" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D262" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" s="4">
-        <v>500</v>
-      </c>
+      <c r="A262" s="4"/>
+      <c r="D262" s="9"/>
+      <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A263" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D263" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" s="4">
-        <v>500</v>
-      </c>
+      <c r="A263" s="4"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A264" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" s="4">
-        <v>500</v>
-      </c>
+      <c r="A264" s="4"/>
+      <c r="D264" s="9"/>
+      <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D265" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="4">
-        <v>500</v>
-      </c>
+      <c r="A265" s="5"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A266" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D266" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E266" s="4">
-        <v>500</v>
-      </c>
+      <c r="A266" s="5"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A267" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D267" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E267" s="4">
-        <v>500</v>
-      </c>
+      <c r="A267" s="5"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A268" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D268" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E268" s="4">
-        <v>500</v>
-      </c>
+      <c r="A268" s="5"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="4"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A269" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D269" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E269" s="4">
-        <v>500</v>
-      </c>
+      <c r="A269" s="5"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A270" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B270" t="s">
-        <v>13</v>
-      </c>
-      <c r="C270" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D270" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E270" s="4">
-        <v>500</v>
-      </c>
+      <c r="A270" s="5"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A271" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D271" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E271" s="4">
-        <v>500</v>
-      </c>
+      <c r="A271" s="5"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A272" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D272" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E272" s="4">
-        <v>500</v>
-      </c>
+      <c r="A272" s="5"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A273" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D273" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E273" s="4">
-        <v>500</v>
-      </c>
+      <c r="A273" s="5"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A274" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E274" s="4">
-        <v>500</v>
-      </c>
+      <c r="A274" s="5"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A275" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D275" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="4">
-        <v>500</v>
-      </c>
+      <c r="A275" s="5"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D276" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E276" s="4">
-        <v>500</v>
-      </c>
+      <c r="A276" s="5"/>
+      <c r="D276" s="9"/>
+      <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A277" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D277" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" s="4">
-        <v>500</v>
-      </c>
+      <c r="A277" s="5"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A278" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D278" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E278" s="4">
-        <v>500</v>
-      </c>
+      <c r="A278" s="5"/>
+      <c r="D278" s="9"/>
+      <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A279" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E279" s="4">
-        <v>500</v>
-      </c>
+      <c r="A279" s="5"/>
+      <c r="D279" s="9"/>
+      <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A280" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E280" s="4">
-        <v>500</v>
-      </c>
+      <c r="A280" s="5"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A281" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D281" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E281" s="4">
-        <v>500</v>
-      </c>
+      <c r="A281" s="5"/>
+      <c r="D281" s="9"/>
+      <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A282" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D282" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E282" s="4">
-        <v>500</v>
-      </c>
+      <c r="A282" s="5"/>
+      <c r="D282" s="9"/>
+      <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A283" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D283" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E283" s="4">
-        <v>500</v>
-      </c>
+      <c r="A283" s="5"/>
+      <c r="D283" s="9"/>
+      <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A284" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D284" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E284" s="4">
-        <v>500</v>
-      </c>
+      <c r="A284" s="5"/>
+      <c r="D284" s="9"/>
+      <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A285" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D285" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E285" s="4">
-        <v>500</v>
-      </c>
+      <c r="A285" s="5"/>
+      <c r="D285" s="9"/>
+      <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A286" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D286" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E286" s="4">
-        <v>500</v>
-      </c>
+      <c r="A286" s="5"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" s="4">
-        <v>500</v>
-      </c>
+      <c r="A287" s="5"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D288" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E288" s="4">
-        <v>500</v>
-      </c>
+      <c r="A288" s="5"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D289" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E289" s="4">
-        <v>500</v>
-      </c>
+      <c r="A289" s="5"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E290" s="4">
-        <v>500</v>
-      </c>
+      <c r="A290" s="5"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D291" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E291" s="4">
-        <v>500</v>
-      </c>
+      <c r="A291" s="5"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D292" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E292" s="4">
-        <v>500</v>
-      </c>
+      <c r="A292" s="5"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D293" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E293" s="4">
-        <v>500</v>
-      </c>
+      <c r="A293" s="5"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D294" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E294" s="4">
-        <v>500</v>
-      </c>
+      <c r="A294" s="5"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D295" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E295" s="4">
-        <v>500</v>
-      </c>
+      <c r="A295" s="5"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D296" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E296" s="4">
-        <v>500</v>
-      </c>
+      <c r="A296" s="5"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D297" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E297" s="4">
-        <v>500</v>
-      </c>
+      <c r="A297" s="5"/>
+      <c r="D297" s="9"/>
+      <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D298" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E298" s="4">
-        <v>500</v>
-      </c>
+      <c r="A298" s="5"/>
+      <c r="D298" s="9"/>
+      <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D299" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E299" s="4">
-        <v>500</v>
-      </c>
+      <c r="A299" s="5"/>
+      <c r="D299" s="9"/>
+      <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E300" s="4">
-        <v>500</v>
-      </c>
+      <c r="A300" s="5"/>
+      <c r="D300" s="9"/>
+      <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D301" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E301" s="4">
-        <v>500</v>
-      </c>
+      <c r="A301" s="5"/>
+      <c r="D301" s="9"/>
+      <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D302" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E302" s="4">
-        <v>500</v>
-      </c>
+      <c r="A302" s="5"/>
+      <c r="D302" s="9"/>
+      <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D303" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E303" s="4">
-        <v>500</v>
-      </c>
+      <c r="A303" s="5"/>
+      <c r="D303" s="9"/>
+      <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D304" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E304" s="4">
-        <v>500</v>
-      </c>
+      <c r="A304" s="5"/>
+      <c r="D304" s="9"/>
+      <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D305" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E305" s="4">
-        <v>500</v>
-      </c>
+      <c r="A305" s="5"/>
+      <c r="D305" s="9"/>
+      <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D306" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E306" s="4">
-        <v>500</v>
-      </c>
+      <c r="A306" s="5"/>
+      <c r="D306" s="9"/>
+      <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D307" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E307" s="4">
-        <v>500</v>
-      </c>
+      <c r="A307" s="5"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D308" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E308" s="4">
-        <v>500</v>
-      </c>
+      <c r="A308" s="5"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D309" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E309" s="4">
-        <v>500</v>
-      </c>
+      <c r="A309" s="5"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A310" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E310" s="4">
-        <v>500</v>
-      </c>
+      <c r="A310" s="5"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D311" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" s="4">
-        <v>500</v>
-      </c>
+      <c r="A311" s="5"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A312" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D312" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E312" s="4">
-        <v>500</v>
-      </c>
+      <c r="A312" s="5"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D313" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E313" s="4">
-        <v>500</v>
-      </c>
+      <c r="A313" s="5"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A314" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D314" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E314" s="4">
-        <v>500</v>
-      </c>
+      <c r="A314" s="5"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A315" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D315" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E315" s="4">
-        <v>500</v>
-      </c>
+      <c r="A315" s="5"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D316" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E316" s="4">
-        <v>500</v>
-      </c>
+      <c r="A316" s="5"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A317" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D317" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E317" s="4">
-        <v>500</v>
-      </c>
+      <c r="A317" s="5"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A318" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D318" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E318" s="4">
-        <v>500</v>
-      </c>
+      <c r="A318" s="5"/>
+      <c r="D318" s="9"/>
+      <c r="E318" s="4"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D319" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E319" s="4">
-        <v>500</v>
-      </c>
+      <c r="A319" s="5"/>
+      <c r="D319" s="9"/>
+      <c r="E319" s="4"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A320" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D320" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E320" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A321" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D321" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E321" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A322" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D322" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E322" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D323" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E323" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D324" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E324" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D325" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E325" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B326" t="s">
-        <v>13</v>
-      </c>
-      <c r="C326" s="6">
-        <v>3.7</v>
-      </c>
-      <c r="D326" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E326" s="4">
-        <v>500</v>
-      </c>
-      <c r="H326" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D327" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E327" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D328" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E328" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D329" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E329" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D330" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E330" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E331" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D332" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E332" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D333" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E333" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D334" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E334" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D335" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E335" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D336" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E336" s="4">
-        <v>500</v>
-      </c>
+      <c r="A320" s="5"/>
+      <c r="D320" s="9"/>
+      <c r="E320" s="4"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="5"/>
+      <c r="D321" s="9"/>
+      <c r="E321" s="4"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="5"/>
+      <c r="D322" s="9"/>
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" s="5"/>
+      <c r="D323" s="9"/>
+      <c r="E323" s="4"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" s="5"/>
+      <c r="D324" s="9"/>
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" s="5"/>
+      <c r="D325" s="9"/>
+      <c r="E325" s="4"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" s="5"/>
+      <c r="D326" s="9"/>
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" s="5"/>
+      <c r="D327" s="9"/>
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" s="5"/>
+      <c r="D328" s="9"/>
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" s="5"/>
+      <c r="D329" s="9"/>
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" s="5"/>
+      <c r="D330" s="9"/>
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" s="5"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" s="5"/>
+      <c r="D332" s="9"/>
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" s="5"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" s="5"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" s="5"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" s="5"/>
+      <c r="D336" s="9"/>
+      <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D337" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E337" s="4">
-        <v>500</v>
-      </c>
+      <c r="A337" s="5"/>
+      <c r="D337" s="9"/>
+      <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D338" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E338" s="4">
-        <v>500</v>
-      </c>
+      <c r="A338" s="5"/>
+      <c r="D338" s="9"/>
+      <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D339" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E339" s="4">
-        <v>500</v>
-      </c>
+      <c r="A339" s="5"/>
+      <c r="D339" s="9"/>
+      <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D340" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E340" s="4">
-        <v>500</v>
-      </c>
+      <c r="A340" s="5"/>
+      <c r="D340" s="9"/>
+      <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D341" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E341" s="4">
-        <v>500</v>
-      </c>
+      <c r="A341" s="5"/>
+      <c r="D341" s="9"/>
+      <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D342" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E342" s="4">
-        <v>500</v>
-      </c>
+      <c r="A342" s="5"/>
+      <c r="D342" s="9"/>
+      <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D343" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E343" s="4">
-        <v>500</v>
-      </c>
+      <c r="A343" s="5"/>
+      <c r="D343" s="9"/>
+      <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D344" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E344" s="4">
-        <v>500</v>
-      </c>
+      <c r="A344" s="5"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D345" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E345" s="4">
-        <v>500</v>
-      </c>
+      <c r="A345" s="5"/>
+      <c r="D345" s="9"/>
+      <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D346" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E346" s="4">
-        <v>500</v>
-      </c>
+      <c r="A346" s="5"/>
+      <c r="D346" s="9"/>
+      <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D347" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E347" s="4">
-        <v>500</v>
-      </c>
+      <c r="A347" s="5"/>
+      <c r="D347" s="9"/>
+      <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E348" s="4">
-        <v>500</v>
-      </c>
+      <c r="A348" s="5"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D349" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E349" s="4">
-        <v>500</v>
-      </c>
+      <c r="A349" s="5"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E350" s="4">
-        <v>500</v>
-      </c>
+      <c r="A350" s="5"/>
+      <c r="D350" s="9"/>
+      <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D351" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E351" s="4">
-        <v>500</v>
-      </c>
+      <c r="A351" s="5"/>
+      <c r="D351" s="9"/>
+      <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D352" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E352" s="4">
-        <v>500</v>
-      </c>
+      <c r="A352" s="5"/>
+      <c r="D352" s="9"/>
+      <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D353" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E353" s="4">
-        <v>500</v>
-      </c>
+      <c r="A353" s="5"/>
+      <c r="D353" s="9"/>
+      <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B354" t="s">
-        <v>13</v>
-      </c>
-      <c r="C354" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E354" s="4">
-        <v>500</v>
-      </c>
+      <c r="A354" s="5"/>
+      <c r="D354" s="9"/>
+      <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D355" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E355" s="4">
-        <v>500</v>
-      </c>
+      <c r="A355" s="5"/>
+      <c r="D355" s="9"/>
+      <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D356" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E356" s="4">
-        <v>500</v>
-      </c>
+      <c r="A356" s="5"/>
+      <c r="D356" s="9"/>
+      <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D357" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E357" s="4">
-        <v>500</v>
-      </c>
+      <c r="A357" s="5"/>
+      <c r="D357" s="9"/>
+      <c r="E357" s="4"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D358" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E358" s="4">
-        <v>500</v>
-      </c>
+      <c r="A358" s="5"/>
+      <c r="D358" s="9"/>
+      <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D359" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E359" s="4">
-        <v>500</v>
-      </c>
+      <c r="A359" s="5"/>
+      <c r="D359" s="9"/>
+      <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D360" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E360" s="4">
-        <v>500</v>
-      </c>
+      <c r="A360" s="5"/>
+      <c r="D360" s="9"/>
+      <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D361" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E361" s="4">
-        <v>500</v>
-      </c>
+      <c r="A361" s="5"/>
+      <c r="D361" s="9"/>
+      <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E362" s="4">
-        <v>500</v>
-      </c>
+      <c r="A362" s="5"/>
+      <c r="D362" s="9"/>
+      <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E363" s="4">
-        <v>500</v>
-      </c>
+      <c r="A363" s="5"/>
+      <c r="D363" s="9"/>
+      <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D364" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E364" s="4">
-        <v>500</v>
-      </c>
+      <c r="A364" s="5"/>
+      <c r="D364" s="9"/>
+      <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D365" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E365" s="4">
-        <v>500</v>
-      </c>
+      <c r="A365" s="5"/>
+      <c r="D365" s="9"/>
+      <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E366" s="4">
-        <v>500</v>
-      </c>
+      <c r="A366" s="5"/>
+      <c r="D366" s="9"/>
+      <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D367" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E367" s="4">
-        <v>500</v>
-      </c>
+      <c r="A367" s="5"/>
+      <c r="D367" s="9"/>
+      <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D368" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E368" s="4">
-        <v>500</v>
-      </c>
+      <c r="A368" s="5"/>
+      <c r="D368" s="9"/>
+      <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E369" s="4">
-        <v>500</v>
-      </c>
+      <c r="A369" s="5"/>
+      <c r="D369" s="9"/>
+      <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D370" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E370" s="4">
-        <v>500</v>
-      </c>
+      <c r="A370" s="5"/>
+      <c r="D370" s="9"/>
+      <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D371" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E371" s="4">
-        <v>500</v>
-      </c>
+      <c r="A371" s="5"/>
+      <c r="D371" s="9"/>
+      <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D372" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E372" s="4">
-        <v>500</v>
-      </c>
+      <c r="A372" s="5"/>
+      <c r="D372" s="9"/>
+      <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D373" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E373" s="4">
-        <v>500</v>
-      </c>
+      <c r="A373" s="5"/>
+      <c r="D373" s="9"/>
+      <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D374" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E374" s="4">
-        <v>500</v>
-      </c>
+      <c r="A374" s="5"/>
+      <c r="D374" s="9"/>
+      <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D375" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E375" s="4">
-        <v>500</v>
-      </c>
+      <c r="A375" s="5"/>
+      <c r="D375" s="9"/>
+      <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D376" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E376" s="4">
-        <v>500</v>
-      </c>
+      <c r="A376" s="5"/>
+      <c r="D376" s="9"/>
+      <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D377" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E377" s="4">
-        <v>500</v>
-      </c>
+      <c r="A377" s="5"/>
+      <c r="D377" s="9"/>
+      <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D378" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E378" s="4">
-        <v>500</v>
-      </c>
+      <c r="A378" s="5"/>
+      <c r="D378" s="9"/>
+      <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D379" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E379" s="4">
-        <v>500</v>
-      </c>
+      <c r="A379" s="5"/>
+      <c r="D379" s="9"/>
+      <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D380" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E380" s="4">
-        <v>500</v>
-      </c>
+      <c r="A380" s="5"/>
+      <c r="D380" s="9"/>
+      <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D381" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E381" s="4">
-        <v>500</v>
-      </c>
+      <c r="A381" s="5"/>
+      <c r="D381" s="9"/>
+      <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D382" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E382" s="4">
-        <v>500</v>
-      </c>
+      <c r="A382" s="5"/>
+      <c r="D382" s="9"/>
+      <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D383" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E383" s="4">
-        <v>500</v>
-      </c>
+      <c r="A383" s="5"/>
+      <c r="D383" s="9"/>
+      <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D384" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E384" s="4">
-        <v>500</v>
-      </c>
+      <c r="A384" s="5"/>
+      <c r="D384" s="9"/>
+      <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A385" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D385" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E385" s="4">
-        <v>500</v>
-      </c>
+      <c r="A385" s="5"/>
+      <c r="D385" s="9"/>
+      <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A386" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D386" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E386" s="4">
-        <v>500</v>
-      </c>
+      <c r="A386" s="5"/>
+      <c r="D386" s="9"/>
+      <c r="E386" s="4"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A387" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D387" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E387" s="4">
-        <v>500</v>
-      </c>
+      <c r="A387" s="5"/>
+      <c r="D387" s="9"/>
+      <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A388" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D388" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E388" s="4">
-        <v>500</v>
-      </c>
+      <c r="A388" s="5"/>
+      <c r="D388" s="9"/>
+      <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A389" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D389" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E389" s="4">
-        <v>500</v>
-      </c>
+      <c r="A389" s="5"/>
+      <c r="D389" s="9"/>
+      <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A390" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D390" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E390" s="4">
-        <v>500</v>
-      </c>
+      <c r="A390" s="5"/>
+      <c r="D390" s="9"/>
+      <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A391" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D391" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E391" s="4">
-        <v>500</v>
-      </c>
+      <c r="A391" s="5"/>
+      <c r="D391" s="9"/>
+      <c r="E391" s="4"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A392" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D392" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E392" s="4">
-        <v>500</v>
-      </c>
+      <c r="A392" s="5"/>
+      <c r="D392" s="9"/>
+      <c r="E392" s="4"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A393" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D393" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E393" s="4">
-        <v>500</v>
-      </c>
+      <c r="A393" s="5"/>
+      <c r="D393" s="9"/>
+      <c r="E393" s="4"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A394" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D394" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E394" s="4">
-        <v>500</v>
-      </c>
+      <c r="A394" s="5"/>
+      <c r="D394" s="9"/>
+      <c r="E394" s="4"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A395" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D395" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E395" s="4">
-        <v>500</v>
-      </c>
+      <c r="A395" s="5"/>
+      <c r="D395" s="9"/>
+      <c r="E395" s="4"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A396" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D396" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E396" s="4">
-        <v>500</v>
-      </c>
+      <c r="A396" s="5"/>
+      <c r="D396" s="9"/>
+      <c r="E396" s="4"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A397" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D397" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E397" s="4">
-        <v>500</v>
-      </c>
+      <c r="A397" s="5"/>
+      <c r="D397" s="9"/>
+      <c r="E397" s="4"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A398" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D398" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E398" s="4">
-        <v>500</v>
-      </c>
+      <c r="A398" s="5"/>
+      <c r="D398" s="9"/>
+      <c r="E398" s="4"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A399" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D399" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E399" s="4">
-        <v>500</v>
-      </c>
+      <c r="A399" s="5"/>
+      <c r="D399" s="9"/>
+      <c r="E399" s="4"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A400" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D400" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E400" s="4">
-        <v>500</v>
-      </c>
+      <c r="A400" s="5"/>
+      <c r="D400" s="9"/>
+      <c r="E400" s="4"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B401" t="s">
-        <v>13</v>
-      </c>
-      <c r="C401" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="D401" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E401" s="4">
-        <v>500</v>
-      </c>
+      <c r="A401" s="5"/>
+      <c r="D401" s="9"/>
+      <c r="E401" s="4"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D402" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E402" s="4">
-        <v>500</v>
-      </c>
+      <c r="A402" s="5"/>
+      <c r="D402" s="9"/>
+      <c r="E402" s="4"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D403" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E403" s="4">
-        <v>500</v>
-      </c>
+      <c r="A403" s="5"/>
+      <c r="D403" s="9"/>
+      <c r="E403" s="4"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D404" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E404" s="4">
-        <v>500</v>
-      </c>
+      <c r="A404" s="5"/>
+      <c r="D404" s="9"/>
+      <c r="E404" s="4"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D405" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E405" s="4">
-        <v>500</v>
-      </c>
+      <c r="A405" s="5"/>
+      <c r="D405" s="9"/>
+      <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E406" s="4">
-        <v>500</v>
-      </c>
+      <c r="A406" s="5"/>
+      <c r="D406" s="9"/>
+      <c r="E406" s="4"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A407" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D407" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E407" s="4">
-        <v>500</v>
-      </c>
+      <c r="A407" s="5"/>
+      <c r="D407" s="9"/>
+      <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A408" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D408" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E408" s="4">
-        <v>500</v>
-      </c>
+      <c r="A408" s="5"/>
+      <c r="D408" s="9"/>
+      <c r="E408" s="4"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A409" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D409" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E409" s="4">
-        <v>500</v>
-      </c>
+      <c r="A409" s="5"/>
+      <c r="D409" s="9"/>
+      <c r="E409" s="4"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A410" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D410" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E410" s="4">
-        <v>500</v>
-      </c>
+      <c r="A410" s="5"/>
+      <c r="D410" s="9"/>
+      <c r="E410" s="4"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A411" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D411" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E411" s="4">
-        <v>500</v>
-      </c>
+      <c r="A411" s="5"/>
+      <c r="D411" s="9"/>
+      <c r="E411" s="4"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A412" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D412" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E412" s="4">
-        <v>500</v>
-      </c>
+      <c r="A412" s="5"/>
+      <c r="D412" s="9"/>
+      <c r="E412" s="4"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A413" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D413" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E413" s="4">
-        <v>500</v>
-      </c>
+      <c r="A413" s="5"/>
+      <c r="D413" s="9"/>
+      <c r="E413" s="4"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A414" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D414" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E414" s="4">
-        <v>500</v>
-      </c>
+      <c r="A414" s="5"/>
+      <c r="D414" s="9"/>
+      <c r="E414" s="4"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A415" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D415" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E415" s="4">
-        <v>500</v>
-      </c>
+      <c r="A415" s="5"/>
+      <c r="D415" s="9"/>
+      <c r="E415" s="4"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A416" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D416" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E416" s="4">
-        <v>500</v>
-      </c>
+      <c r="A416" s="5"/>
+      <c r="D416" s="9"/>
+      <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A417" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D417" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E417" s="4">
-        <v>500</v>
-      </c>
+      <c r="A417" s="5"/>
+      <c r="D417" s="9"/>
+      <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A418" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D418" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E418" s="4">
-        <v>500</v>
-      </c>
+      <c r="A418" s="5"/>
+      <c r="D418" s="9"/>
+      <c r="E418" s="4"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A419" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D419" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E419" s="4">
-        <v>500</v>
-      </c>
+      <c r="A419" s="5"/>
+      <c r="D419" s="9"/>
+      <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A420" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D420" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E420" s="4">
-        <v>500</v>
-      </c>
+      <c r="A420" s="5"/>
+      <c r="D420" s="9"/>
+      <c r="E420" s="4"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A421" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D421" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E421" s="4">
-        <v>500</v>
-      </c>
+      <c r="A421" s="5"/>
+      <c r="D421" s="9"/>
+      <c r="E421" s="4"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A422" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D422" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E422" s="4">
-        <v>500</v>
-      </c>
+      <c r="A422" s="5"/>
+      <c r="D422" s="9"/>
+      <c r="E422" s="4"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A423" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D423" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E423" s="4">
-        <v>500</v>
-      </c>
+      <c r="A423" s="5"/>
+      <c r="D423" s="9"/>
+      <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A424" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D424" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E424" s="4">
-        <v>500</v>
-      </c>
+      <c r="A424" s="5"/>
+      <c r="D424" s="9"/>
+      <c r="E424" s="4"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A425" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D425" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E425" s="4">
-        <v>500</v>
-      </c>
+      <c r="A425" s="5"/>
+      <c r="D425" s="9"/>
+      <c r="E425" s="4"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A426" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D426" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E426" s="4">
-        <v>500</v>
-      </c>
+      <c r="A426" s="5"/>
+      <c r="D426" s="9"/>
+      <c r="E426" s="4"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A427" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D427" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E427" s="4">
-        <v>500</v>
-      </c>
+      <c r="A427" s="5"/>
+      <c r="D427" s="9"/>
+      <c r="E427" s="4"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A428" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D428" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E428" s="4">
-        <v>500</v>
-      </c>
+      <c r="A428" s="5"/>
+      <c r="D428" s="9"/>
+      <c r="E428" s="4"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A429" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D429" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E429" s="4">
-        <v>500</v>
-      </c>
+      <c r="A429" s="5"/>
+      <c r="D429" s="9"/>
+      <c r="E429" s="4"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A430" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D430" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E430" s="4">
-        <v>500</v>
-      </c>
+      <c r="A430" s="5"/>
+      <c r="D430" s="9"/>
+      <c r="E430" s="4"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A431" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D431" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E431" s="4">
-        <v>500</v>
-      </c>
+      <c r="A431" s="5"/>
+      <c r="D431" s="9"/>
+      <c r="E431" s="4"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A432" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D432" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E432" s="4">
-        <v>500</v>
-      </c>
+      <c r="A432" s="5"/>
+      <c r="D432" s="9"/>
+      <c r="E432" s="4"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A433" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D433" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E433" s="4">
-        <v>500</v>
-      </c>
+      <c r="A433" s="5"/>
+      <c r="D433" s="9"/>
+      <c r="E433" s="4"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A434" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D434" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E434" s="4">
-        <v>500</v>
-      </c>
+      <c r="A434" s="5"/>
+      <c r="D434" s="9"/>
+      <c r="E434" s="4"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A435" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D435" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E435" s="4">
-        <v>500</v>
-      </c>
+      <c r="A435" s="5"/>
+      <c r="D435" s="9"/>
+      <c r="E435" s="4"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A436" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D436" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E436" s="4">
-        <v>500</v>
-      </c>
+      <c r="A436" s="5"/>
+      <c r="D436" s="9"/>
+      <c r="E436" s="4"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A437" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D437" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E437" s="4">
-        <v>500</v>
-      </c>
+      <c r="A437" s="5"/>
+      <c r="D437" s="9"/>
+      <c r="E437" s="4"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D438" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E438" s="4">
-        <v>500</v>
-      </c>
+      <c r="A438" s="5"/>
+      <c r="D438" s="9"/>
+      <c r="E438" s="4"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A439" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D439" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E439" s="4">
-        <v>500</v>
-      </c>
+      <c r="A439" s="5"/>
+      <c r="D439" s="9"/>
+      <c r="E439" s="4"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A440" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D440" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E440" s="4">
-        <v>500</v>
-      </c>
+      <c r="A440" s="5"/>
+      <c r="D440" s="9"/>
+      <c r="E440" s="4"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A441" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D441" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E441" s="4">
-        <v>500</v>
-      </c>
+      <c r="A441" s="5"/>
+      <c r="D441" s="9"/>
+      <c r="E441" s="4"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A442" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D442" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E442" s="4">
-        <v>500</v>
-      </c>
+      <c r="A442" s="5"/>
+      <c r="D442" s="9"/>
+      <c r="E442" s="4"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A443" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D443" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E443" s="4">
-        <v>500</v>
-      </c>
+      <c r="A443" s="5"/>
+      <c r="D443" s="9"/>
+      <c r="E443" s="4"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A444" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D444" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E444" s="4">
-        <v>500</v>
-      </c>
+      <c r="A444" s="5"/>
+      <c r="D444" s="9"/>
+      <c r="E444" s="4"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A445" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D445" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E445" s="4">
-        <v>500</v>
-      </c>
+      <c r="A445" s="5"/>
+      <c r="D445" s="9"/>
+      <c r="E445" s="4"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A446" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D446" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E446" s="4">
-        <v>500</v>
-      </c>
+      <c r="A446" s="5"/>
+      <c r="D446" s="9"/>
+      <c r="E446" s="4"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A447" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D447" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E447" s="4">
-        <v>500</v>
-      </c>
+      <c r="A447" s="5"/>
+      <c r="D447" s="9"/>
+      <c r="E447" s="4"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A448" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D448" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E448" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D449" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E449" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D450" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E450" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D451" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E451" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A452" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D452" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E452" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A453" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D453" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E453" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A454" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D454" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E454" s="4">
-        <v>500</v>
-      </c>
+      <c r="A448" s="5"/>
+      <c r="D448" s="9"/>
+      <c r="E448" s="4"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" s="5"/>
+      <c r="D449" s="9"/>
+      <c r="E449" s="4"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A450" s="5"/>
+      <c r="D450" s="9"/>
+      <c r="E450" s="4"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451" s="5"/>
+      <c r="D451" s="9"/>
+      <c r="E451" s="4"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452" s="5"/>
+      <c r="D452" s="9"/>
+      <c r="E452" s="4"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A453" s="5"/>
+      <c r="D453" s="9"/>
+      <c r="E453" s="4"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454" s="5"/>
+      <c r="D454" s="9"/>
+      <c r="E454" s="4"/>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A455" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D455" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E455" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A456" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D456" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E456" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A457" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B457" t="s">
-        <v>13</v>
-      </c>
-      <c r="C457" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D457" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E457" s="4">
-        <v>500</v>
-      </c>
-      <c r="F457">
-        <v>0.9</v>
-      </c>
-      <c r="G457">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A458" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D458" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E458" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A459" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D459" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E459" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A460" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D460" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E460" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A461" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D461" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E461" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A462" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D462" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E462" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A463" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D463" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E463" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A464" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D464" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E464" s="4">
-        <v>500</v>
-      </c>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455" s="5"/>
+      <c r="D455" s="9"/>
+      <c r="E455" s="4"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456" s="5"/>
+      <c r="D456" s="9"/>
+      <c r="E456" s="4"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457" s="5"/>
+      <c r="D457" s="9"/>
+      <c r="E457" s="4"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458" s="5"/>
+      <c r="D458" s="9"/>
+      <c r="E458" s="4"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459" s="5"/>
+      <c r="D459" s="9"/>
+      <c r="E459" s="4"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460" s="5"/>
+      <c r="D460" s="9"/>
+      <c r="E460" s="4"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461" s="5"/>
+      <c r="D461" s="9"/>
+      <c r="E461" s="4"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462" s="5"/>
+      <c r="D462" s="9"/>
+      <c r="E462" s="4"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463" s="5"/>
+      <c r="D463" s="9"/>
+      <c r="E463" s="4"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464" s="5"/>
+      <c r="D464" s="9"/>
+      <c r="E464" s="4"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A465" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D465" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E465" s="4">
-        <v>500</v>
-      </c>
+      <c r="A465" s="5"/>
+      <c r="D465" s="9"/>
+      <c r="E465" s="4"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A466" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D466" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E466" s="4">
-        <v>500</v>
-      </c>
+      <c r="A466" s="5"/>
+      <c r="D466" s="9"/>
+      <c r="E466" s="4"/>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A467" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D467" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E467" s="4">
-        <v>500</v>
-      </c>
+      <c r="A467" s="5"/>
+      <c r="D467" s="9"/>
+      <c r="E467" s="4"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A468" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D468" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E468" s="4">
-        <v>500</v>
-      </c>
+      <c r="A468" s="5"/>
+      <c r="D468" s="9"/>
+      <c r="E468" s="4"/>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A469" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D469" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E469" s="4">
-        <v>500</v>
-      </c>
+      <c r="A469" s="5"/>
+      <c r="D469" s="9"/>
+      <c r="E469" s="4"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A470" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D470" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E470" s="4">
-        <v>500</v>
-      </c>
+      <c r="A470" s="5"/>
+      <c r="D470" s="9"/>
+      <c r="E470" s="4"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A471" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D471" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E471" s="4">
-        <v>500</v>
-      </c>
+      <c r="A471" s="5"/>
+      <c r="D471" s="9"/>
+      <c r="E471" s="4"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A472" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D472" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E472" s="4">
-        <v>500</v>
-      </c>
+      <c r="A472" s="5"/>
+      <c r="D472" s="9"/>
+      <c r="E472" s="4"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A473" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D473" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E473" s="4">
-        <v>500</v>
-      </c>
+      <c r="A473" s="5"/>
+      <c r="D473" s="9"/>
+      <c r="E473" s="4"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A474" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D474" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E474" s="4">
-        <v>500</v>
-      </c>
+      <c r="A474" s="5"/>
+      <c r="D474" s="9"/>
+      <c r="E474" s="4"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A475" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D475" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E475" s="4">
-        <v>500</v>
-      </c>
+      <c r="A475" s="5"/>
+      <c r="D475" s="9"/>
+      <c r="E475" s="4"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A476" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D476" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E476" s="4">
-        <v>500</v>
-      </c>
+      <c r="A476" s="5"/>
+      <c r="D476" s="9"/>
+      <c r="E476" s="4"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A477" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B477" t="s">
-        <v>13</v>
-      </c>
-      <c r="C477" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="D477" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E477" s="4">
-        <v>500</v>
-      </c>
+      <c r="A477" s="5"/>
+      <c r="D477" s="9"/>
+      <c r="E477" s="4"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="5"/>
-      <c r="D478" s="4"/>
+      <c r="D478" s="9"/>
       <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="5"/>
-      <c r="D479" s="4"/>
+      <c r="D479" s="9"/>
       <c r="E479" s="4"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="5"/>
-      <c r="D480" s="4"/>
+      <c r="D480" s="9"/>
       <c r="E480" s="4"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="5"/>
-      <c r="D481" s="4"/>
+      <c r="D481" s="9"/>
       <c r="E481" s="4"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="5"/>
-      <c r="D482" s="4"/>
+      <c r="D482" s="9"/>
       <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="5"/>
-      <c r="D483" s="4"/>
+      <c r="D483" s="9"/>
       <c r="E483" s="4"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="5"/>
-      <c r="D484" s="4"/>
+      <c r="D484" s="9"/>
       <c r="E484" s="4"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="5"/>
-      <c r="D485" s="4"/>
+      <c r="D485" s="9"/>
       <c r="E485" s="4"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" s="5"/>
-      <c r="D486" s="4"/>
+      <c r="D486" s="9"/>
       <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" s="5"/>
-      <c r="D487" s="4"/>
+      <c r="D487" s="9"/>
       <c r="E487" s="4"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="5"/>
-      <c r="D488" s="4"/>
+      <c r="D488" s="9"/>
       <c r="E488" s="4"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="5"/>
-      <c r="D489" s="4"/>
+      <c r="D489" s="9"/>
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="5"/>
-      <c r="D490" s="4"/>
+      <c r="D490" s="9"/>
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="5"/>
-      <c r="D491" s="4"/>
+      <c r="D491" s="9"/>
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="5"/>
-      <c r="D492" s="4"/>
+      <c r="D492" s="9"/>
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="5"/>
-      <c r="D493" s="4"/>
+      <c r="D493" s="9"/>
       <c r="E493" s="4"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="5"/>
-      <c r="D494" s="4"/>
+      <c r="D494" s="9"/>
       <c r="E494" s="4"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="5"/>
-      <c r="D495" s="4"/>
+      <c r="D495" s="9"/>
       <c r="E495" s="4"/>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" s="5"/>
-      <c r="D496" s="4"/>
+      <c r="D496" s="9"/>
       <c r="E496" s="4"/>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" s="5"/>
-      <c r="D497" s="4"/>
+      <c r="D497" s="9"/>
       <c r="E497" s="4"/>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" s="5"/>
-      <c r="D498" s="4"/>
+      <c r="D498" s="9"/>
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" s="5"/>
-      <c r="D499" s="4"/>
+      <c r="D499" s="9"/>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" s="5"/>
-      <c r="D500" s="4"/>
+      <c r="D500" s="9"/>
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" s="5"/>
-      <c r="D501" s="4"/>
+      <c r="D501" s="9"/>
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" s="5"/>
-      <c r="D502" s="4"/>
+      <c r="D502" s="9"/>
       <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" s="5"/>
-      <c r="D503" s="4"/>
+      <c r="D503" s="9"/>
       <c r="E503" s="4"/>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" s="5"/>
-      <c r="D504" s="4"/>
+      <c r="D504" s="9"/>
       <c r="E504" s="4"/>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" s="5"/>
-      <c r="D505" s="4"/>
+      <c r="D505" s="9"/>
       <c r="E505" s="4"/>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" s="5"/>
-      <c r="D506" s="4"/>
+      <c r="D506" s="9"/>
       <c r="E506" s="4"/>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" s="5"/>
-      <c r="D507" s="4"/>
+      <c r="D507" s="9"/>
       <c r="E507" s="4"/>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="5"/>
-      <c r="D508" s="4"/>
+      <c r="D508" s="9"/>
       <c r="E508" s="4"/>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="5"/>
-      <c r="D509" s="4"/>
+      <c r="D509" s="9"/>
       <c r="E509" s="4"/>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="5"/>
-      <c r="D510" s="4"/>
+      <c r="D510" s="9"/>
       <c r="E510" s="4"/>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="5"/>
-      <c r="D511" s="4"/>
+      <c r="D511" s="9"/>
       <c r="E511" s="4"/>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="5"/>
-      <c r="D512" s="4"/>
+      <c r="D512" s="9"/>
       <c r="E512" s="4"/>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="5"/>
-      <c r="D513" s="4"/>
+      <c r="D513" s="9"/>
       <c r="E513" s="4"/>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="5"/>
-      <c r="D514" s="4"/>
+      <c r="D514" s="9"/>
       <c r="E514" s="4"/>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="5"/>
-      <c r="D515" s="4"/>
+      <c r="D515" s="9"/>
       <c r="E515" s="4"/>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="5"/>
-      <c r="D516" s="4"/>
+      <c r="D516" s="9"/>
       <c r="E516" s="4"/>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="5"/>
-      <c r="D517" s="4"/>
+      <c r="D517" s="9"/>
       <c r="E517" s="4"/>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="5"/>
-      <c r="D518" s="4"/>
+      <c r="D518" s="9"/>
       <c r="E518" s="4"/>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="5"/>
-      <c r="D519" s="4"/>
+      <c r="D519" s="9"/>
       <c r="E519" s="4"/>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="5"/>
-      <c r="D520" s="4"/>
+      <c r="D520" s="9"/>
       <c r="E520" s="4"/>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="5"/>
-      <c r="D521" s="4"/>
+      <c r="D521" s="9"/>
       <c r="E521" s="4"/>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="5"/>
-      <c r="D522" s="4"/>
+      <c r="D522" s="9"/>
       <c r="E522" s="4"/>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="5"/>
-      <c r="D523" s="4"/>
+      <c r="D523" s="9"/>
       <c r="E523" s="4"/>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="5"/>
-      <c r="D524" s="4"/>
+      <c r="D524" s="9"/>
       <c r="E524" s="4"/>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="5"/>
-      <c r="D525" s="4"/>
+      <c r="D525" s="9"/>
       <c r="E525" s="4"/>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="5"/>
-      <c r="D526" s="4"/>
+      <c r="D526" s="9"/>
       <c r="E526" s="4"/>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="5"/>
-      <c r="D527" s="4"/>
+      <c r="D527" s="9"/>
       <c r="E527" s="4"/>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="5"/>
-      <c r="D528" s="4"/>
+      <c r="D528" s="9"/>
       <c r="E528" s="4"/>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="5"/>
-      <c r="D529" s="4"/>
+      <c r="D529" s="9"/>
       <c r="E529" s="4"/>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="5"/>
-      <c r="D530" s="4"/>
+      <c r="D530" s="9"/>
       <c r="E530" s="4"/>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531" s="5"/>
-      <c r="D531" s="4"/>
+      <c r="D531" s="9"/>
       <c r="E531" s="4"/>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532" s="5"/>
-      <c r="D532" s="4"/>
+      <c r="D532" s="9"/>
       <c r="E532" s="4"/>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533" s="5"/>
-      <c r="D533" s="4"/>
+      <c r="D533" s="9"/>
       <c r="E533" s="4"/>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534" s="5"/>
-      <c r="D534" s="4"/>
+      <c r="D534" s="9"/>
       <c r="E534" s="4"/>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535" s="5"/>
-      <c r="D535" s="4"/>
+      <c r="D535" s="9"/>
       <c r="E535" s="4"/>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536" s="5"/>
-      <c r="D536" s="4"/>
+      <c r="D536" s="9"/>
       <c r="E536" s="4"/>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537" s="5"/>
-      <c r="D537" s="4"/>
+      <c r="D537" s="9"/>
       <c r="E537" s="4"/>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538" s="5"/>
-      <c r="D538" s="4"/>
+      <c r="D538" s="9"/>
       <c r="E538" s="4"/>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539" s="5"/>
-      <c r="D539" s="4"/>
+      <c r="D539" s="9"/>
       <c r="E539" s="4"/>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540" s="5"/>
-      <c r="D540" s="4"/>
+      <c r="D540" s="9"/>
       <c r="E540" s="4"/>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541" s="5"/>
-      <c r="D541" s="4"/>
+      <c r="D541" s="9"/>
       <c r="E541" s="4"/>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542" s="5"/>
-      <c r="D542" s="4"/>
+      <c r="D542" s="9"/>
       <c r="E542" s="4"/>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543" s="5"/>
-      <c r="D543" s="4"/>
+      <c r="D543" s="9"/>
       <c r="E543" s="4"/>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544" s="5"/>
-      <c r="D544" s="4"/>
+      <c r="D544" s="9"/>
       <c r="E544" s="4"/>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545" s="5"/>
-      <c r="D545" s="4"/>
+      <c r="D545" s="9"/>
       <c r="E545" s="4"/>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546" s="5"/>
-      <c r="D546" s="4"/>
+      <c r="D546" s="9"/>
       <c r="E546" s="4"/>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547" s="5"/>
-      <c r="D547" s="4"/>
+      <c r="D547" s="9"/>
       <c r="E547" s="4"/>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548" s="5"/>
-      <c r="D548" s="4"/>
+      <c r="D548" s="9"/>
       <c r="E548" s="4"/>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549" s="5"/>
-      <c r="D549" s="4"/>
+      <c r="D549" s="9"/>
       <c r="E549" s="4"/>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550" s="5"/>
-      <c r="D550" s="4"/>
+      <c r="D550" s="9"/>
       <c r="E550" s="4"/>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551" s="5"/>
-      <c r="D551" s="4"/>
+      <c r="D551" s="9"/>
       <c r="E551" s="4"/>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552" s="5"/>
-      <c r="D552" s="4"/>
+      <c r="D552" s="9"/>
       <c r="E552" s="4"/>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553" s="5"/>
-      <c r="D553" s="4"/>
+      <c r="D553" s="9"/>
       <c r="E553" s="4"/>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554" s="5"/>
-      <c r="D554" s="4"/>
+      <c r="D554" s="9"/>
       <c r="E554" s="4"/>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555" s="5"/>
-      <c r="D555" s="4"/>
+      <c r="D555" s="9"/>
       <c r="E555" s="4"/>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556" s="5"/>
-      <c r="D556" s="4"/>
+      <c r="D556" s="9"/>
       <c r="E556" s="4"/>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557" s="5"/>
-      <c r="D557" s="4"/>
+      <c r="D557" s="9"/>
       <c r="E557" s="4"/>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558" s="5"/>
-      <c r="D558" s="4"/>
+      <c r="D558" s="9"/>
       <c r="E558" s="4"/>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559" s="5"/>
-      <c r="D559" s="4"/>
+      <c r="D559" s="9"/>
       <c r="E559" s="4"/>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560" s="5"/>
-      <c r="D560" s="4"/>
+      <c r="D560" s="9"/>
       <c r="E560" s="4"/>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561" s="5"/>
-      <c r="D561" s="4"/>
+      <c r="D561" s="9"/>
       <c r="E561" s="4"/>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562" s="5"/>
-      <c r="D562" s="4"/>
+      <c r="D562" s="9"/>
       <c r="E562" s="4"/>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563" s="5"/>
-      <c r="D563" s="4"/>
+      <c r="D563" s="9"/>
       <c r="E563" s="4"/>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564" s="5"/>
-      <c r="D564" s="4"/>
+      <c r="D564" s="9"/>
       <c r="E564" s="4"/>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565" s="5"/>
-      <c r="D565" s="4"/>
+      <c r="D565" s="9"/>
       <c r="E565" s="4"/>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566" s="5"/>
-      <c r="D566" s="4"/>
+      <c r="D566" s="9"/>
       <c r="E566" s="4"/>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567" s="5"/>
-      <c r="D567" s="4"/>
+      <c r="D567" s="9"/>
       <c r="E567" s="4"/>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568" s="5"/>
-      <c r="D568" s="4"/>
+      <c r="D568" s="9"/>
       <c r="E568" s="4"/>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569" s="5"/>
-      <c r="D569" s="4"/>
+      <c r="D569" s="9"/>
       <c r="E569" s="4"/>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570" s="5"/>
-      <c r="D570" s="4"/>
+      <c r="D570" s="9"/>
       <c r="E570" s="4"/>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571" s="5"/>
-      <c r="D571" s="4"/>
+      <c r="D571" s="9"/>
       <c r="E571" s="4"/>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572" s="5"/>
-      <c r="D572" s="4"/>
+      <c r="D572" s="9"/>
       <c r="E572" s="4"/>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573" s="5"/>
-      <c r="D573" s="4"/>
+      <c r="D573" s="9"/>
       <c r="E573" s="4"/>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574" s="5"/>
-      <c r="D574" s="4"/>
+      <c r="D574" s="9"/>
       <c r="E574" s="4"/>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575" s="5"/>
-      <c r="D575" s="4"/>
+      <c r="D575" s="9"/>
       <c r="E575" s="4"/>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576" s="5"/>
-      <c r="D576" s="4"/>
+      <c r="D576" s="9"/>
       <c r="E576" s="4"/>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577" s="5"/>
-      <c r="D577" s="4"/>
+      <c r="D577" s="9"/>
       <c r="E577" s="4"/>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578" s="5"/>
-      <c r="D578" s="4"/>
+      <c r="D578" s="9"/>
       <c r="E578" s="4"/>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579" s="5"/>
-      <c r="D579" s="4"/>
+      <c r="D579" s="9"/>
       <c r="E579" s="4"/>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580" s="5"/>
-      <c r="D580" s="4"/>
+      <c r="D580" s="9"/>
       <c r="E580" s="4"/>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581" s="5"/>
-      <c r="D581" s="4"/>
+      <c r="D581" s="9"/>
       <c r="E581" s="4"/>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582" s="5"/>
-      <c r="D582" s="4"/>
+      <c r="D582" s="9"/>
       <c r="E582" s="4"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583" s="5"/>
-      <c r="D583" s="4"/>
+      <c r="D583" s="9"/>
       <c r="E583" s="4"/>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584" s="5"/>
-      <c r="D584" s="4"/>
+      <c r="D584" s="9"/>
       <c r="E584" s="4"/>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585" s="5"/>
-      <c r="D585" s="4"/>
+      <c r="D585" s="9"/>
       <c r="E585" s="4"/>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586" s="5"/>
-      <c r="D586" s="4"/>
+      <c r="D586" s="9"/>
       <c r="E586" s="4"/>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587" s="5"/>
-      <c r="D587" s="4"/>
+      <c r="D587" s="9"/>
       <c r="E587" s="4"/>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588" s="5"/>
-      <c r="D588" s="4"/>
+      <c r="D588" s="9"/>
       <c r="E588" s="4"/>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589" s="5"/>
-      <c r="D589" s="4"/>
+      <c r="D589" s="9"/>
       <c r="E589" s="4"/>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590" s="5"/>
-      <c r="D590" s="4"/>
+      <c r="D590" s="9"/>
       <c r="E590" s="4"/>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591" s="5"/>
-      <c r="D591" s="4"/>
+      <c r="D591" s="9"/>
       <c r="E591" s="4"/>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592" s="5"/>
-      <c r="D592" s="4"/>
+      <c r="D592" s="9"/>
       <c r="E592" s="4"/>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593" s="5"/>
-      <c r="D593" s="4"/>
+      <c r="D593" s="9"/>
       <c r="E593" s="4"/>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594" s="5"/>
-      <c r="D594" s="4"/>
+      <c r="D594" s="9"/>
       <c r="E594" s="4"/>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595" s="5"/>
-      <c r="D595" s="4"/>
+      <c r="D595" s="9"/>
       <c r="E595" s="4"/>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596" s="5"/>
-      <c r="D596" s="4"/>
+      <c r="D596" s="9"/>
       <c r="E596" s="4"/>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597" s="5"/>
-      <c r="D597" s="4"/>
+      <c r="D597" s="9"/>
       <c r="E597" s="4"/>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598" s="5"/>
-      <c r="D598" s="4"/>
+      <c r="D598" s="9"/>
       <c r="E598" s="4"/>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">

--- a/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
+++ b/Summer2021-DataAnalysis/RawData/Zoop_sample_counting_template_2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherwander/Documents/VirginiaTech/research/zooplankton/Summer2021-DataAnalysis/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B816AE-6ADA-AA4C-B686-1BA10F07CEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B2806C-01D1-0943-BE7B-4377EA264C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{3D67C25D-D874-DE45-AEE3-7A59E1B23F3C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="31">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -102,43 +102,37 @@
     <t>Conochiloides</t>
   </si>
   <si>
-    <t>Calanoida</t>
+    <t>Keratella</t>
   </si>
   <si>
-    <t>Keratella</t>
+    <t>Conochilus</t>
+  </si>
+  <si>
+    <t>K. bostoniensis</t>
+  </si>
+  <si>
+    <t>Hexarthra</t>
+  </si>
+  <si>
+    <t>Polyarthra</t>
   </si>
   <si>
     <t>Ceriodaphnia</t>
   </si>
   <si>
-    <t>K. bostoniensis</t>
+    <t>2 mL</t>
   </si>
   <si>
-    <t>1 mL</t>
+    <t>F_pel_01Jul22_noon_schind_9.0_rep2</t>
   </si>
   <si>
-    <t>F_pel_midnight_schind_3.0_rep2</t>
-  </si>
-  <si>
-    <t>Cal naup</t>
-  </si>
-  <si>
-    <t>Collotheca</t>
-  </si>
-  <si>
-    <t>Polyarthra</t>
-  </si>
-  <si>
-    <t>Daphnia</t>
+    <t>Monostyla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -189,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -210,8 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +522,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D676C963-F956-4A49-8829-4831A47E6094}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I1144"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H138"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1"/>
       <c r="G1" s="6"/>
@@ -566,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44963</v>
+        <v>44973</v>
       </c>
       <c r="C3"/>
     </row>
@@ -576,7 +571,7 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -610,19 +605,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -630,143 +625,155 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.6</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.8</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="3">
-        <v>300</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
-        <v>300</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -774,63 +781,60 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>1.9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C15"/>
       <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H15" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="3">
-        <v>300</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.9</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -838,19 +842,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -858,19 +862,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -878,38 +882,43 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20">
-        <v>9.3000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -917,19 +926,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -939,17 +948,17 @@
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -957,121 +966,135 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
       <c r="C24">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25"/>
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>1.2</v>
+      </c>
       <c r="D25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3">
-        <v>300</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
         <v>12</v>
       </c>
       <c r="C26">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="3">
-        <v>300</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="G27" s="3">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
         <v>12</v>
       </c>
       <c r="C28">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="3">
-        <v>300</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.7</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
       </c>
       <c r="C29">
-        <v>6.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1081,117 +1104,122 @@
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30"/>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31"/>
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>2.1</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="3">
-        <v>300</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="3">
-        <v>300</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.5</v>
+      </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C34"/>
       <c r="D34" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="3">
-        <v>300</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H34" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35">
-        <v>2.2999999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1199,19 +1227,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1219,19 +1247,14 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>2.8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C37"/>
       <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1239,19 +1262,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
         <v>12</v>
       </c>
       <c r="C38">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1259,19 +1282,14 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>3.6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C39"/>
       <c r="D39" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1281,37 +1299,32 @@
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>1.6</v>
-      </c>
+      <c r="C40"/>
       <c r="D40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="3">
-        <v>300</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H40" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41"/>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>2.4</v>
+      </c>
       <c r="D41" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1319,54 +1332,55 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>15</v>
+      </c>
       <c r="C42"/>
       <c r="D42" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
+      <c r="H42" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1374,19 +1388,14 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45">
-        <v>8.6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C45"/>
       <c r="D45" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -1394,19 +1403,14 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>3.3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C46"/>
       <c r="D46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1414,19 +1418,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1434,671 +1438,634 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48"/>
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>3.6</v>
+      </c>
       <c r="D48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G49" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50"/>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+      <c r="XFD50" s="6"/>
+    </row>
+    <row r="51" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51"/>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>21</v>
+      </c>
       <c r="C53"/>
       <c r="D53" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
         <v>12</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F55" s="3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F56" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G56" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57">
-        <v>3.3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C57"/>
       <c r="D57" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="3"/>
+        <v>23</v>
+      </c>
       <c r="C58"/>
       <c r="D58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59">
-        <v>2.6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C59"/>
       <c r="D59" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>2.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C60"/>
       <c r="D60" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C61"/>
       <c r="D61" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="3"/>
+        <v>21</v>
+      </c>
       <c r="C62"/>
       <c r="D62" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63"/>
       <c r="D63" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E63" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>1.3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64"/>
       <c r="D64" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E64" s="3">
-        <v>300</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0.9</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65"/>
       <c r="D65" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E65" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66">
-        <v>4.2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66"/>
       <c r="D66" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67"/>
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
       <c r="D67" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E67" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D68" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E68" s="3">
-        <v>300</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>0.6</v>
+      </c>
+      <c r="G68">
+        <v>0.6</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="5">
-        <v>4</v>
+      <c r="C69">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E69" s="3">
-        <v>300</v>
-      </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>0.6</v>
+      </c>
+      <c r="G69">
+        <v>0.6</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3"/>
+      <c r="C70"/>
       <c r="D70" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E70" s="3">
-        <v>300</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1.2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71"/>
       <c r="D71" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E71" s="3">
-        <v>300</v>
-      </c>
-      <c r="F71">
-        <v>0.8</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1.9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72"/>
       <c r="D72" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E72" s="3">
-        <v>300</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1.9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73"/>
       <c r="D73" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E73" s="3">
-        <v>300</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="5">
-        <v>2.5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74"/>
       <c r="D74" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E74" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="5">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75"/>
       <c r="D75" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E75" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="5">
-        <v>3.1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76"/>
       <c r="D76" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E76" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="5">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77"/>
       <c r="D77" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E77" s="3">
-        <v>300</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B78" s="3"/>
+      <c r="C78"/>
       <c r="D78" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E78" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79"/>
       <c r="D79" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E79" s="3">
-        <v>300</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="5">
-        <v>2.4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80"/>
       <c r="D80" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E80" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="5"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81"/>
       <c r="D81" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E81" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3"/>
-      <c r="H81" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82"/>
       <c r="D82" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E82" s="3">
-        <v>300</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B83" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="5">
-        <v>2.9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83"/>
       <c r="D83" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -2106,274 +2073,289 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="5">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84"/>
       <c r="D84" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E84" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85"/>
       <c r="D85" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E85" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="5"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1.5</v>
+        <v>15</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>1.8</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E86" s="3">
-        <v>300</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H86" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1.1000000000000001</v>
+        <v>16</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>3.1</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E87" s="3">
-        <v>300</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H87" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="5">
-        <v>6.8</v>
+        <v>16</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>2.4</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E88" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="5"/>
+      <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E89" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="5"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="B90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D90" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E90" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="5">
-        <v>6.8</v>
+      <c r="B91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>3.3</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E91" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="5"/>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92"/>
       <c r="D92" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E92" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B93" t="s">
-        <v>12</v>
-      </c>
-      <c r="C93" s="5">
-        <v>6.4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93"/>
       <c r="D93" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E93" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="5"/>
+      <c r="H93" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>2.4</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E94" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="5"/>
+      <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="5">
-        <v>1.1000000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E95" s="3">
-        <v>300</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H95" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1.9</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E96" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="5"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2.2999999999999998</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E97" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="5"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1.8</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E98" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
@@ -2383,13 +2365,13 @@
         <v>12</v>
       </c>
       <c r="C99" s="5">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E99" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -2399,69 +2381,75 @@
       <c r="A100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1.8</v>
+      </c>
       <c r="D100" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
-      </c>
-      <c r="F100" s="3"/>
+        <v>100</v>
+      </c>
       <c r="G100" s="3"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="5">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E101" s="3">
-        <v>300</v>
-      </c>
-      <c r="F101">
-        <v>0.6</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0.6</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B102" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1.9</v>
+      </c>
       <c r="D102" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E102" s="3">
-        <v>300</v>
-      </c>
-      <c r="F102" s="3"/>
+        <v>100</v>
+      </c>
       <c r="G102" s="3"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="5">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E103" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="6"/>
@@ -2470,47 +2458,55 @@
       <c r="A104" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1.8</v>
+      </c>
       <c r="D104" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E104" s="3">
-        <v>300</v>
-      </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="5">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E105" s="3">
-        <v>300</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="5">
+        <v>2.4</v>
+      </c>
       <c r="D106" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E106" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -2524,125 +2520,105 @@
         <v>12</v>
       </c>
       <c r="C107" s="5">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E107" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B108" s="3"/>
       <c r="D108" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E108" s="3">
-        <v>300</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+        <v>100</v>
+      </c>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="5">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B109" s="3"/>
       <c r="D109" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" s="3">
-        <v>300</v>
-      </c>
-      <c r="F109">
-        <v>1.2</v>
-      </c>
-      <c r="G109">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H109" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="5"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="5">
-        <v>2.1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B110" s="3"/>
       <c r="D110" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E110" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="6"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B111" s="3"/>
       <c r="D111" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E111" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="6"/>
+      <c r="H111" s="5"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="5">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E112" s="3">
-        <v>300</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G112" s="3">
-        <v>0.3</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B113" s="3"/>
       <c r="D113" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E113" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -2650,38 +2626,39 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="5">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E114" s="3">
-        <v>300</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="G114" s="3">
-        <v>0.8</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="5">
+        <v>5.4</v>
+      </c>
       <c r="D115" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E115" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -2689,14 +2666,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B116" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="5">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D116" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -2704,29 +2686,43 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="5">
+        <v>2.6</v>
+      </c>
       <c r="D117" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E117" s="3">
-        <v>300</v>
-      </c>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
+        <v>100</v>
+      </c>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B118" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="D118" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E118" s="3">
-        <v>300</v>
+        <v>100</v>
+      </c>
+      <c r="F118">
+        <v>0.8</v>
+      </c>
+      <c r="G118">
+        <v>0.6</v>
       </c>
       <c r="H118" s="6"/>
     </row>
@@ -2734,592 +2730,492 @@
       <c r="A119" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="5">
-        <v>1.8</v>
-      </c>
+      <c r="B119" s="3"/>
       <c r="D119" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E119" s="3">
-        <v>300</v>
-      </c>
-      <c r="F119">
-        <v>0.9</v>
-      </c>
-      <c r="G119">
-        <v>0.9</v>
+        <v>100</v>
       </c>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="5">
+        <v>1</v>
+      </c>
       <c r="D120" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E120" s="3">
-        <v>300</v>
-      </c>
-      <c r="H120" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F120">
+        <v>0.5</v>
+      </c>
+      <c r="G120">
+        <v>0.3</v>
+      </c>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B121" s="3"/>
       <c r="D121" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E121" s="3">
-        <v>300</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="5">
-        <v>2.5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B122" s="3"/>
       <c r="D122" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E122" s="3">
-        <v>300</v>
-      </c>
-      <c r="H122" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" s="5">
-        <v>1.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B123" s="3"/>
       <c r="D123" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E123" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B124" s="3"/>
       <c r="D124" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E124" s="3">
-        <v>300</v>
-      </c>
-      <c r="H124" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B125" s="3"/>
       <c r="D125" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E125" s="3">
-        <v>300</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="H125" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B126" s="3"/>
       <c r="D126" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E126" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="5">
-        <v>1.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B127" s="3"/>
       <c r="D127" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E127" s="3">
-        <v>300</v>
-      </c>
-      <c r="H127" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="5">
-        <v>1.4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B128" s="3"/>
       <c r="D128" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E128" s="3">
-        <v>300</v>
-      </c>
-      <c r="F128">
-        <v>0.7</v>
-      </c>
-      <c r="G128">
-        <v>0.7</v>
+        <v>100</v>
       </c>
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B129" s="3"/>
       <c r="D129" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E129" s="3">
-        <v>300</v>
-      </c>
-      <c r="H129" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B130" s="3"/>
       <c r="D130" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E130" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B131" s="3"/>
       <c r="D131" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E131" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="5">
-        <v>1.4</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B132" s="3"/>
       <c r="D132" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E132" s="3">
-        <v>300</v>
-      </c>
-      <c r="F132">
-        <v>0.9</v>
-      </c>
-      <c r="G132">
-        <v>0.9</v>
+        <v>100</v>
       </c>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="5">
-        <v>3.1</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B133" s="3"/>
       <c r="D133" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E133" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="5">
-        <v>1.6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B134" s="3"/>
       <c r="D134" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E134" s="3">
-        <v>300</v>
-      </c>
-      <c r="F134">
-        <v>0.8</v>
-      </c>
-      <c r="G134">
-        <v>0.8</v>
+        <v>100</v>
       </c>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B135" s="3"/>
       <c r="D135" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E135" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B136" s="3"/>
       <c r="D136" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E136" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="5">
-        <v>3.2</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B137" s="3"/>
       <c r="D137" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E137" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B138" s="3"/>
       <c r="D138" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E138" s="3">
-        <v>300</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>18</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" s="5">
-        <v>6.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B139" s="3"/>
       <c r="D139" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E139" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="5">
-        <v>2.6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B140" s="3"/>
       <c r="D140" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E140" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B141" s="3"/>
       <c r="D141" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E141" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" s="5">
-        <v>3.8</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B142" s="3"/>
       <c r="D142" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E142" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B143" s="3"/>
       <c r="D143" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E143" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B144" s="3"/>
       <c r="D144" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E144" s="3">
-        <v>300</v>
-      </c>
-      <c r="H144" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B145" s="3"/>
       <c r="D145" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E145" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" s="5">
-        <v>10.3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B146" s="3"/>
       <c r="D146" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E146" s="3">
-        <v>300</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" s="5">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B147" s="3"/>
       <c r="D147" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E147" s="3">
-        <v>300</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G147" s="3">
-        <v>0.3</v>
+        <v>100</v>
       </c>
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B148" s="3"/>
       <c r="D148" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E148" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="5">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B149" s="3"/>
       <c r="D149" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E149" s="3">
-        <v>300</v>
-      </c>
-      <c r="H149" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C150" s="5">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E150" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" s="5">
-        <v>0.9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B151" s="3"/>
       <c r="D151" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="5">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B152" s="3"/>
       <c r="D152" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E152" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B153" s="3"/>
       <c r="D153" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E153" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B154" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="5">
+        <v>2.4</v>
+      </c>
       <c r="D154" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E154" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H154" s="6"/>
     </row>
@@ -3329,1566 +3225,3338 @@
       </c>
       <c r="B155" s="3"/>
       <c r="D155" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E155" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="3">
+        <v>100</v>
+      </c>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" s="3">
+        <v>100</v>
+      </c>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="D156" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="3">
-        <v>300</v>
-      </c>
-      <c r="H156" s="6"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="3"/>
-      <c r="H157" s="6"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="3"/>
-      <c r="H158" s="6"/>
+      <c r="D158" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="3">
+        <v>100</v>
+      </c>
+      <c r="H158" s="4"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="3"/>
-      <c r="H159" s="6"/>
+      <c r="A159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="3">
+        <v>100</v>
+      </c>
+      <c r="H159" s="4"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="3"/>
+      <c r="A160" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3">
+        <v>100</v>
+      </c>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="3"/>
+      <c r="A161" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="3">
+        <v>100</v>
+      </c>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="3"/>
-      <c r="H162" s="10"/>
+      <c r="A162" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="3">
+        <v>100</v>
+      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+      <c r="A163" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="3">
+        <v>100</v>
+      </c>
+      <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="3"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="3"/>
-      <c r="H164" s="10"/>
+      <c r="A164" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="3">
+        <v>100</v>
+      </c>
+      <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="3"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="3"/>
+      <c r="A165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="3">
+        <v>100</v>
+      </c>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="3"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="3">
+        <v>100</v>
+      </c>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="3"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="3"/>
+      <c r="A167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="3">
+        <v>100</v>
+      </c>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="3"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="3"/>
+      <c r="A168" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="3">
+        <v>100</v>
+      </c>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="3"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="3"/>
-      <c r="H169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="3">
+        <v>100</v>
+      </c>
+      <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="3">
+        <v>100</v>
+      </c>
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="D171" s="8"/>
-      <c r="E171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="3">
+        <v>100</v>
+      </c>
       <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="3">
+        <v>100</v>
+      </c>
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="3"/>
+      <c r="A173" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="3">
+        <v>100</v>
+      </c>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="3"/>
-      <c r="H174" s="6"/>
+      <c r="A174" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="3">
+        <v>100</v>
+      </c>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="3"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" s="3">
+        <v>100</v>
+      </c>
+      <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="3">
+        <v>100</v>
+      </c>
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="3"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="3"/>
-      <c r="H177" s="6"/>
+      <c r="A177" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="3">
+        <v>100</v>
+      </c>
+      <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="3"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="3"/>
-      <c r="H178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="3">
+        <v>100</v>
+      </c>
+      <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="3"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="3"/>
-      <c r="H179" s="6"/>
+      <c r="A179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="3">
+        <v>100</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="3"/>
-      <c r="D180" s="8"/>
-      <c r="E180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="3">
+        <v>100</v>
+      </c>
       <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="3"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="3"/>
+      <c r="A181" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="3">
+        <v>100</v>
+      </c>
       <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="3"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="3"/>
-      <c r="H182" s="6"/>
+      <c r="A182" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="3">
+        <v>100</v>
+      </c>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="3"/>
-      <c r="D183" s="8"/>
-      <c r="E183" s="3"/>
-      <c r="H183" s="6"/>
+      <c r="A183" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="3">
+        <v>100</v>
+      </c>
+      <c r="F183">
+        <v>0.8</v>
+      </c>
+      <c r="G183">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="3">
+        <v>100</v>
+      </c>
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="3"/>
+      <c r="A185" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="3">
+        <v>100</v>
+      </c>
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="3"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="3"/>
+      <c r="A186" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E186" s="3">
+        <v>100</v>
+      </c>
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="3"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="3"/>
+      <c r="A187" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" s="3">
+        <v>100</v>
+      </c>
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="3"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="3"/>
-      <c r="H188" s="6"/>
+      <c r="A188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="3"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="3"/>
+      <c r="A189" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="3">
+        <v>100</v>
+      </c>
+      <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="3"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="3"/>
-      <c r="H190" s="6"/>
+      <c r="A190" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="3">
+        <v>100</v>
+      </c>
+      <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A191" s="3"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="3"/>
-      <c r="H191" s="6"/>
+      <c r="A191" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="3">
+        <v>100</v>
+      </c>
+      <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="3"/>
+      <c r="A192" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192" s="3">
+        <v>100</v>
+      </c>
       <c r="H192" s="6"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="3"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="3"/>
+      <c r="A193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193" s="3">
+        <v>100</v>
+      </c>
       <c r="H193" s="6"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A194" s="3"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="3"/>
+      <c r="A194" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" s="3">
+        <v>100</v>
+      </c>
       <c r="H194" s="6"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A195" s="3"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="3"/>
+      <c r="A195" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" s="3">
+        <v>100</v>
+      </c>
       <c r="H195" s="6"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A196" s="3"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="3"/>
+      <c r="A196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E196" s="3">
+        <v>100</v>
+      </c>
       <c r="H196" s="6"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A197" s="3"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="3"/>
+      <c r="A197" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="3">
+        <v>100</v>
+      </c>
       <c r="H197" s="6"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A198" s="3"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="3"/>
+      <c r="A198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E198" s="3">
+        <v>100</v>
+      </c>
       <c r="H198" s="6"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A199" s="3"/>
-      <c r="D199" s="8"/>
-      <c r="E199" s="3"/>
-      <c r="H199" s="6"/>
+      <c r="A199" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E199" s="3">
+        <v>100</v>
+      </c>
+      <c r="H199" s="4"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-      <c r="D200" s="8"/>
-      <c r="E200" s="3"/>
-      <c r="H200" s="6"/>
+      <c r="A200" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E200" s="3">
+        <v>100</v>
+      </c>
+      <c r="H200" s="4"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="3"/>
+      <c r="A201" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" s="3">
+        <v>100</v>
+      </c>
       <c r="H201" s="6"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="3"/>
-      <c r="H202" s="6"/>
+      <c r="A202" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E202" s="3">
+        <v>100</v>
+      </c>
+      <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="3"/>
-      <c r="H203" s="3"/>
+      <c r="A203" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E203" s="3">
+        <v>100</v>
+      </c>
+      <c r="H203" s="6"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="3"/>
-      <c r="H204" s="6"/>
+      <c r="A204" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="3">
+        <v>100</v>
+      </c>
+      <c r="H204" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="3"/>
-      <c r="H205" s="6"/>
+      <c r="A205" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E205" s="3">
+        <v>100</v>
+      </c>
+      <c r="H205" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="3"/>
+      <c r="A206" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="3">
+        <v>100</v>
+      </c>
       <c r="H206" s="6"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="3"/>
-      <c r="H207" s="6"/>
+      <c r="A207" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="3">
+        <v>100</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="H207" s="4"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="3"/>
+      <c r="A208" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="3">
+        <v>100</v>
+      </c>
       <c r="G208" s="6"/>
+      <c r="H208" s="4"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-      <c r="D209" s="8"/>
-      <c r="E209" s="3"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="3">
+        <v>100</v>
+      </c>
+      <c r="H209" s="6"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="D210" s="8"/>
-      <c r="E210" s="3"/>
-      <c r="H210" s="6"/>
+      <c r="A210" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
-      <c r="D211" s="8"/>
-      <c r="E211" s="3"/>
+      <c r="A211" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="3">
+        <v>100</v>
+      </c>
+      <c r="H211" s="6"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="3"/>
-      <c r="H212" s="6"/>
+      <c r="A212" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="3">
+        <v>100</v>
+      </c>
+      <c r="H212" s="4"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="3"/>
+      <c r="A213" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="3">
+        <v>100</v>
+      </c>
       <c r="H213" s="6"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
-      <c r="D214" s="8"/>
-      <c r="E214" s="3"/>
-      <c r="H214" s="6"/>
+      <c r="A214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="3">
+        <v>100</v>
+      </c>
+      <c r="H214" s="4"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="3"/>
+      <c r="A215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="3">
+        <v>100</v>
+      </c>
       <c r="H215" s="6"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
-      <c r="D216" s="8"/>
-      <c r="E216" s="3"/>
-      <c r="H216" s="6"/>
+      <c r="A216" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="3">
+        <v>100</v>
+      </c>
+      <c r="H216" s="4"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="3"/>
+      <c r="A217" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="3">
+        <v>100</v>
+      </c>
       <c r="H217" s="6"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
-      <c r="D218" s="8"/>
-      <c r="E218" s="3"/>
+      <c r="A218" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="3">
+        <v>100</v>
+      </c>
       <c r="H218" s="6"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
-      <c r="D219" s="8"/>
-      <c r="E219" s="3"/>
+      <c r="A219" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="3">
+        <v>100</v>
+      </c>
       <c r="H219" s="6"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="3"/>
+      <c r="A220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="3">
+        <v>100</v>
+      </c>
       <c r="H220" s="6"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
-      <c r="D221" s="8"/>
-      <c r="E221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="3">
+        <v>100</v>
+      </c>
       <c r="H221" s="6"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="3"/>
+      <c r="A222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="3">
+        <v>100</v>
+      </c>
       <c r="H222" s="6"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
-      <c r="D223" s="8"/>
-      <c r="E223" s="3"/>
-      <c r="H223" s="6"/>
+      <c r="A223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="3">
+        <v>100</v>
+      </c>
+      <c r="H223" s="4"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
-      <c r="D224" s="8"/>
-      <c r="E224" s="3"/>
+      <c r="A224" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="3">
+        <v>100</v>
+      </c>
       <c r="H224" s="6"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-      <c r="D225" s="8"/>
-      <c r="E225" s="3"/>
+      <c r="A225" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="3">
+        <v>100</v>
+      </c>
       <c r="H225" s="6"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="3"/>
-      <c r="H226" s="6"/>
+      <c r="A226" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
-      <c r="D227" s="8"/>
-      <c r="E227" s="3"/>
+      <c r="A227" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="3"/>
+      <c r="A228" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-      <c r="D229" s="8"/>
-      <c r="E229" s="3"/>
+      <c r="A229" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="3"/>
+      <c r="A230" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="3">
+        <v>100</v>
+      </c>
+      <c r="H230" s="6"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
-      <c r="D231" s="8"/>
-      <c r="E231" s="3"/>
+      <c r="A231" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="3"/>
+      <c r="A232" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="3">
+        <v>100</v>
+      </c>
+      <c r="H232" s="3"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="3"/>
-      <c r="H233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="3">
+        <v>100</v>
+      </c>
+      <c r="H233" s="4"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="3"/>
+      <c r="A234" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="3">
+        <v>100</v>
+      </c>
+      <c r="H234" s="6"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="3"/>
+      <c r="A235" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="3"/>
+      <c r="A236" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="3"/>
+      <c r="A237" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="3">
+        <v>100</v>
+      </c>
+      <c r="H237" s="4"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-      <c r="D239" s="8"/>
-      <c r="E239" s="3"/>
+      <c r="A239" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="3"/>
+      <c r="A240" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="3"/>
+      <c r="A241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="3">
+        <v>100</v>
+      </c>
+      <c r="H241" s="6"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="3"/>
+      <c r="A242" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="3">
+        <v>100</v>
+      </c>
+      <c r="H242" s="6"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
-      <c r="D243" s="8"/>
-      <c r="E243" s="3"/>
+      <c r="A243" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="3">
+        <v>100</v>
+      </c>
+      <c r="H243" s="4"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="3"/>
+      <c r="A244" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="3">
+        <v>100</v>
+      </c>
+      <c r="H244" s="6"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="3"/>
+      <c r="A246" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E246" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="3"/>
+      <c r="A247" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" s="3">
+        <v>100</v>
+      </c>
+      <c r="H247" s="6"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" s="3"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="3"/>
-      <c r="H248" s="6"/>
+      <c r="A248" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-      <c r="D249" s="8"/>
-      <c r="E249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="3"/>
+      <c r="A250" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="3">
+        <v>100</v>
+      </c>
+      <c r="H250" s="4"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-      <c r="D251" s="8"/>
-      <c r="E251" s="3"/>
+      <c r="A251" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-      <c r="D252" s="8"/>
-      <c r="E252" s="3"/>
+      <c r="A252" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A253" s="3"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="3"/>
+      <c r="A253" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A254" s="3"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="3"/>
+      <c r="A254" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="3">
+        <v>100</v>
+      </c>
+      <c r="H254" s="4"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A255" s="3"/>
-      <c r="D255" s="8"/>
-      <c r="E255" s="3"/>
+      <c r="A255" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A256" s="3"/>
-      <c r="D256" s="8"/>
-      <c r="E256" s="3"/>
+      <c r="A256" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E256" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
-      <c r="D257" s="8"/>
-      <c r="E257" s="3"/>
+      <c r="A257" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E257" s="3">
+        <v>100</v>
+      </c>
+      <c r="H257" s="4"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A258" s="3"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="3"/>
+      <c r="A258" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E258" s="3">
+        <v>100</v>
+      </c>
+      <c r="H258" s="4"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A259" s="3"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="3"/>
+      <c r="A259" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D259" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E259" s="3">
+        <v>100</v>
+      </c>
+      <c r="H259" s="6"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
-      <c r="D260" s="8"/>
-      <c r="E260" s="3"/>
-      <c r="H260" s="6"/>
+      <c r="A260" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E260" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-      <c r="D261" s="8"/>
-      <c r="E261" s="3"/>
+      <c r="A261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D261" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E261" s="3">
+        <v>100</v>
+      </c>
+      <c r="H261" s="4"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="3"/>
+      <c r="A262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E262" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A263" s="3"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="3"/>
+      <c r="A263" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D263" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E263" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A264" s="3"/>
-      <c r="D264" s="8"/>
-      <c r="E264" s="3"/>
+      <c r="A264" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D264" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E264" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A265" s="3"/>
-      <c r="D265" s="8"/>
-      <c r="E265" s="3"/>
+      <c r="A265" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" s="5">
+        <v>1</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E265" s="3">
+        <v>100</v>
+      </c>
+      <c r="F265">
+        <v>0.8</v>
+      </c>
+      <c r="G265">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A266" s="3"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="3"/>
+      <c r="A266" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D266" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E266" s="3">
+        <v>100</v>
+      </c>
+      <c r="F266">
+        <v>0.8</v>
+      </c>
+      <c r="G266">
+        <v>0.6</v>
+      </c>
+      <c r="H266" s="6"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="3"/>
-      <c r="H267" s="3"/>
+      <c r="A267" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="D267" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E267" s="3">
+        <v>100</v>
+      </c>
+      <c r="H267" s="6"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A268" s="3"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="3"/>
+      <c r="A268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="3">
+        <v>100</v>
+      </c>
+      <c r="H268" s="6"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A269" s="3"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="3"/>
+      <c r="A269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="3">
+        <v>100</v>
+      </c>
       <c r="H269" s="6"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A270" s="3"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="3"/>
-      <c r="H270" s="6"/>
+      <c r="A270" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E270" s="3">
+        <v>100</v>
+      </c>
+      <c r="H270" s="3"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A271" s="3"/>
-      <c r="D271" s="8"/>
-      <c r="E271" s="3"/>
-      <c r="H271" s="3"/>
+      <c r="A271" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E271" s="3">
+        <v>100</v>
+      </c>
+      <c r="H271" s="4"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A272" s="3"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="3"/>
+      <c r="A272" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="5">
+        <v>1</v>
+      </c>
+      <c r="D272" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="3">
+        <v>100</v>
+      </c>
+      <c r="F272">
+        <v>0.8</v>
+      </c>
+      <c r="G272">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A273" s="3"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="3"/>
+      <c r="A273" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E273" s="3">
+        <v>100</v>
+      </c>
+      <c r="H273" s="3"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A274" s="3"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="3"/>
-      <c r="H274" s="3"/>
+      <c r="A274" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D274" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E274" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="3"/>
+      <c r="A275" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E275" s="3">
+        <v>100</v>
+      </c>
+      <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A276" s="3"/>
-      <c r="D276" s="8"/>
-      <c r="E276" s="3"/>
+      <c r="A276" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E276" s="3">
+        <v>100</v>
+      </c>
+      <c r="H276" s="4"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A277" s="3"/>
-      <c r="D277" s="8"/>
-      <c r="E277" s="3"/>
+      <c r="A277" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" s="3">
+        <v>100</v>
+      </c>
+      <c r="H277" s="4"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A278" s="4"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="3"/>
+      <c r="A278" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E278" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A279" s="4"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="3"/>
+      <c r="A279" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E279" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A280" s="4"/>
-      <c r="D280" s="8"/>
-      <c r="E280" s="3"/>
+      <c r="A280" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E280" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A281" s="4"/>
-      <c r="D281" s="8"/>
-      <c r="E281" s="3"/>
+      <c r="A281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E281" s="3">
+        <v>100</v>
+      </c>
+      <c r="H281" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A282" s="4"/>
-      <c r="D282" s="8"/>
-      <c r="E282" s="3"/>
+      <c r="A282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E282" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A283" s="4"/>
-      <c r="D283" s="8"/>
-      <c r="E283" s="3"/>
+      <c r="A283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E283" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A284" s="4"/>
-      <c r="D284" s="8"/>
-      <c r="E284" s="3"/>
+      <c r="A284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E284" s="3">
+        <v>100</v>
+      </c>
+      <c r="H284" s="4"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A285" s="4"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="3"/>
+      <c r="A285" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D285" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" s="3">
+        <v>100</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A286" s="4"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="3"/>
+      <c r="A286" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E286" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="4"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="3"/>
+      <c r="A287" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E287" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="4"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="3"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="4"/>
-      <c r="D289" s="8"/>
-      <c r="E289" s="3"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="4"/>
-      <c r="D290" s="8"/>
-      <c r="E290" s="3"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="4"/>
-      <c r="D291" s="8"/>
-      <c r="E291" s="3"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="4"/>
-      <c r="D292" s="8"/>
-      <c r="E292" s="3"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="4"/>
-      <c r="D293" s="8"/>
-      <c r="E293" s="3"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="4"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="3"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="4"/>
-      <c r="D295" s="8"/>
-      <c r="E295" s="3"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="4"/>
-      <c r="D296" s="8"/>
-      <c r="E296" s="3"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="4"/>
-      <c r="D297" s="8"/>
-      <c r="E297" s="3"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="4"/>
-      <c r="D298" s="8"/>
-      <c r="E298" s="3"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="4"/>
-      <c r="D299" s="8"/>
-      <c r="E299" s="3"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="4"/>
-      <c r="D300" s="8"/>
-      <c r="E300" s="3"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="4"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="3"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="3"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="4"/>
-      <c r="D303" s="8"/>
-      <c r="E303" s="3"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="4"/>
-      <c r="D304" s="8"/>
-      <c r="E304" s="3"/>
+      <c r="A288" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E288" s="3">
+        <v>100</v>
+      </c>
+      <c r="H288" s="4"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="3">
+        <v>100</v>
+      </c>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" s="3">
+        <v>100</v>
+      </c>
+      <c r="F290">
+        <v>0.6</v>
+      </c>
+      <c r="G290">
+        <v>0.5</v>
+      </c>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E291" s="3">
+        <v>100</v>
+      </c>
+      <c r="H291" s="4"/>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E292" s="3">
+        <v>100</v>
+      </c>
+      <c r="H292" s="4"/>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E293" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D294" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" s="3">
+        <v>100</v>
+      </c>
+      <c r="F295">
+        <v>0.8</v>
+      </c>
+      <c r="G295">
+        <v>0.7</v>
+      </c>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D296" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D298" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D299" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E299" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="D300" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E300" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301" s="3">
+        <v>100</v>
+      </c>
+      <c r="F301">
+        <v>0.8</v>
+      </c>
+      <c r="G301">
+        <v>0.6</v>
+      </c>
+      <c r="H301" s="4"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E303" s="3">
+        <v>100</v>
+      </c>
+      <c r="H303" s="4"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E304" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" s="4"/>
-      <c r="D305" s="8"/>
-      <c r="E305" s="3"/>
+      <c r="A305" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E305" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A306" s="4"/>
-      <c r="D306" s="8"/>
-      <c r="E306" s="3"/>
+      <c r="A306" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E306" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A307" s="4"/>
-      <c r="D307" s="8"/>
-      <c r="E307" s="3"/>
+      <c r="A307" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D307" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E307" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A308" s="4"/>
-      <c r="D308" s="8"/>
-      <c r="E308" s="3"/>
+      <c r="A308" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E308" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A309" s="4"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="3"/>
+      <c r="A309" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D309" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A310" s="4"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="3"/>
+      <c r="A310" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D310" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A311" s="4"/>
-      <c r="D311" s="8"/>
-      <c r="E311" s="3"/>
+      <c r="A311" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E311" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A312" s="4"/>
-      <c r="D312" s="8"/>
-      <c r="E312" s="3"/>
+      <c r="A312" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D312" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E312" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A313" s="4"/>
-      <c r="D313" s="8"/>
-      <c r="E313" s="3"/>
+      <c r="A313" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D313" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E313" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A314" s="4"/>
-      <c r="D314" s="8"/>
-      <c r="E314" s="3"/>
+      <c r="A314" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D314" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E314" s="3">
+        <v>100</v>
+      </c>
+      <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A315" s="4"/>
-      <c r="D315" s="8"/>
-      <c r="E315" s="3"/>
-      <c r="H315" s="3"/>
+      <c r="A315" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D315" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E315" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A316" s="4"/>
-      <c r="D316" s="8"/>
-      <c r="E316" s="3"/>
+      <c r="A316" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E316" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="4"/>
-      <c r="D317" s="8"/>
-      <c r="E317" s="3"/>
+      <c r="A317" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E317" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A318" s="4"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="3"/>
+      <c r="A318" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E318" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319" s="4"/>
-      <c r="D319" s="8"/>
-      <c r="E319" s="3"/>
+      <c r="A319" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A320" s="4"/>
-      <c r="D320" s="8"/>
-      <c r="E320" s="3"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="4"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="3"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="4"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="3"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A323" s="4"/>
-      <c r="D323" s="8"/>
-      <c r="E323" s="3"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A324" s="4"/>
-      <c r="D324" s="8"/>
-      <c r="E324" s="3"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="4"/>
-      <c r="D325" s="8"/>
-      <c r="E325" s="3"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A326" s="4"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="3"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A327" s="4"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="3"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A328" s="4"/>
-      <c r="D328" s="8"/>
-      <c r="E328" s="3"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A329" s="4"/>
-      <c r="D329" s="8"/>
-      <c r="E329" s="3"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A330" s="4"/>
-      <c r="D330" s="8"/>
-      <c r="E330" s="3"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A331" s="4"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="3"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="4"/>
-      <c r="D332" s="8"/>
-      <c r="E332" s="3"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="4"/>
-      <c r="D333" s="8"/>
-      <c r="E333" s="3"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A334" s="4"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="3"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A335" s="4"/>
-      <c r="D335" s="8"/>
-      <c r="E335" s="3"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A336" s="4"/>
-      <c r="D336" s="8"/>
-      <c r="E336" s="3"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A337" s="4"/>
-      <c r="D337" s="8"/>
-      <c r="E337" s="3"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A338" s="4"/>
-      <c r="D338" s="8"/>
-      <c r="E338" s="3"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="4"/>
-      <c r="D339" s="8"/>
-      <c r="E339" s="3"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A340" s="4"/>
-      <c r="D340" s="8"/>
-      <c r="E340" s="3"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A341" s="4"/>
-      <c r="D341" s="8"/>
-      <c r="E341" s="3"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A342" s="4"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="3"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="4"/>
-      <c r="D343" s="8"/>
-      <c r="E343" s="3"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A344" s="4"/>
-      <c r="D344" s="8"/>
-      <c r="E344" s="3"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A345" s="4"/>
-      <c r="D345" s="8"/>
-      <c r="E345" s="3"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="4"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="3"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="4"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="3"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A348" s="4"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="3"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="4"/>
-      <c r="D349" s="8"/>
-      <c r="E349" s="3"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A350" s="4"/>
-      <c r="D350" s="8"/>
-      <c r="E350" s="3"/>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A351" s="4"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="3"/>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A352" s="4"/>
-      <c r="D352" s="8"/>
-      <c r="E352" s="3"/>
+      <c r="A320" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="3">
+        <v>100</v>
+      </c>
+      <c r="F320">
+        <v>0.8</v>
+      </c>
+      <c r="G320">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E321" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="5">
+        <v>1</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E323" s="3">
+        <v>100</v>
+      </c>
+      <c r="F323">
+        <v>0.5</v>
+      </c>
+      <c r="G323">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E324" s="3">
+        <v>100</v>
+      </c>
+      <c r="H324" s="4"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E325" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E327" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E328" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E329" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E330" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E333" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E334" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E335" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E336" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D338" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E338" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D339" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D340" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E340" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D341" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E341" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D342" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E342" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D343" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344" s="3">
+        <v>100</v>
+      </c>
+      <c r="H344" s="6"/>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D345" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D346" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D347" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D348" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D349" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E349" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D350" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E350" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D351" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E351" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D352" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="4"/>
-      <c r="D353" s="8"/>
-      <c r="E353" s="3"/>
+      <c r="A353" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D353" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="4"/>
-      <c r="D354" s="8"/>
-      <c r="E354" s="3"/>
+      <c r="A354" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D354" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E354" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="4"/>
-      <c r="D355" s="8"/>
-      <c r="E355" s="3"/>
+      <c r="A355" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D355" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="4"/>
-      <c r="D356" s="8"/>
-      <c r="E356" s="3"/>
+      <c r="A356" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D356" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E356" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="4"/>
-      <c r="D357" s="8"/>
-      <c r="E357" s="3"/>
+      <c r="A357" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D357" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E357" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="4"/>
-      <c r="D358" s="8"/>
-      <c r="E358" s="3"/>
+      <c r="A358" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D358" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E358" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="4"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="3"/>
+      <c r="A359" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D359" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E359" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="4"/>
-      <c r="D360" s="8"/>
-      <c r="E360" s="3"/>
+      <c r="A360" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E360" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="4"/>
-      <c r="D361" s="8"/>
-      <c r="E361" s="3"/>
+      <c r="A361" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E361" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="4"/>
-      <c r="D362" s="8"/>
-      <c r="E362" s="3"/>
+      <c r="A362" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D362" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="4"/>
-      <c r="D363" s="8"/>
-      <c r="E363" s="3"/>
+      <c r="A363" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E363" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="4"/>
-      <c r="D364" s="8"/>
-      <c r="E364" s="3"/>
+      <c r="A364" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D364" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E364" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="4"/>
-      <c r="D365" s="8"/>
-      <c r="E365" s="3"/>
+      <c r="A365" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D365" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E365" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="4"/>
-      <c r="D366" s="8"/>
-      <c r="E366" s="3"/>
+      <c r="A366" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D366" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E366" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="4"/>
-      <c r="D367" s="8"/>
-      <c r="E367" s="3"/>
+      <c r="A367" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E367" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A368" s="4"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="3"/>
+      <c r="A368" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D368" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E368" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A369" s="4"/>
-      <c r="D369" s="8"/>
-      <c r="E369" s="3"/>
+      <c r="A369" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D369" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A370" s="4"/>
-      <c r="D370" s="8"/>
-      <c r="E370" s="3"/>
+      <c r="A370" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D370" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A371" s="4"/>
-      <c r="D371" s="8"/>
-      <c r="E371" s="3"/>
+      <c r="A371" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D371" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E371" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A372" s="4"/>
-      <c r="D372" s="8"/>
-      <c r="E372" s="3"/>
+      <c r="A372" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D372" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E372" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A373" s="4"/>
-      <c r="D373" s="8"/>
-      <c r="E373" s="3"/>
+      <c r="A373" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E373" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A374" s="4"/>
-      <c r="D374" s="8"/>
-      <c r="E374" s="3"/>
+      <c r="A374" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D374" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E374" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A375" s="4"/>
-      <c r="D375" s="8"/>
-      <c r="E375" s="3"/>
+      <c r="A375" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D375" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E375" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A376" s="4"/>
-      <c r="D376" s="8"/>
-      <c r="E376" s="3"/>
+      <c r="A376" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D376" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E376" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A377" s="4"/>
-      <c r="D377" s="8"/>
-      <c r="E377" s="3"/>
+      <c r="A377" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A378" s="4"/>
-      <c r="D378" s="8"/>
-      <c r="E378" s="3"/>
+      <c r="A378" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D378" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A379" s="4"/>
-      <c r="D379" s="8"/>
-      <c r="E379" s="3"/>
+      <c r="A379" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D379" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E379" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A380" s="4"/>
-      <c r="D380" s="8"/>
-      <c r="E380" s="3"/>
+      <c r="A380" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D380" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E380" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A381" s="4"/>
-      <c r="D381" s="8"/>
-      <c r="E381" s="3"/>
+      <c r="A381" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D381" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E381" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A382" s="4"/>
-      <c r="D382" s="8"/>
-      <c r="E382" s="3"/>
+      <c r="A382" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D382" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E382" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A383" s="4"/>
-      <c r="D383" s="8"/>
-      <c r="E383" s="3"/>
+      <c r="A383" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D383" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A384" s="4"/>
-      <c r="D384" s="8"/>
-      <c r="E384" s="3"/>
+      <c r="A384" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E384" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A385" s="4"/>
-      <c r="D385" s="8"/>
-      <c r="E385" s="3"/>
+      <c r="A385" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D385" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E385" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A386" s="4"/>
-      <c r="D386" s="8"/>
-      <c r="E386" s="3"/>
+      <c r="A386" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D386" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E386" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A387" s="4"/>
-      <c r="D387" s="8"/>
-      <c r="E387" s="3"/>
+      <c r="A387" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E387" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A388" s="4"/>
-      <c r="D388" s="8"/>
-      <c r="E388" s="3"/>
+      <c r="A388" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E388" s="3">
+        <v>100</v>
+      </c>
+      <c r="H388" s="3"/>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A389" s="4"/>
-      <c r="D389" s="8"/>
-      <c r="E389" s="3"/>
-      <c r="H389" s="3"/>
+      <c r="A389" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E389" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A390" s="4"/>
-      <c r="D390" s="8"/>
-      <c r="E390" s="3"/>
+      <c r="A390" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E390" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A391" s="4"/>
-      <c r="D391" s="8"/>
-      <c r="E391" s="3"/>
+      <c r="A391" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E391" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A392" s="4"/>
-      <c r="D392" s="8"/>
-      <c r="E392" s="3"/>
+      <c r="A392" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A393" s="4"/>
-      <c r="D393" s="8"/>
-      <c r="E393" s="3"/>
+      <c r="A393" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E393" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A394" s="4"/>
-      <c r="D394" s="8"/>
-      <c r="E394" s="3"/>
+      <c r="A394" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E394" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A395" s="4"/>
-      <c r="D395" s="8"/>
-      <c r="E395" s="3"/>
+      <c r="A395" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E395" s="3">
+        <v>100</v>
+      </c>
+      <c r="H395" s="4"/>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A396" s="4"/>
-      <c r="D396" s="8"/>
-      <c r="E396" s="3"/>
+      <c r="A396" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E396" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A397" s="4"/>
-      <c r="D397" s="8"/>
-      <c r="E397" s="3"/>
+      <c r="A397" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E397" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A398" s="4"/>
-      <c r="D398" s="8"/>
-      <c r="E398" s="3"/>
+      <c r="A398" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E398" s="3">
+        <v>100</v>
+      </c>
+      <c r="H398" s="4"/>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A399" s="4"/>
-      <c r="D399" s="8"/>
-      <c r="E399" s="3"/>
+      <c r="A399" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A400" s="4"/>
-      <c r="D400" s="8"/>
-      <c r="E400" s="3"/>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A401" s="4"/>
-      <c r="D401" s="8"/>
-      <c r="E401" s="3"/>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A402" s="4"/>
-      <c r="D402" s="8"/>
-      <c r="E402" s="3"/>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A403" s="4"/>
-      <c r="D403" s="8"/>
-      <c r="E403" s="3"/>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A404" s="4"/>
-      <c r="D404" s="8"/>
-      <c r="E404" s="3"/>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A405" s="4"/>
-      <c r="D405" s="8"/>
-      <c r="E405" s="3"/>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A406" s="4"/>
-      <c r="D406" s="8"/>
-      <c r="E406" s="3"/>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A400" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E400" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E401" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402" s="3">
+        <v>100</v>
+      </c>
+      <c r="H402" s="4"/>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E404" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E405" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E406" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="D407" s="8"/>
       <c r="E407" s="3"/>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="D408" s="8"/>
       <c r="E408" s="3"/>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="D409" s="8"/>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="D410" s="8"/>
       <c r="E410" s="3"/>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="D411" s="8"/>
       <c r="E411" s="3"/>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H411" s="4"/>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="D412" s="8"/>
       <c r="E412" s="3"/>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="D413" s="8"/>
       <c r="E413" s="3"/>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="D414" s="8"/>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="D415" s="8"/>
       <c r="E415" s="3"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="D416" s="8"/>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="D417" s="8"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="D418" s="8"/>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="D419" s="8"/>
       <c r="E419" s="3"/>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="D420" s="8"/>
       <c r="E420" s="3"/>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H420" s="4"/>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="D421" s="8"/>
       <c r="E421" s="3"/>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="D422" s="8"/>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="D423" s="8"/>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="D424" s="8"/>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="D425" s="8"/>
       <c r="E425" s="3"/>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="D426" s="8"/>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="D427" s="8"/>
       <c r="E427" s="3"/>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H427" s="4"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="D428" s="8"/>
       <c r="E428" s="3"/>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="D429" s="8"/>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="D430" s="8"/>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="D431" s="8"/>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="D432" s="8"/>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="D433" s="8"/>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="D434" s="8"/>
       <c r="E434" s="3"/>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="D435" s="8"/>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="D436" s="8"/>
       <c r="E436" s="3"/>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="D437" s="8"/>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="D438" s="8"/>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="D439" s="8"/>
       <c r="E439" s="3"/>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H439" s="4"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="D440" s="8"/>
       <c r="E440" s="3"/>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H440" s="4"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="D441" s="8"/>
       <c r="E441" s="3"/>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="D442" s="8"/>
       <c r="E442" s="3"/>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="D443" s="8"/>
       <c r="E443" s="3"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H443" s="4"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="D444" s="8"/>
       <c r="E444" s="3"/>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="D445" s="8"/>
       <c r="E445" s="3"/>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="D446" s="8"/>
       <c r="E446" s="3"/>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="D447" s="8"/>
       <c r="E447" s="3"/>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="D448" s="8"/>
       <c r="E448" s="3"/>
@@ -4917,12 +6585,12 @@
       <c r="A453" s="4"/>
       <c r="D453" s="8"/>
       <c r="E453" s="3"/>
+      <c r="F453" s="3"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="D454" s="8"/>
       <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
@@ -4988,12 +6656,12 @@
       <c r="A467" s="4"/>
       <c r="D467" s="8"/>
       <c r="E467" s="3"/>
+      <c r="H467" s="3"/>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="D468" s="8"/>
       <c r="E468" s="3"/>
-      <c r="H468" s="3"/>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
@@ -5024,12 +6692,12 @@
       <c r="A474" s="4"/>
       <c r="D474" s="8"/>
       <c r="E474" s="3"/>
+      <c r="H474" s="3"/>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="D475" s="8"/>
       <c r="E475" s="3"/>
-      <c r="H475" s="3"/>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
@@ -5056,82 +6724,83 @@
       <c r="D480" s="8"/>
       <c r="E480" s="3"/>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="D481" s="8"/>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="D482" s="8"/>
       <c r="E482" s="3"/>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="D483" s="8"/>
       <c r="E483" s="3"/>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="D484" s="8"/>
       <c r="E484" s="3"/>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="D485" s="8"/>
       <c r="E485" s="3"/>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="D486" s="8"/>
       <c r="E486" s="3"/>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="D487" s="8"/>
       <c r="E487" s="3"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="D488" s="8"/>
       <c r="E488" s="3"/>
-    </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H488" s="4"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="D489" s="8"/>
       <c r="E489" s="3"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="D490" s="8"/>
       <c r="E490" s="3"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="D491" s="8"/>
       <c r="E491" s="3"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="D492" s="8"/>
       <c r="E492" s="3"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="D493" s="8"/>
       <c r="E493" s="3"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="D494" s="8"/>
       <c r="E494" s="3"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="D495" s="8"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="D496" s="8"/>
       <c r="E496" s="3"/>
@@ -5216,162 +6885,164 @@
       <c r="D512" s="8"/>
       <c r="E512" s="3"/>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="D513" s="8"/>
       <c r="E513" s="3"/>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="D514" s="8"/>
       <c r="E514" s="3"/>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="D515" s="8"/>
       <c r="E515" s="3"/>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="D516" s="8"/>
       <c r="E516" s="3"/>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="D517" s="8"/>
       <c r="E517" s="3"/>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="D518" s="8"/>
       <c r="E518" s="3"/>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="D519" s="8"/>
       <c r="E519" s="3"/>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="D520" s="8"/>
       <c r="E520" s="3"/>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="D521" s="8"/>
       <c r="E521" s="3"/>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="D522" s="8"/>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="D523" s="8"/>
       <c r="E523" s="3"/>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="D524" s="8"/>
       <c r="E524" s="3"/>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="D525" s="8"/>
       <c r="E525" s="3"/>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H525" s="4"/>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="D526" s="8"/>
       <c r="E526" s="3"/>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="D527" s="8"/>
       <c r="E527" s="3"/>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="D528" s="8"/>
       <c r="E528" s="3"/>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="D529" s="8"/>
       <c r="E529" s="3"/>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="D530" s="8"/>
       <c r="E530" s="3"/>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="D531" s="8"/>
       <c r="E531" s="3"/>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="D532" s="8"/>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="D533" s="8"/>
       <c r="E533" s="3"/>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="D534" s="8"/>
       <c r="E534" s="3"/>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="D535" s="8"/>
       <c r="E535" s="3"/>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="D536" s="8"/>
       <c r="E536" s="3"/>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="D537" s="8"/>
       <c r="E537" s="3"/>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="D538" s="8"/>
       <c r="E538" s="3"/>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="D539" s="8"/>
       <c r="E539" s="3"/>
-    </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H539" s="4"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="D540" s="8"/>
       <c r="E540" s="3"/>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="D541" s="8"/>
       <c r="E541" s="3"/>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="D542" s="8"/>
       <c r="E542" s="3"/>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="D543" s="8"/>
       <c r="E543" s="3"/>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="D544" s="8"/>
       <c r="E544" s="3"/>
@@ -5648,130 +7319,132 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
-      <c r="D599" s="3"/>
+      <c r="D599" s="8"/>
       <c r="E599" s="3"/>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
-      <c r="D600" s="3"/>
+      <c r="D600" s="8"/>
       <c r="E600" s="3"/>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
-      <c r="D601" s="3"/>
+      <c r="D601" s="8"/>
       <c r="E601" s="3"/>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
-      <c r="D602" s="3"/>
+      <c r="D602" s="8"/>
       <c r="E602" s="3"/>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
-      <c r="D603" s="3"/>
+      <c r="D603" s="8"/>
       <c r="E603" s="3"/>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
-      <c r="D604" s="3"/>
+      <c r="D604" s="8"/>
       <c r="E604" s="3"/>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
-      <c r="D605" s="3"/>
+      <c r="D605" s="8"/>
       <c r="E605" s="3"/>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
-      <c r="D606" s="3"/>
+      <c r="D606" s="8"/>
       <c r="E606" s="3"/>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
-      <c r="D607" s="3"/>
+      <c r="D607" s="8"/>
       <c r="E607" s="3"/>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
-      <c r="D608" s="3"/>
+      <c r="D608" s="8"/>
       <c r="E608" s="3"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
-      <c r="D609" s="3"/>
+      <c r="D609" s="8"/>
       <c r="E609" s="3"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
-      <c r="D610" s="3"/>
+      <c r="D610" s="8"/>
       <c r="E610" s="3"/>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
-      <c r="D611" s="3"/>
+      <c r="D611" s="8"/>
       <c r="E611" s="3"/>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
-      <c r="D612" s="3"/>
+      <c r="D612" s="8"/>
       <c r="E612" s="3"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
-      <c r="D613" s="3"/>
+      <c r="D613" s="8"/>
       <c r="E613" s="3"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
-      <c r="D614" s="3"/>
+      <c r="D614" s="8"/>
       <c r="E614" s="3"/>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
-      <c r="D615" s="3"/>
+      <c r="D615" s="8"/>
       <c r="E615" s="3"/>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
-      <c r="D616" s="3"/>
+      <c r="D616" s="8"/>
       <c r="E616" s="3"/>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
-      <c r="D617" s="3"/>
+      <c r="D617" s="8"/>
       <c r="E617" s="3"/>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
-      <c r="D618" s="3"/>
+      <c r="D618" s="8"/>
       <c r="E618" s="3"/>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
-      <c r="D619" s="3"/>
+      <c r="D619" s="8"/>
       <c r="E619" s="3"/>
-    </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H619" s="4"/>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
-      <c r="D620" s="3"/>
+      <c r="D620" s="8"/>
       <c r="E620" s="3"/>
-    </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H620" s="4"/>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
-      <c r="D621" s="3"/>
+      <c r="D621" s="8"/>
       <c r="E621" s="3"/>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
-      <c r="D622" s="3"/>
+      <c r="D622" s="8"/>
       <c r="E622" s="3"/>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="D623" s="3"/>
       <c r="E623" s="3"/>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="D624" s="3"/>
       <c r="E624" s="3"/>
@@ -8302,7 +9975,6 @@
       <c r="E1129" s="3"/>
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1130" s="4"/>
       <c r="D1130" s="3"/>
       <c r="E1130" s="3"/>
     </row>
@@ -8356,10 +10028,9 @@
     </row>
     <row r="1143" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D1143" s="3"/>
-      <c r="E1143" s="3"/>
-    </row>
-    <row r="1144" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D1144" s="3"/>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H1048576" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
